--- a/toyota.xlsx
+++ b/toyota.xlsx
@@ -9,11 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="9768" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15336" windowHeight="5448"/>
   </bookViews>
   <sheets>
     <sheet name="harga_2019" sheetId="1" r:id="rId1"/>
-    <sheet name="tipe_official" sheetId="2" r:id="rId2"/>
+    <sheet name="harga_bekas" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="870" uniqueCount="69">
   <si>
     <t>Nama</t>
   </si>
@@ -72,9 +72,6 @@
     <t>Avanza</t>
   </si>
   <si>
-    <t>Avanza Veloz</t>
-  </si>
-  <si>
     <t>Rush</t>
   </si>
   <si>
@@ -82,9 +79,6 @@
   </si>
   <si>
     <t>Sienta</t>
-  </si>
-  <si>
-    <t>CHR</t>
   </si>
   <si>
     <t>tahun</t>
@@ -171,16 +165,7 @@
     <t>735.55</t>
   </si>
   <si>
-    <t>Hilux</t>
-  </si>
-  <si>
     <t>221.35</t>
-  </si>
-  <si>
-    <t>CHR Hybrid</t>
-  </si>
-  <si>
-    <t>523.35</t>
   </si>
   <si>
     <t>HiAce</t>
@@ -207,16 +192,46 @@
     <t>2000.0</t>
   </si>
   <si>
-    <t>Camry Hybrid</t>
-  </si>
-  <si>
-    <t>809.4</t>
-  </si>
-  <si>
     <t>Corolla Altis</t>
   </si>
   <si>
     <t>468.2</t>
+  </si>
+  <si>
+    <t>diesel</t>
+  </si>
+  <si>
+    <t>bensin</t>
+  </si>
+  <si>
+    <t>km (ribu)</t>
+  </si>
+  <si>
+    <t>kapmesin (cc)</t>
+  </si>
+  <si>
+    <t>Veloz</t>
+  </si>
+  <si>
+    <t>C-HR</t>
+  </si>
+  <si>
+    <t>C-HR Hybrid</t>
+  </si>
+  <si>
+    <t>Corolla Altis Hybrid</t>
+  </si>
+  <si>
+    <t>Alphard Hybrid</t>
+  </si>
+  <si>
+    <t>Hilux D Cab</t>
+  </si>
+  <si>
+    <t>Hilux S Cab</t>
+  </si>
+  <si>
+    <t>Dyna</t>
   </si>
 </sst>
 </file>
@@ -250,7 +265,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -275,6 +290,30 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCBCB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -289,7 +328,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -299,6 +338,10 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -306,6 +349,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFCBCB"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -580,15 +628,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K25"/>
+  <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="12.109375" customWidth="1"/>
+    <col min="1" max="1" width="17.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
@@ -619,14 +667,14 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" t="s">
+      <c r="A2" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="3">
@@ -651,30 +699,30 @@
         <v>2019</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" t="s">
-        <v>10</v>
+      <c r="A3" s="8" t="s">
+        <v>11</v>
       </c>
       <c r="B3">
-        <v>998</v>
+        <v>1197</v>
       </c>
       <c r="C3">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="D3">
-        <v>89</v>
+        <v>108</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
       </c>
       <c r="F3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G3" t="s">
         <v>9</v>
@@ -682,25 +730,25 @@
       <c r="H3">
         <v>2019</v>
       </c>
-      <c r="I3" s="3" t="s">
-        <v>23</v>
+      <c r="I3" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" t="s">
-        <v>11</v>
+      <c r="A4" s="8" t="s">
+        <v>17</v>
       </c>
       <c r="B4">
-        <v>1197</v>
+        <v>1496</v>
       </c>
       <c r="C4">
-        <v>87</v>
+        <v>109</v>
       </c>
       <c r="D4">
-        <v>108</v>
+        <v>143</v>
       </c>
       <c r="E4" t="s">
         <v>8</v>
@@ -714,25 +762,25 @@
       <c r="H4">
         <v>2019</v>
       </c>
-      <c r="I4" s="4" t="s">
-        <v>24</v>
+      <c r="I4" s="3" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="3">
-        <v>2393</v>
+      <c r="A5" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5">
+        <v>1329</v>
       </c>
       <c r="C5">
-        <v>148</v>
+        <v>91</v>
       </c>
       <c r="D5">
-        <v>400</v>
+        <v>120</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F5">
         <v>7</v>
@@ -744,21 +792,21 @@
         <v>2019</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" t="s">
-        <v>14</v>
+      <c r="A6" s="8" t="s">
+        <v>61</v>
       </c>
       <c r="B6">
         <v>1329</v>
       </c>
       <c r="C6">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D6">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E6" t="s">
         <v>8</v>
@@ -773,21 +821,21 @@
         <v>2019</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="B7">
-        <v>1329</v>
+        <v>1998</v>
       </c>
       <c r="C7">
-        <v>95</v>
+        <v>137</v>
       </c>
       <c r="D7">
-        <v>121</v>
+        <v>190</v>
       </c>
       <c r="E7" t="s">
         <v>8</v>
@@ -802,21 +850,21 @@
         <v>2019</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="B8">
-        <v>1496</v>
+        <v>1987</v>
       </c>
       <c r="C8">
-        <v>103</v>
+        <v>150</v>
       </c>
       <c r="D8">
-        <v>136</v>
+        <v>193</v>
       </c>
       <c r="E8" t="s">
         <v>8</v>
@@ -825,56 +873,56 @@
         <v>7</v>
       </c>
       <c r="G8" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="H8">
         <v>2019</v>
       </c>
-      <c r="I8" s="4" t="s">
-        <v>28</v>
+      <c r="I8" s="3" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9">
-        <v>1496</v>
+        <v>33</v>
+      </c>
+      <c r="B9" s="3">
+        <v>2494</v>
       </c>
       <c r="C9">
-        <v>106</v>
+        <v>178</v>
       </c>
       <c r="D9">
-        <v>140</v>
+        <v>234</v>
       </c>
       <c r="E9" t="s">
         <v>8</v>
       </c>
       <c r="F9">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G9" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="H9">
         <v>2019</v>
       </c>
-      <c r="I9" s="3" t="s">
-        <v>29</v>
+      <c r="I9" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="B10">
-        <v>1496</v>
+        <v>2494</v>
       </c>
       <c r="C10">
-        <v>109</v>
+        <v>178</v>
       </c>
       <c r="D10">
-        <v>143</v>
+        <v>234</v>
       </c>
       <c r="E10" t="s">
         <v>8</v>
@@ -883,27 +931,27 @@
         <v>7</v>
       </c>
       <c r="G10" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="H10">
         <v>2019</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="4">
+        <v>55</v>
+      </c>
+      <c r="B11">
         <v>1798</v>
       </c>
       <c r="C11">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D11">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="E11" t="s">
         <v>8</v>
@@ -912,143 +960,143 @@
         <v>5</v>
       </c>
       <c r="G11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H11">
         <v>2019</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>35</v>
-      </c>
-      <c r="B12" s="3">
+        <v>42</v>
+      </c>
+      <c r="B12">
         <v>2494</v>
       </c>
       <c r="C12">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D12">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="E12" t="s">
         <v>8</v>
       </c>
       <c r="F12">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G12" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="H12">
         <v>2019</v>
       </c>
-      <c r="I12" t="s">
-        <v>36</v>
+      <c r="I12" s="3" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="B13">
-        <v>4461</v>
+        <v>1496</v>
       </c>
       <c r="C13">
-        <v>232</v>
+        <v>106</v>
       </c>
       <c r="D13">
-        <v>616</v>
+        <v>140</v>
       </c>
       <c r="E13" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F13">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G13" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="H13">
         <v>2019</v>
       </c>
-      <c r="I13" t="s">
-        <v>39</v>
+      <c r="I13" s="3" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" t="s">
-        <v>40</v>
-      </c>
-      <c r="B14">
-        <v>1987</v>
+        <v>12</v>
+      </c>
+      <c r="B14" s="3">
+        <v>2393</v>
       </c>
       <c r="C14">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D14">
-        <v>193</v>
+        <v>400</v>
       </c>
       <c r="E14" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F14">
         <v>7</v>
       </c>
       <c r="G14" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="H14">
         <v>2019</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B15">
-        <v>1998</v>
+        <v>4461</v>
       </c>
       <c r="C15">
-        <v>137</v>
+        <v>232</v>
       </c>
       <c r="D15">
-        <v>190</v>
+        <v>616</v>
       </c>
       <c r="E15" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F15">
         <v>7</v>
       </c>
       <c r="G15" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="H15">
         <v>2019</v>
       </c>
-      <c r="I15" s="3" t="s">
-        <v>43</v>
+      <c r="I15" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" t="s">
-        <v>44</v>
-      </c>
-      <c r="B16">
-        <v>2494</v>
+        <v>62</v>
+      </c>
+      <c r="B16" s="4">
+        <v>1798</v>
       </c>
       <c r="C16">
-        <v>180</v>
+        <v>139</v>
       </c>
       <c r="D16">
-        <v>239</v>
+        <v>171</v>
       </c>
       <c r="E16" t="s">
         <v>8</v>
@@ -1057,33 +1105,33 @@
         <v>5</v>
       </c>
       <c r="G16" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="H16">
         <v>2019</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>1998</v>
+        <v>1496</v>
       </c>
       <c r="C17">
-        <v>197</v>
+        <v>103</v>
       </c>
       <c r="D17">
-        <v>205</v>
+        <v>136</v>
       </c>
       <c r="E17" t="s">
         <v>8</v>
       </c>
       <c r="F17">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G17" t="s">
         <v>9</v>
@@ -1091,51 +1139,51 @@
       <c r="H17">
         <v>2019</v>
       </c>
-      <c r="I17" s="3" t="s">
-        <v>47</v>
+      <c r="I17" s="4" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="B18">
-        <v>1998</v>
+        <v>1798</v>
       </c>
       <c r="C18">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D18">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="E18" t="s">
         <v>8</v>
       </c>
       <c r="F18">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G18" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="H18">
         <v>2019</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>50</v>
-      </c>
-      <c r="B19">
+        <v>63</v>
+      </c>
+      <c r="B19" s="4">
         <v>1798</v>
       </c>
       <c r="C19">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="D19">
-        <v>142</v>
+        <v>171</v>
       </c>
       <c r="E19" t="s">
         <v>8</v>
@@ -1144,47 +1192,47 @@
         <v>5</v>
       </c>
       <c r="G19" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H19">
         <v>2019</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>52</v>
-      </c>
-      <c r="B20">
+        <v>65</v>
+      </c>
+      <c r="B20" s="3">
         <v>2494</v>
       </c>
       <c r="C20">
-        <v>101</v>
+        <v>178</v>
       </c>
       <c r="D20">
-        <v>260</v>
+        <v>234</v>
       </c>
       <c r="E20" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F20">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="G20" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="H20">
         <v>2019</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>53</v>
+      <c r="I20" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="B21">
         <v>1496</v>
@@ -1202,56 +1250,56 @@
         <v>5</v>
       </c>
       <c r="G21" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="H21">
         <v>2019</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="B22">
-        <v>2494</v>
+        <v>998</v>
       </c>
       <c r="C22">
-        <v>178</v>
+        <v>66</v>
       </c>
       <c r="D22">
-        <v>234</v>
+        <v>89</v>
       </c>
       <c r="E22" t="s">
         <v>8</v>
       </c>
       <c r="F22">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G22" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="H22">
         <v>2019</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>57</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="B23">
-        <v>2998</v>
+        <v>1998</v>
       </c>
       <c r="C23">
-        <v>335</v>
+        <v>137</v>
       </c>
       <c r="D23">
-        <v>495</v>
+        <v>183</v>
       </c>
       <c r="E23" t="s">
         <v>8</v>
@@ -1260,72 +1308,144 @@
         <v>2</v>
       </c>
       <c r="G23" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="H23">
         <v>2019</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="B24">
-        <v>2487</v>
+        <v>1998</v>
       </c>
       <c r="C24">
-        <v>176</v>
+        <v>137</v>
       </c>
       <c r="D24">
-        <v>221</v>
+        <v>183</v>
       </c>
       <c r="E24" t="s">
         <v>8</v>
       </c>
       <c r="F24">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G24" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="H24">
         <v>2019</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="B25">
-        <v>1798</v>
+        <v>2494</v>
       </c>
       <c r="C25">
-        <v>138</v>
+        <v>101</v>
       </c>
       <c r="D25">
-        <v>177</v>
+        <v>260</v>
       </c>
       <c r="E25" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F25">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="G25" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="H25">
         <v>2019</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>63</v>
-      </c>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" t="s">
+        <v>44</v>
+      </c>
+      <c r="B27">
+        <v>1998</v>
+      </c>
+      <c r="C27">
+        <v>197</v>
+      </c>
+      <c r="D27">
+        <v>205</v>
+      </c>
+      <c r="E27" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27">
+        <v>4</v>
+      </c>
+      <c r="G27" t="s">
+        <v>9</v>
+      </c>
+      <c r="H27">
+        <v>2019</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28">
+        <v>2998</v>
+      </c>
+      <c r="C28">
+        <v>335</v>
+      </c>
+      <c r="D28">
+        <v>495</v>
+      </c>
+      <c r="E28" t="s">
+        <v>8</v>
+      </c>
+      <c r="F28">
+        <v>2</v>
+      </c>
+      <c r="G28" t="s">
+        <v>36</v>
+      </c>
+      <c r="H28">
+        <v>2019</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="47" spans="9:9">
+      <c r="I47" s="3"/>
+    </row>
+    <row r="48" spans="9:9">
+      <c r="I48" s="3"/>
+    </row>
+    <row r="53" spans="9:9">
+      <c r="I53" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1338,12 +1458,5772 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G250"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A234" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G246" sqref="G246"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2">
+        <v>1998</v>
+      </c>
+      <c r="C2">
+        <v>90</v>
+      </c>
+      <c r="D2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2">
+        <v>2011</v>
+      </c>
+      <c r="G2">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>1998</v>
+      </c>
+      <c r="C3">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3">
+        <v>2018</v>
+      </c>
+      <c r="G3">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>1998</v>
+      </c>
+      <c r="C4">
+        <v>60</v>
+      </c>
+      <c r="D4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4">
+        <v>2014</v>
+      </c>
+      <c r="G4">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>1998</v>
+      </c>
+      <c r="C5">
+        <v>90</v>
+      </c>
+      <c r="D5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5">
+        <v>2012</v>
+      </c>
+      <c r="G5">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>1998</v>
+      </c>
+      <c r="C6">
+        <v>45</v>
+      </c>
+      <c r="D6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6">
+        <v>2012</v>
+      </c>
+      <c r="G6">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>1998</v>
+      </c>
+      <c r="C7">
+        <v>15</v>
+      </c>
+      <c r="D7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7">
+        <v>2012</v>
+      </c>
+      <c r="G7">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>1998</v>
+      </c>
+      <c r="C8">
+        <v>20</v>
+      </c>
+      <c r="D8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8">
+        <v>2006</v>
+      </c>
+      <c r="G8">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>1998</v>
+      </c>
+      <c r="C9">
+        <v>80</v>
+      </c>
+      <c r="D9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9">
+        <v>2014</v>
+      </c>
+      <c r="G9">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>1998</v>
+      </c>
+      <c r="C10">
+        <v>35</v>
+      </c>
+      <c r="D10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10">
+        <v>2016</v>
+      </c>
+      <c r="G10">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>1998</v>
+      </c>
+      <c r="C11">
+        <v>105</v>
+      </c>
+      <c r="D11" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11">
+        <v>2010</v>
+      </c>
+      <c r="G11">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12">
+        <v>1998</v>
+      </c>
+      <c r="C12">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12">
+        <v>2019</v>
+      </c>
+      <c r="G12">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13">
+        <v>1998</v>
+      </c>
+      <c r="C13">
+        <v>105</v>
+      </c>
+      <c r="D13" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13">
+        <v>2013</v>
+      </c>
+      <c r="G13">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14">
+        <v>1998</v>
+      </c>
+      <c r="C14">
+        <v>225</v>
+      </c>
+      <c r="D14" t="s">
+        <v>58</v>
+      </c>
+      <c r="E14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14">
+        <v>2006</v>
+      </c>
+      <c r="G14">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15">
+        <v>1998</v>
+      </c>
+      <c r="C15">
+        <v>20</v>
+      </c>
+      <c r="D15" t="s">
+        <v>57</v>
+      </c>
+      <c r="E15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15">
+        <v>2018</v>
+      </c>
+      <c r="G15">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16">
+        <v>1998</v>
+      </c>
+      <c r="C16">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>58</v>
+      </c>
+      <c r="E16" t="s">
+        <v>36</v>
+      </c>
+      <c r="F16">
+        <v>2016</v>
+      </c>
+      <c r="G16">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17">
+        <v>1998</v>
+      </c>
+      <c r="C17">
+        <v>15</v>
+      </c>
+      <c r="D17" t="s">
+        <v>57</v>
+      </c>
+      <c r="E17" t="s">
+        <v>36</v>
+      </c>
+      <c r="F17">
+        <v>2012</v>
+      </c>
+      <c r="G17">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18">
+        <v>1998</v>
+      </c>
+      <c r="C18">
+        <v>155</v>
+      </c>
+      <c r="D18" t="s">
+        <v>58</v>
+      </c>
+      <c r="E18" t="s">
+        <v>36</v>
+      </c>
+      <c r="F18">
+        <v>2011</v>
+      </c>
+      <c r="G18">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19">
+        <v>1998</v>
+      </c>
+      <c r="C19">
+        <v>110</v>
+      </c>
+      <c r="D19" t="s">
+        <v>57</v>
+      </c>
+      <c r="E19" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19">
+        <v>2012</v>
+      </c>
+      <c r="G19">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20">
+        <v>1998</v>
+      </c>
+      <c r="C20">
+        <v>65</v>
+      </c>
+      <c r="D20" t="s">
+        <v>58</v>
+      </c>
+      <c r="E20" t="s">
+        <v>36</v>
+      </c>
+      <c r="F20">
+        <v>2017</v>
+      </c>
+      <c r="G20">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21">
+        <v>1998</v>
+      </c>
+      <c r="C21">
+        <v>165</v>
+      </c>
+      <c r="D21" t="s">
+        <v>57</v>
+      </c>
+      <c r="E21" t="s">
+        <v>36</v>
+      </c>
+      <c r="F21">
+        <v>2008</v>
+      </c>
+      <c r="G21">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22">
+        <v>1998</v>
+      </c>
+      <c r="C22">
+        <v>90</v>
+      </c>
+      <c r="D22" t="s">
+        <v>57</v>
+      </c>
+      <c r="E22" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22">
+        <v>2008</v>
+      </c>
+      <c r="G22">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23">
+        <v>1998</v>
+      </c>
+      <c r="C23">
+        <v>45</v>
+      </c>
+      <c r="D23" t="s">
+        <v>58</v>
+      </c>
+      <c r="E23" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23">
+        <v>2014</v>
+      </c>
+      <c r="G23">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24">
+        <v>1998</v>
+      </c>
+      <c r="C24">
+        <v>140</v>
+      </c>
+      <c r="D24" t="s">
+        <v>58</v>
+      </c>
+      <c r="E24" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24">
+        <v>2009</v>
+      </c>
+      <c r="G24">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25">
+        <v>1998</v>
+      </c>
+      <c r="C25">
+        <v>70</v>
+      </c>
+      <c r="D25" t="s">
+        <v>58</v>
+      </c>
+      <c r="E25" t="s">
+        <v>36</v>
+      </c>
+      <c r="F25">
+        <v>2014</v>
+      </c>
+      <c r="G25">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26">
+        <v>1998</v>
+      </c>
+      <c r="C26">
+        <v>40</v>
+      </c>
+      <c r="D26" t="s">
+        <v>58</v>
+      </c>
+      <c r="E26" t="s">
+        <v>36</v>
+      </c>
+      <c r="F26">
+        <v>2012</v>
+      </c>
+      <c r="G26">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27">
+        <v>1998</v>
+      </c>
+      <c r="C27">
+        <v>80</v>
+      </c>
+      <c r="D27" t="s">
+        <v>58</v>
+      </c>
+      <c r="E27" t="s">
+        <v>36</v>
+      </c>
+      <c r="F27">
+        <v>2008</v>
+      </c>
+      <c r="G27">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28">
+        <v>1998</v>
+      </c>
+      <c r="C28">
+        <v>135</v>
+      </c>
+      <c r="D28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E28" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28">
+        <v>2009</v>
+      </c>
+      <c r="G28">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29">
+        <v>1998</v>
+      </c>
+      <c r="C29">
+        <v>35</v>
+      </c>
+      <c r="D29" t="s">
+        <v>57</v>
+      </c>
+      <c r="E29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F29">
+        <v>2012</v>
+      </c>
+      <c r="G29">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30">
+        <v>1998</v>
+      </c>
+      <c r="C30">
+        <v>15</v>
+      </c>
+      <c r="D30" t="s">
+        <v>58</v>
+      </c>
+      <c r="E30" t="s">
+        <v>36</v>
+      </c>
+      <c r="F30">
+        <v>2016</v>
+      </c>
+      <c r="G30">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31">
+        <v>1998</v>
+      </c>
+      <c r="C31">
+        <v>130</v>
+      </c>
+      <c r="D31" t="s">
+        <v>57</v>
+      </c>
+      <c r="E31" t="s">
+        <v>36</v>
+      </c>
+      <c r="F31">
+        <v>2013</v>
+      </c>
+      <c r="G31">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32">
+        <v>1998</v>
+      </c>
+      <c r="C32">
+        <v>65</v>
+      </c>
+      <c r="D32" t="s">
+        <v>57</v>
+      </c>
+      <c r="E32" t="s">
+        <v>9</v>
+      </c>
+      <c r="F32">
+        <v>2016</v>
+      </c>
+      <c r="G32">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33">
+        <v>1998</v>
+      </c>
+      <c r="C33">
+        <v>75</v>
+      </c>
+      <c r="D33" t="s">
+        <v>58</v>
+      </c>
+      <c r="E33" t="s">
+        <v>36</v>
+      </c>
+      <c r="F33">
+        <v>2008</v>
+      </c>
+      <c r="G33">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34">
+        <v>1998</v>
+      </c>
+      <c r="C34">
+        <v>145</v>
+      </c>
+      <c r="D34" t="s">
+        <v>58</v>
+      </c>
+      <c r="E34" t="s">
+        <v>9</v>
+      </c>
+      <c r="F34">
+        <v>2009</v>
+      </c>
+      <c r="G34">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B35">
+        <v>1998</v>
+      </c>
+      <c r="C35">
+        <v>115</v>
+      </c>
+      <c r="D35" t="s">
+        <v>58</v>
+      </c>
+      <c r="E35" t="s">
+        <v>36</v>
+      </c>
+      <c r="F35">
+        <v>2009</v>
+      </c>
+      <c r="G35">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B36">
+        <v>1998</v>
+      </c>
+      <c r="C36">
+        <v>200</v>
+      </c>
+      <c r="D36" t="s">
+        <v>58</v>
+      </c>
+      <c r="E36" t="s">
+        <v>9</v>
+      </c>
+      <c r="F36">
+        <v>2005</v>
+      </c>
+      <c r="G36">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B37">
+        <v>1998</v>
+      </c>
+      <c r="C37">
+        <v>95</v>
+      </c>
+      <c r="D37" t="s">
+        <v>58</v>
+      </c>
+      <c r="E37" t="s">
+        <v>9</v>
+      </c>
+      <c r="F37">
+        <v>2005</v>
+      </c>
+      <c r="G37">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B38">
+        <v>1998</v>
+      </c>
+      <c r="C38">
+        <v>95</v>
+      </c>
+      <c r="D38" t="s">
+        <v>58</v>
+      </c>
+      <c r="E38" t="s">
+        <v>36</v>
+      </c>
+      <c r="F38">
+        <v>2013</v>
+      </c>
+      <c r="G38">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B39">
+        <v>1998</v>
+      </c>
+      <c r="C39">
+        <v>100</v>
+      </c>
+      <c r="D39" t="s">
+        <v>58</v>
+      </c>
+      <c r="E39" t="s">
+        <v>9</v>
+      </c>
+      <c r="F39">
+        <v>2011</v>
+      </c>
+      <c r="G39">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B40">
+        <v>1998</v>
+      </c>
+      <c r="C40">
+        <v>90</v>
+      </c>
+      <c r="D40" t="s">
+        <v>57</v>
+      </c>
+      <c r="E40" t="s">
+        <v>36</v>
+      </c>
+      <c r="F40">
+        <v>2013</v>
+      </c>
+      <c r="G40">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B41">
+        <v>1998</v>
+      </c>
+      <c r="C41">
+        <v>150</v>
+      </c>
+      <c r="D41" t="s">
+        <v>58</v>
+      </c>
+      <c r="E41" t="s">
+        <v>9</v>
+      </c>
+      <c r="F41">
+        <v>2009</v>
+      </c>
+      <c r="G41">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B42">
+        <v>1998</v>
+      </c>
+      <c r="C42">
+        <v>150</v>
+      </c>
+      <c r="D42" t="s">
+        <v>58</v>
+      </c>
+      <c r="E42" t="s">
+        <v>9</v>
+      </c>
+      <c r="F42">
+        <v>2008</v>
+      </c>
+      <c r="G42">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B43">
+        <v>1998</v>
+      </c>
+      <c r="C43">
+        <v>80</v>
+      </c>
+      <c r="D43" t="s">
+        <v>58</v>
+      </c>
+      <c r="E43" t="s">
+        <v>36</v>
+      </c>
+      <c r="F43">
+        <v>2013</v>
+      </c>
+      <c r="G43">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B44">
+        <v>1998</v>
+      </c>
+      <c r="C44">
+        <v>95</v>
+      </c>
+      <c r="D44" t="s">
+        <v>58</v>
+      </c>
+      <c r="E44" t="s">
+        <v>9</v>
+      </c>
+      <c r="F44">
+        <v>2005</v>
+      </c>
+      <c r="G44">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B45">
+        <v>1998</v>
+      </c>
+      <c r="C45">
+        <v>145</v>
+      </c>
+      <c r="D45" t="s">
+        <v>57</v>
+      </c>
+      <c r="E45" t="s">
+        <v>36</v>
+      </c>
+      <c r="F45">
+        <v>2008</v>
+      </c>
+      <c r="G45">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B46">
+        <v>1998</v>
+      </c>
+      <c r="C46">
+        <v>105</v>
+      </c>
+      <c r="D46" t="s">
+        <v>58</v>
+      </c>
+      <c r="E46" t="s">
+        <v>9</v>
+      </c>
+      <c r="F46">
+        <v>2009</v>
+      </c>
+      <c r="G46">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B47">
+        <v>1998</v>
+      </c>
+      <c r="C47">
+        <v>115</v>
+      </c>
+      <c r="D47" t="s">
+        <v>58</v>
+      </c>
+      <c r="E47" t="s">
+        <v>9</v>
+      </c>
+      <c r="F47">
+        <v>2013</v>
+      </c>
+      <c r="G47">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B48">
+        <v>1998</v>
+      </c>
+      <c r="C48">
+        <v>150</v>
+      </c>
+      <c r="D48" t="s">
+        <v>58</v>
+      </c>
+      <c r="E48" t="s">
+        <v>9</v>
+      </c>
+      <c r="F48">
+        <v>2009</v>
+      </c>
+      <c r="G48">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B49">
+        <v>1998</v>
+      </c>
+      <c r="C49">
+        <v>300</v>
+      </c>
+      <c r="D49" t="s">
+        <v>58</v>
+      </c>
+      <c r="E49" t="s">
+        <v>9</v>
+      </c>
+      <c r="F49">
+        <v>2005</v>
+      </c>
+      <c r="G49">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B50">
+        <v>1998</v>
+      </c>
+      <c r="C50">
+        <v>110</v>
+      </c>
+      <c r="D50" t="s">
+        <v>58</v>
+      </c>
+      <c r="E50" t="s">
+        <v>36</v>
+      </c>
+      <c r="F50">
+        <v>2008</v>
+      </c>
+      <c r="G50">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B51">
+        <v>1998</v>
+      </c>
+      <c r="C51">
+        <v>145</v>
+      </c>
+      <c r="D51" t="s">
+        <v>58</v>
+      </c>
+      <c r="E51" t="s">
+        <v>9</v>
+      </c>
+      <c r="F51">
+        <v>2004</v>
+      </c>
+      <c r="G51">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B52">
+        <v>1998</v>
+      </c>
+      <c r="C52">
+        <v>205</v>
+      </c>
+      <c r="D52" t="s">
+        <v>58</v>
+      </c>
+      <c r="E52" t="s">
+        <v>9</v>
+      </c>
+      <c r="F52">
+        <v>2004</v>
+      </c>
+      <c r="G52">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B53">
+        <v>1197</v>
+      </c>
+      <c r="C53">
+        <v>10</v>
+      </c>
+      <c r="D53" t="s">
+        <v>58</v>
+      </c>
+      <c r="E53" t="s">
+        <v>9</v>
+      </c>
+      <c r="F53">
+        <v>2018</v>
+      </c>
+      <c r="G53">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B54">
+        <v>1197</v>
+      </c>
+      <c r="C54">
+        <v>5</v>
+      </c>
+      <c r="D54" t="s">
+        <v>58</v>
+      </c>
+      <c r="E54" t="s">
+        <v>9</v>
+      </c>
+      <c r="F54">
+        <v>2019</v>
+      </c>
+      <c r="G54">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B55">
+        <v>1197</v>
+      </c>
+      <c r="C55">
+        <v>5</v>
+      </c>
+      <c r="D55" t="s">
+        <v>58</v>
+      </c>
+      <c r="E55" t="s">
+        <v>9</v>
+      </c>
+      <c r="F55">
+        <v>2019</v>
+      </c>
+      <c r="G55">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B56">
+        <v>1197</v>
+      </c>
+      <c r="C56">
+        <v>15</v>
+      </c>
+      <c r="D56" t="s">
+        <v>58</v>
+      </c>
+      <c r="E56" t="s">
+        <v>9</v>
+      </c>
+      <c r="F56">
+        <v>2018</v>
+      </c>
+      <c r="G56">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B57">
+        <v>1197</v>
+      </c>
+      <c r="C57">
+        <v>85</v>
+      </c>
+      <c r="D57" t="s">
+        <v>58</v>
+      </c>
+      <c r="E57" t="s">
+        <v>9</v>
+      </c>
+      <c r="F57">
+        <v>2017</v>
+      </c>
+      <c r="G57">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B58">
+        <v>1197</v>
+      </c>
+      <c r="C58">
+        <v>45</v>
+      </c>
+      <c r="D58" t="s">
+        <v>58</v>
+      </c>
+      <c r="E58" t="s">
+        <v>36</v>
+      </c>
+      <c r="F58">
+        <v>2016</v>
+      </c>
+      <c r="G58">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B59">
+        <v>1197</v>
+      </c>
+      <c r="C59">
+        <v>25</v>
+      </c>
+      <c r="D59" t="s">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>9</v>
+      </c>
+      <c r="F59">
+        <v>2018</v>
+      </c>
+      <c r="G59">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B60">
+        <v>1197</v>
+      </c>
+      <c r="C60">
+        <v>30</v>
+      </c>
+      <c r="D60" t="s">
+        <v>58</v>
+      </c>
+      <c r="E60" t="s">
+        <v>9</v>
+      </c>
+      <c r="F60">
+        <v>2017</v>
+      </c>
+      <c r="G60">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B61">
+        <v>1197</v>
+      </c>
+      <c r="C61">
+        <v>5</v>
+      </c>
+      <c r="D61" t="s">
+        <v>58</v>
+      </c>
+      <c r="E61" t="s">
+        <v>9</v>
+      </c>
+      <c r="F61">
+        <v>2019</v>
+      </c>
+      <c r="G61">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B62">
+        <v>1197</v>
+      </c>
+      <c r="C62">
+        <v>10</v>
+      </c>
+      <c r="D62" t="s">
+        <v>58</v>
+      </c>
+      <c r="E62" t="s">
+        <v>9</v>
+      </c>
+      <c r="F62">
+        <v>2018</v>
+      </c>
+      <c r="G62">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B63">
+        <v>1197</v>
+      </c>
+      <c r="C63">
+        <v>10</v>
+      </c>
+      <c r="D63" t="s">
+        <v>58</v>
+      </c>
+      <c r="E63" t="s">
+        <v>9</v>
+      </c>
+      <c r="F63">
+        <v>2018</v>
+      </c>
+      <c r="G63">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B64">
+        <v>1197</v>
+      </c>
+      <c r="C64">
+        <v>5</v>
+      </c>
+      <c r="D64" t="s">
+        <v>58</v>
+      </c>
+      <c r="E64" t="s">
+        <v>9</v>
+      </c>
+      <c r="F64">
+        <v>2019</v>
+      </c>
+      <c r="G64">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B65">
+        <v>1197</v>
+      </c>
+      <c r="C65">
+        <v>5</v>
+      </c>
+      <c r="D65" t="s">
+        <v>58</v>
+      </c>
+      <c r="E65" t="s">
+        <v>9</v>
+      </c>
+      <c r="F65">
+        <v>2019</v>
+      </c>
+      <c r="G65">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B66">
+        <v>1197</v>
+      </c>
+      <c r="C66">
+        <v>10</v>
+      </c>
+      <c r="D66" t="s">
+        <v>58</v>
+      </c>
+      <c r="E66" t="s">
+        <v>9</v>
+      </c>
+      <c r="F66">
+        <v>2018</v>
+      </c>
+      <c r="G66">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B67">
+        <v>1197</v>
+      </c>
+      <c r="C67">
+        <v>5</v>
+      </c>
+      <c r="D67" t="s">
+        <v>58</v>
+      </c>
+      <c r="E67" t="s">
+        <v>9</v>
+      </c>
+      <c r="F67">
+        <v>2019</v>
+      </c>
+      <c r="G67">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B68">
+        <v>1197</v>
+      </c>
+      <c r="C68">
+        <v>30</v>
+      </c>
+      <c r="D68" t="s">
+        <v>58</v>
+      </c>
+      <c r="E68" t="s">
+        <v>36</v>
+      </c>
+      <c r="F68">
+        <v>2018</v>
+      </c>
+      <c r="G68">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B69">
+        <v>1197</v>
+      </c>
+      <c r="C69">
+        <v>45</v>
+      </c>
+      <c r="D69" t="s">
+        <v>58</v>
+      </c>
+      <c r="E69" t="s">
+        <v>9</v>
+      </c>
+      <c r="F69">
+        <v>2017</v>
+      </c>
+      <c r="G69">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B70">
+        <v>1197</v>
+      </c>
+      <c r="C70">
+        <v>20</v>
+      </c>
+      <c r="D70" t="s">
+        <v>58</v>
+      </c>
+      <c r="E70" t="s">
+        <v>36</v>
+      </c>
+      <c r="F70">
+        <v>2017</v>
+      </c>
+      <c r="G70">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B71">
+        <v>1197</v>
+      </c>
+      <c r="C71">
+        <v>55</v>
+      </c>
+      <c r="D71" t="s">
+        <v>58</v>
+      </c>
+      <c r="E71" t="s">
+        <v>9</v>
+      </c>
+      <c r="F71">
+        <v>2016</v>
+      </c>
+      <c r="G71">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B72">
+        <v>1197</v>
+      </c>
+      <c r="C72">
+        <v>75</v>
+      </c>
+      <c r="D72" t="s">
+        <v>58</v>
+      </c>
+      <c r="E72" t="s">
+        <v>36</v>
+      </c>
+      <c r="F72">
+        <v>2016</v>
+      </c>
+      <c r="G72">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B73">
+        <v>1197</v>
+      </c>
+      <c r="C73">
+        <v>30</v>
+      </c>
+      <c r="D73" t="s">
+        <v>58</v>
+      </c>
+      <c r="E73" t="s">
+        <v>9</v>
+      </c>
+      <c r="F73">
+        <v>2017</v>
+      </c>
+      <c r="G73">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B74">
+        <v>1197</v>
+      </c>
+      <c r="C74">
+        <v>40</v>
+      </c>
+      <c r="D74" t="s">
+        <v>58</v>
+      </c>
+      <c r="E74" t="s">
+        <v>9</v>
+      </c>
+      <c r="F74">
+        <v>2017</v>
+      </c>
+      <c r="G74">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B75">
+        <v>1197</v>
+      </c>
+      <c r="C75">
+        <v>35</v>
+      </c>
+      <c r="D75" t="s">
+        <v>58</v>
+      </c>
+      <c r="E75" t="s">
+        <v>36</v>
+      </c>
+      <c r="F75">
+        <v>2017</v>
+      </c>
+      <c r="G75">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B76">
+        <v>1197</v>
+      </c>
+      <c r="C76">
+        <v>30</v>
+      </c>
+      <c r="D76" t="s">
+        <v>58</v>
+      </c>
+      <c r="E76" t="s">
+        <v>9</v>
+      </c>
+      <c r="F76">
+        <v>2017</v>
+      </c>
+      <c r="G76">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B77">
+        <v>1197</v>
+      </c>
+      <c r="C77">
+        <v>30</v>
+      </c>
+      <c r="D77" t="s">
+        <v>58</v>
+      </c>
+      <c r="E77" t="s">
+        <v>36</v>
+      </c>
+      <c r="F77">
+        <v>2016</v>
+      </c>
+      <c r="G77">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B78">
+        <v>1197</v>
+      </c>
+      <c r="C78">
+        <v>45</v>
+      </c>
+      <c r="D78" t="s">
+        <v>58</v>
+      </c>
+      <c r="E78" t="s">
+        <v>9</v>
+      </c>
+      <c r="F78">
+        <v>2016</v>
+      </c>
+      <c r="G78">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B79">
+        <v>1197</v>
+      </c>
+      <c r="C79">
+        <v>5</v>
+      </c>
+      <c r="D79" t="s">
+        <v>58</v>
+      </c>
+      <c r="E79" t="s">
+        <v>9</v>
+      </c>
+      <c r="F79">
+        <v>2019</v>
+      </c>
+      <c r="G79">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B80">
+        <v>1197</v>
+      </c>
+      <c r="C80">
+        <v>5</v>
+      </c>
+      <c r="D80" t="s">
+        <v>58</v>
+      </c>
+      <c r="E80" t="s">
+        <v>9</v>
+      </c>
+      <c r="F80">
+        <v>2019</v>
+      </c>
+      <c r="G80">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="A81" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B81">
+        <v>1197</v>
+      </c>
+      <c r="C81">
+        <v>5</v>
+      </c>
+      <c r="D81" t="s">
+        <v>58</v>
+      </c>
+      <c r="E81" t="s">
+        <v>9</v>
+      </c>
+      <c r="F81">
+        <v>2019</v>
+      </c>
+      <c r="G81">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B82">
+        <v>1197</v>
+      </c>
+      <c r="C82">
+        <v>50</v>
+      </c>
+      <c r="D82" t="s">
+        <v>58</v>
+      </c>
+      <c r="E82" t="s">
+        <v>36</v>
+      </c>
+      <c r="F82">
+        <v>2017</v>
+      </c>
+      <c r="G82">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B83">
+        <v>1197</v>
+      </c>
+      <c r="C83">
+        <v>30</v>
+      </c>
+      <c r="D83" t="s">
+        <v>58</v>
+      </c>
+      <c r="E83" t="s">
+        <v>36</v>
+      </c>
+      <c r="F83">
+        <v>2016</v>
+      </c>
+      <c r="G83">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="A84" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B84">
+        <v>1197</v>
+      </c>
+      <c r="C84">
+        <v>30</v>
+      </c>
+      <c r="D84" t="s">
+        <v>58</v>
+      </c>
+      <c r="E84" t="s">
+        <v>36</v>
+      </c>
+      <c r="F84">
+        <v>2017</v>
+      </c>
+      <c r="G84">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
+      <c r="A85" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B85">
+        <v>1197</v>
+      </c>
+      <c r="C85">
+        <v>20</v>
+      </c>
+      <c r="D85" t="s">
+        <v>58</v>
+      </c>
+      <c r="E85" t="s">
+        <v>9</v>
+      </c>
+      <c r="F85">
+        <v>2017</v>
+      </c>
+      <c r="G85">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B86">
+        <v>1197</v>
+      </c>
+      <c r="C86">
+        <v>45</v>
+      </c>
+      <c r="D86" t="s">
+        <v>58</v>
+      </c>
+      <c r="E86" t="s">
+        <v>9</v>
+      </c>
+      <c r="F86">
+        <v>2016</v>
+      </c>
+      <c r="G86">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B87">
+        <v>1197</v>
+      </c>
+      <c r="C87">
+        <v>5</v>
+      </c>
+      <c r="D87" t="s">
+        <v>58</v>
+      </c>
+      <c r="E87" t="s">
+        <v>9</v>
+      </c>
+      <c r="F87">
+        <v>2019</v>
+      </c>
+      <c r="G87">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B88">
+        <v>1197</v>
+      </c>
+      <c r="C88">
+        <v>5</v>
+      </c>
+      <c r="D88" t="s">
+        <v>58</v>
+      </c>
+      <c r="E88" t="s">
+        <v>9</v>
+      </c>
+      <c r="F88">
+        <v>2019</v>
+      </c>
+      <c r="G88">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
+      <c r="A89" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B89">
+        <v>1197</v>
+      </c>
+      <c r="C89">
+        <v>20</v>
+      </c>
+      <c r="D89" t="s">
+        <v>58</v>
+      </c>
+      <c r="E89" t="s">
+        <v>9</v>
+      </c>
+      <c r="F89">
+        <v>2016</v>
+      </c>
+      <c r="G89">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="A90" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B90">
+        <v>1197</v>
+      </c>
+      <c r="C90">
+        <v>60</v>
+      </c>
+      <c r="D90" t="s">
+        <v>58</v>
+      </c>
+      <c r="E90" t="s">
+        <v>36</v>
+      </c>
+      <c r="F90">
+        <v>2017</v>
+      </c>
+      <c r="G90">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
+      <c r="A91" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B91">
+        <v>1197</v>
+      </c>
+      <c r="C91">
+        <v>70</v>
+      </c>
+      <c r="D91" t="s">
+        <v>58</v>
+      </c>
+      <c r="E91" t="s">
+        <v>36</v>
+      </c>
+      <c r="F91">
+        <v>2016</v>
+      </c>
+      <c r="G91">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
+      <c r="A92" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B92">
+        <v>1197</v>
+      </c>
+      <c r="C92">
+        <v>70</v>
+      </c>
+      <c r="D92" t="s">
+        <v>58</v>
+      </c>
+      <c r="E92" t="s">
+        <v>9</v>
+      </c>
+      <c r="F92">
+        <v>2016</v>
+      </c>
+      <c r="G92">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
+      <c r="A93" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B93">
+        <v>1197</v>
+      </c>
+      <c r="C93">
+        <v>55</v>
+      </c>
+      <c r="D93" t="s">
+        <v>58</v>
+      </c>
+      <c r="E93" t="s">
+        <v>9</v>
+      </c>
+      <c r="F93">
+        <v>2016</v>
+      </c>
+      <c r="G93">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
+      <c r="A94" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B94">
+        <v>1197</v>
+      </c>
+      <c r="C94">
+        <v>15</v>
+      </c>
+      <c r="D94" t="s">
+        <v>58</v>
+      </c>
+      <c r="E94" t="s">
+        <v>36</v>
+      </c>
+      <c r="F94">
+        <v>2016</v>
+      </c>
+      <c r="G94">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
+      <c r="A95" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B95">
+        <v>1197</v>
+      </c>
+      <c r="C95">
+        <v>30</v>
+      </c>
+      <c r="D95" t="s">
+        <v>58</v>
+      </c>
+      <c r="E95" t="s">
+        <v>36</v>
+      </c>
+      <c r="F95">
+        <v>2017</v>
+      </c>
+      <c r="G95">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
+      <c r="A96" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B96">
+        <v>1197</v>
+      </c>
+      <c r="C96">
+        <v>25</v>
+      </c>
+      <c r="D96" t="s">
+        <v>58</v>
+      </c>
+      <c r="E96" t="s">
+        <v>9</v>
+      </c>
+      <c r="F96">
+        <v>2017</v>
+      </c>
+      <c r="G96">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
+      <c r="A97" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B97">
+        <v>1197</v>
+      </c>
+      <c r="C97">
+        <v>25</v>
+      </c>
+      <c r="D97" t="s">
+        <v>58</v>
+      </c>
+      <c r="E97" t="s">
+        <v>9</v>
+      </c>
+      <c r="F97">
+        <v>2017</v>
+      </c>
+      <c r="G97">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
+      <c r="A98" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B98">
+        <v>1197</v>
+      </c>
+      <c r="C98">
+        <v>20</v>
+      </c>
+      <c r="D98" t="s">
+        <v>58</v>
+      </c>
+      <c r="E98" t="s">
+        <v>36</v>
+      </c>
+      <c r="F98">
+        <v>2017</v>
+      </c>
+      <c r="G98">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
+      <c r="A99" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B99">
+        <v>1197</v>
+      </c>
+      <c r="C99">
+        <v>15</v>
+      </c>
+      <c r="D99" t="s">
+        <v>58</v>
+      </c>
+      <c r="E99" t="s">
+        <v>36</v>
+      </c>
+      <c r="F99">
+        <v>2017</v>
+      </c>
+      <c r="G99">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
+      <c r="A100" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B100">
+        <v>1197</v>
+      </c>
+      <c r="C100">
+        <v>10</v>
+      </c>
+      <c r="D100" t="s">
+        <v>58</v>
+      </c>
+      <c r="E100" t="s">
+        <v>9</v>
+      </c>
+      <c r="F100">
+        <v>2018</v>
+      </c>
+      <c r="G100">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
+      <c r="A101" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B101">
+        <v>1496</v>
+      </c>
+      <c r="C101">
+        <v>60</v>
+      </c>
+      <c r="D101" t="s">
+        <v>58</v>
+      </c>
+      <c r="E101" t="s">
+        <v>36</v>
+      </c>
+      <c r="F101">
+        <v>2016</v>
+      </c>
+      <c r="G101">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
+      <c r="A102" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B102">
+        <v>1496</v>
+      </c>
+      <c r="C102">
+        <v>30</v>
+      </c>
+      <c r="D102" t="s">
+        <v>58</v>
+      </c>
+      <c r="E102" t="s">
+        <v>36</v>
+      </c>
+      <c r="F102">
+        <v>2017</v>
+      </c>
+      <c r="G102">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
+      <c r="A103" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B103">
+        <v>1496</v>
+      </c>
+      <c r="C103">
+        <v>35</v>
+      </c>
+      <c r="D103" t="s">
+        <v>58</v>
+      </c>
+      <c r="E103" t="s">
+        <v>36</v>
+      </c>
+      <c r="F103">
+        <v>2016</v>
+      </c>
+      <c r="G103">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
+      <c r="A104" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B104">
+        <v>1496</v>
+      </c>
+      <c r="C104">
+        <v>60</v>
+      </c>
+      <c r="D104" t="s">
+        <v>58</v>
+      </c>
+      <c r="E104" t="s">
+        <v>36</v>
+      </c>
+      <c r="F104">
+        <v>2016</v>
+      </c>
+      <c r="G104">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
+      <c r="A105" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B105">
+        <v>1496</v>
+      </c>
+      <c r="C105">
+        <v>40</v>
+      </c>
+      <c r="D105" t="s">
+        <v>58</v>
+      </c>
+      <c r="E105" t="s">
+        <v>9</v>
+      </c>
+      <c r="F105">
+        <v>2017</v>
+      </c>
+      <c r="G105">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7">
+      <c r="A106" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B106">
+        <v>1496</v>
+      </c>
+      <c r="C106">
+        <v>65</v>
+      </c>
+      <c r="D106" t="s">
+        <v>58</v>
+      </c>
+      <c r="E106" t="s">
+        <v>9</v>
+      </c>
+      <c r="F106">
+        <v>2017</v>
+      </c>
+      <c r="G106">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7">
+      <c r="A107" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B107">
+        <v>1496</v>
+      </c>
+      <c r="C107">
+        <v>20</v>
+      </c>
+      <c r="D107" t="s">
+        <v>58</v>
+      </c>
+      <c r="E107" t="s">
+        <v>9</v>
+      </c>
+      <c r="F107">
+        <v>2016</v>
+      </c>
+      <c r="G107">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7">
+      <c r="A108" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B108">
+        <v>1496</v>
+      </c>
+      <c r="C108">
+        <v>45</v>
+      </c>
+      <c r="D108" t="s">
+        <v>58</v>
+      </c>
+      <c r="E108" t="s">
+        <v>36</v>
+      </c>
+      <c r="F108">
+        <v>2016</v>
+      </c>
+      <c r="G108">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7">
+      <c r="A109" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B109">
+        <v>1496</v>
+      </c>
+      <c r="C109">
+        <v>10</v>
+      </c>
+      <c r="D109" t="s">
+        <v>58</v>
+      </c>
+      <c r="E109" t="s">
+        <v>9</v>
+      </c>
+      <c r="F109">
+        <v>2018</v>
+      </c>
+      <c r="G109">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7">
+      <c r="A110" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B110">
+        <v>1496</v>
+      </c>
+      <c r="C110">
+        <v>50</v>
+      </c>
+      <c r="D110" t="s">
+        <v>58</v>
+      </c>
+      <c r="E110" t="s">
+        <v>36</v>
+      </c>
+      <c r="F110">
+        <v>2016</v>
+      </c>
+      <c r="G110">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
+      <c r="A111" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B111">
+        <v>1496</v>
+      </c>
+      <c r="C111">
+        <v>25</v>
+      </c>
+      <c r="D111" t="s">
+        <v>58</v>
+      </c>
+      <c r="E111" t="s">
+        <v>36</v>
+      </c>
+      <c r="F111">
+        <v>2017</v>
+      </c>
+      <c r="G111">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7">
+      <c r="A112" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B112">
+        <v>1496</v>
+      </c>
+      <c r="C112">
+        <v>40</v>
+      </c>
+      <c r="D112" t="s">
+        <v>58</v>
+      </c>
+      <c r="E112" t="s">
+        <v>36</v>
+      </c>
+      <c r="F112">
+        <v>2017</v>
+      </c>
+      <c r="G112">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7">
+      <c r="A113" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B113">
+        <v>1496</v>
+      </c>
+      <c r="C113">
+        <v>5</v>
+      </c>
+      <c r="D113" t="s">
+        <v>58</v>
+      </c>
+      <c r="E113" t="s">
+        <v>9</v>
+      </c>
+      <c r="F113">
+        <v>2017</v>
+      </c>
+      <c r="G113">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7">
+      <c r="A114" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B114">
+        <v>1496</v>
+      </c>
+      <c r="C114">
+        <v>55</v>
+      </c>
+      <c r="D114" t="s">
+        <v>58</v>
+      </c>
+      <c r="E114" t="s">
+        <v>36</v>
+      </c>
+      <c r="F114">
+        <v>2016</v>
+      </c>
+      <c r="G114">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7">
+      <c r="A115" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B115">
+        <v>1496</v>
+      </c>
+      <c r="C115">
+        <v>40</v>
+      </c>
+      <c r="D115" t="s">
+        <v>58</v>
+      </c>
+      <c r="E115" t="s">
+        <v>36</v>
+      </c>
+      <c r="F115">
+        <v>2016</v>
+      </c>
+      <c r="G115">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7">
+      <c r="A116" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B116">
+        <v>1496</v>
+      </c>
+      <c r="C116">
+        <v>55</v>
+      </c>
+      <c r="D116" t="s">
+        <v>58</v>
+      </c>
+      <c r="E116" t="s">
+        <v>36</v>
+      </c>
+      <c r="F116">
+        <v>2017</v>
+      </c>
+      <c r="G116">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7">
+      <c r="A117" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B117">
+        <v>1496</v>
+      </c>
+      <c r="C117">
+        <v>50</v>
+      </c>
+      <c r="D117" t="s">
+        <v>58</v>
+      </c>
+      <c r="E117" t="s">
+        <v>9</v>
+      </c>
+      <c r="F117">
+        <v>2017</v>
+      </c>
+      <c r="G117">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7">
+      <c r="A118" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B118">
+        <v>1496</v>
+      </c>
+      <c r="C118">
+        <v>25</v>
+      </c>
+      <c r="D118" t="s">
+        <v>58</v>
+      </c>
+      <c r="E118" t="s">
+        <v>36</v>
+      </c>
+      <c r="F118">
+        <v>2017</v>
+      </c>
+      <c r="G118">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7">
+      <c r="A119" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B119">
+        <v>1496</v>
+      </c>
+      <c r="C119">
+        <v>65</v>
+      </c>
+      <c r="D119" t="s">
+        <v>58</v>
+      </c>
+      <c r="E119" t="s">
+        <v>36</v>
+      </c>
+      <c r="F119">
+        <v>2016</v>
+      </c>
+      <c r="G119">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7">
+      <c r="A120" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B120">
+        <v>1496</v>
+      </c>
+      <c r="C120">
+        <v>25</v>
+      </c>
+      <c r="D120" t="s">
+        <v>58</v>
+      </c>
+      <c r="E120" t="s">
+        <v>36</v>
+      </c>
+      <c r="F120">
+        <v>2017</v>
+      </c>
+      <c r="G120">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7">
+      <c r="A121" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B121">
+        <v>1496</v>
+      </c>
+      <c r="C121">
+        <v>60</v>
+      </c>
+      <c r="D121" t="s">
+        <v>58</v>
+      </c>
+      <c r="E121" t="s">
+        <v>36</v>
+      </c>
+      <c r="F121">
+        <v>2017</v>
+      </c>
+      <c r="G121">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7">
+      <c r="A122" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B122">
+        <v>1496</v>
+      </c>
+      <c r="C122">
+        <v>15</v>
+      </c>
+      <c r="D122" t="s">
+        <v>58</v>
+      </c>
+      <c r="E122" t="s">
+        <v>36</v>
+      </c>
+      <c r="F122">
+        <v>2017</v>
+      </c>
+      <c r="G122">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7">
+      <c r="A123" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B123">
+        <v>1496</v>
+      </c>
+      <c r="C123">
+        <v>5</v>
+      </c>
+      <c r="D123" t="s">
+        <v>58</v>
+      </c>
+      <c r="E123" t="s">
+        <v>9</v>
+      </c>
+      <c r="F123">
+        <v>2017</v>
+      </c>
+      <c r="G123">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7">
+      <c r="A124" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B124">
+        <v>1496</v>
+      </c>
+      <c r="C124">
+        <v>75</v>
+      </c>
+      <c r="D124" t="s">
+        <v>58</v>
+      </c>
+      <c r="E124" t="s">
+        <v>9</v>
+      </c>
+      <c r="F124">
+        <v>2017</v>
+      </c>
+      <c r="G124">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7">
+      <c r="A125" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B125">
+        <v>1496</v>
+      </c>
+      <c r="C125">
+        <v>15</v>
+      </c>
+      <c r="D125" t="s">
+        <v>58</v>
+      </c>
+      <c r="E125" t="s">
+        <v>36</v>
+      </c>
+      <c r="F125">
+        <v>2017</v>
+      </c>
+      <c r="G125">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7">
+      <c r="A126" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B126">
+        <v>1496</v>
+      </c>
+      <c r="C126">
+        <v>30</v>
+      </c>
+      <c r="D126" t="s">
+        <v>58</v>
+      </c>
+      <c r="E126" t="s">
+        <v>36</v>
+      </c>
+      <c r="F126">
+        <v>2017</v>
+      </c>
+      <c r="G126">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7">
+      <c r="A127" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B127">
+        <v>1496</v>
+      </c>
+      <c r="C127">
+        <v>65</v>
+      </c>
+      <c r="D127" t="s">
+        <v>58</v>
+      </c>
+      <c r="E127" t="s">
+        <v>36</v>
+      </c>
+      <c r="F127">
+        <v>2016</v>
+      </c>
+      <c r="G127">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7">
+      <c r="A128" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B128">
+        <v>1496</v>
+      </c>
+      <c r="C128">
+        <v>50</v>
+      </c>
+      <c r="D128" t="s">
+        <v>58</v>
+      </c>
+      <c r="E128" t="s">
+        <v>36</v>
+      </c>
+      <c r="F128">
+        <v>2016</v>
+      </c>
+      <c r="G128">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7">
+      <c r="A129" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B129">
+        <v>1496</v>
+      </c>
+      <c r="C129">
+        <v>30</v>
+      </c>
+      <c r="D129" t="s">
+        <v>58</v>
+      </c>
+      <c r="E129" t="s">
+        <v>9</v>
+      </c>
+      <c r="F129">
+        <v>2017</v>
+      </c>
+      <c r="G129">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7">
+      <c r="A130" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B130">
+        <v>1496</v>
+      </c>
+      <c r="C130">
+        <v>35</v>
+      </c>
+      <c r="D130" t="s">
+        <v>58</v>
+      </c>
+      <c r="E130" t="s">
+        <v>36</v>
+      </c>
+      <c r="F130">
+        <v>2017</v>
+      </c>
+      <c r="G130">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7">
+      <c r="A131" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B131">
+        <v>1496</v>
+      </c>
+      <c r="C131">
+        <v>30</v>
+      </c>
+      <c r="D131" t="s">
+        <v>58</v>
+      </c>
+      <c r="E131" t="s">
+        <v>9</v>
+      </c>
+      <c r="F131">
+        <v>2016</v>
+      </c>
+      <c r="G131">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7">
+      <c r="A132" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B132">
+        <v>1496</v>
+      </c>
+      <c r="C132">
+        <v>5</v>
+      </c>
+      <c r="D132" t="s">
+        <v>58</v>
+      </c>
+      <c r="E132" t="s">
+        <v>9</v>
+      </c>
+      <c r="F132">
+        <v>2017</v>
+      </c>
+      <c r="G132">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7">
+      <c r="A133" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B133">
+        <v>1496</v>
+      </c>
+      <c r="C133">
+        <v>55</v>
+      </c>
+      <c r="D133" t="s">
+        <v>58</v>
+      </c>
+      <c r="E133" t="s">
+        <v>36</v>
+      </c>
+      <c r="F133">
+        <v>2016</v>
+      </c>
+      <c r="G133">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7">
+      <c r="A134" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B134">
+        <v>1496</v>
+      </c>
+      <c r="C134">
+        <v>15</v>
+      </c>
+      <c r="D134" t="s">
+        <v>58</v>
+      </c>
+      <c r="E134" t="s">
+        <v>36</v>
+      </c>
+      <c r="F134">
+        <v>2018</v>
+      </c>
+      <c r="G134">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7">
+      <c r="A135" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B135">
+        <v>1496</v>
+      </c>
+      <c r="C135">
+        <v>5</v>
+      </c>
+      <c r="D135" t="s">
+        <v>58</v>
+      </c>
+      <c r="E135" t="s">
+        <v>9</v>
+      </c>
+      <c r="F135">
+        <v>2018</v>
+      </c>
+      <c r="G135">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7">
+      <c r="A136" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B136">
+        <v>1496</v>
+      </c>
+      <c r="C136">
+        <v>30</v>
+      </c>
+      <c r="D136" t="s">
+        <v>58</v>
+      </c>
+      <c r="E136" t="s">
+        <v>36</v>
+      </c>
+      <c r="F136">
+        <v>2016</v>
+      </c>
+      <c r="G136">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7">
+      <c r="A137" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B137">
+        <v>1496</v>
+      </c>
+      <c r="C137">
+        <v>20</v>
+      </c>
+      <c r="D137" t="s">
+        <v>58</v>
+      </c>
+      <c r="E137" t="s">
+        <v>36</v>
+      </c>
+      <c r="F137">
+        <v>2018</v>
+      </c>
+      <c r="G137">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7">
+      <c r="A138" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B138">
+        <v>1496</v>
+      </c>
+      <c r="C138">
+        <v>50</v>
+      </c>
+      <c r="D138" t="s">
+        <v>58</v>
+      </c>
+      <c r="E138" t="s">
+        <v>36</v>
+      </c>
+      <c r="F138">
+        <v>2017</v>
+      </c>
+      <c r="G138">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7">
+      <c r="A139" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B139">
+        <v>1496</v>
+      </c>
+      <c r="C139">
+        <v>35</v>
+      </c>
+      <c r="D139" t="s">
+        <v>58</v>
+      </c>
+      <c r="E139" t="s">
+        <v>36</v>
+      </c>
+      <c r="F139">
+        <v>2017</v>
+      </c>
+      <c r="G139">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7">
+      <c r="A140" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B140">
+        <v>1496</v>
+      </c>
+      <c r="C140">
+        <v>40</v>
+      </c>
+      <c r="D140" t="s">
+        <v>58</v>
+      </c>
+      <c r="E140" t="s">
+        <v>36</v>
+      </c>
+      <c r="F140">
+        <v>2017</v>
+      </c>
+      <c r="G140">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7">
+      <c r="A141" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B141">
+        <v>1496</v>
+      </c>
+      <c r="C141">
+        <v>5</v>
+      </c>
+      <c r="D141" t="s">
+        <v>58</v>
+      </c>
+      <c r="E141" t="s">
+        <v>36</v>
+      </c>
+      <c r="F141">
+        <v>2018</v>
+      </c>
+      <c r="G141">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7">
+      <c r="A142" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B142">
+        <v>1496</v>
+      </c>
+      <c r="C142">
+        <v>25</v>
+      </c>
+      <c r="D142" t="s">
+        <v>58</v>
+      </c>
+      <c r="E142" t="s">
+        <v>36</v>
+      </c>
+      <c r="F142">
+        <v>2017</v>
+      </c>
+      <c r="G142">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7">
+      <c r="A143" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B143">
+        <v>1496</v>
+      </c>
+      <c r="C143">
+        <v>20</v>
+      </c>
+      <c r="D143" t="s">
+        <v>58</v>
+      </c>
+      <c r="E143" t="s">
+        <v>36</v>
+      </c>
+      <c r="F143">
+        <v>2017</v>
+      </c>
+      <c r="G143">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7">
+      <c r="A144" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B144">
+        <v>1496</v>
+      </c>
+      <c r="C144">
+        <v>20</v>
+      </c>
+      <c r="D144" t="s">
+        <v>58</v>
+      </c>
+      <c r="E144" t="s">
+        <v>36</v>
+      </c>
+      <c r="F144">
+        <v>2017</v>
+      </c>
+      <c r="G144">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7">
+      <c r="A145" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B145">
+        <v>1496</v>
+      </c>
+      <c r="C145">
+        <v>40</v>
+      </c>
+      <c r="D145" t="s">
+        <v>58</v>
+      </c>
+      <c r="E145" t="s">
+        <v>36</v>
+      </c>
+      <c r="F145">
+        <v>2017</v>
+      </c>
+      <c r="G145">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7">
+      <c r="A146" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B146">
+        <v>1496</v>
+      </c>
+      <c r="C146">
+        <v>40</v>
+      </c>
+      <c r="D146" t="s">
+        <v>58</v>
+      </c>
+      <c r="E146" t="s">
+        <v>36</v>
+      </c>
+      <c r="F146">
+        <v>2017</v>
+      </c>
+      <c r="G146">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7">
+      <c r="A147" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B147">
+        <v>1496</v>
+      </c>
+      <c r="C147">
+        <v>40</v>
+      </c>
+      <c r="D147" t="s">
+        <v>58</v>
+      </c>
+      <c r="E147" t="s">
+        <v>36</v>
+      </c>
+      <c r="F147">
+        <v>2016</v>
+      </c>
+      <c r="G147">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7">
+      <c r="A148" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B148">
+        <v>1496</v>
+      </c>
+      <c r="C148">
+        <v>25</v>
+      </c>
+      <c r="D148" t="s">
+        <v>58</v>
+      </c>
+      <c r="E148" t="s">
+        <v>36</v>
+      </c>
+      <c r="F148">
+        <v>2017</v>
+      </c>
+      <c r="G148">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7">
+      <c r="A149" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B149">
+        <v>1496</v>
+      </c>
+      <c r="C149">
+        <v>20</v>
+      </c>
+      <c r="D149" t="s">
+        <v>58</v>
+      </c>
+      <c r="E149" t="s">
+        <v>9</v>
+      </c>
+      <c r="F149">
+        <v>2016</v>
+      </c>
+      <c r="G149">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7">
+      <c r="A150" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B150">
+        <v>1496</v>
+      </c>
+      <c r="C150">
+        <v>30</v>
+      </c>
+      <c r="D150" t="s">
+        <v>58</v>
+      </c>
+      <c r="E150" t="s">
+        <v>36</v>
+      </c>
+      <c r="F150">
+        <v>2017</v>
+      </c>
+      <c r="G150">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7">
+      <c r="A151" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B151">
+        <v>1329</v>
+      </c>
+      <c r="C151">
+        <v>105</v>
+      </c>
+      <c r="D151" t="s">
+        <v>58</v>
+      </c>
+      <c r="E151" t="s">
+        <v>36</v>
+      </c>
+      <c r="F151">
+        <v>2010</v>
+      </c>
+      <c r="G151">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7">
+      <c r="A152" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B152">
+        <v>1329</v>
+      </c>
+      <c r="C152">
+        <v>175</v>
+      </c>
+      <c r="D152" t="s">
+        <v>58</v>
+      </c>
+      <c r="E152" t="s">
+        <v>36</v>
+      </c>
+      <c r="F152">
+        <v>2009</v>
+      </c>
+      <c r="G152">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7">
+      <c r="A153" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B153">
+        <v>1329</v>
+      </c>
+      <c r="C153">
+        <v>90</v>
+      </c>
+      <c r="D153" t="s">
+        <v>58</v>
+      </c>
+      <c r="E153" t="s">
+        <v>9</v>
+      </c>
+      <c r="F153">
+        <v>2011</v>
+      </c>
+      <c r="G153">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7">
+      <c r="A154" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B154">
+        <v>1329</v>
+      </c>
+      <c r="C154">
+        <v>20</v>
+      </c>
+      <c r="D154" t="s">
+        <v>58</v>
+      </c>
+      <c r="E154" t="s">
+        <v>36</v>
+      </c>
+      <c r="F154">
+        <v>2009</v>
+      </c>
+      <c r="G154">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7">
+      <c r="A155" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B155">
+        <v>1329</v>
+      </c>
+      <c r="C155">
+        <v>75</v>
+      </c>
+      <c r="D155" t="s">
+        <v>58</v>
+      </c>
+      <c r="E155" t="s">
+        <v>36</v>
+      </c>
+      <c r="F155">
+        <v>2013</v>
+      </c>
+      <c r="G155">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7">
+      <c r="A156" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B156">
+        <v>1329</v>
+      </c>
+      <c r="C156">
+        <v>70</v>
+      </c>
+      <c r="D156" t="s">
+        <v>58</v>
+      </c>
+      <c r="E156" t="s">
+        <v>9</v>
+      </c>
+      <c r="F156">
+        <v>2011</v>
+      </c>
+      <c r="G156">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7">
+      <c r="A157" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B157">
+        <v>1329</v>
+      </c>
+      <c r="C157">
+        <v>40</v>
+      </c>
+      <c r="D157" t="s">
+        <v>58</v>
+      </c>
+      <c r="E157" t="s">
+        <v>9</v>
+      </c>
+      <c r="F157">
+        <v>2017</v>
+      </c>
+      <c r="G157">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7">
+      <c r="A158" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B158">
+        <v>1329</v>
+      </c>
+      <c r="C158">
+        <v>65</v>
+      </c>
+      <c r="D158" t="s">
+        <v>58</v>
+      </c>
+      <c r="E158" t="s">
+        <v>36</v>
+      </c>
+      <c r="F158">
+        <v>2014</v>
+      </c>
+      <c r="G158">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7">
+      <c r="A159" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B159">
+        <v>1329</v>
+      </c>
+      <c r="C159">
+        <v>45</v>
+      </c>
+      <c r="D159" t="s">
+        <v>58</v>
+      </c>
+      <c r="E159" t="s">
+        <v>9</v>
+      </c>
+      <c r="F159">
+        <v>2011</v>
+      </c>
+      <c r="G159">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7">
+      <c r="A160" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B160">
+        <v>1329</v>
+      </c>
+      <c r="C160">
+        <v>90</v>
+      </c>
+      <c r="D160" t="s">
+        <v>58</v>
+      </c>
+      <c r="E160" t="s">
+        <v>9</v>
+      </c>
+      <c r="F160">
+        <v>2012</v>
+      </c>
+      <c r="G160">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7">
+      <c r="A161" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B161">
+        <v>1329</v>
+      </c>
+      <c r="C161">
+        <v>75</v>
+      </c>
+      <c r="D161" t="s">
+        <v>58</v>
+      </c>
+      <c r="E161" t="s">
+        <v>9</v>
+      </c>
+      <c r="F161">
+        <v>2014</v>
+      </c>
+      <c r="G161">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7">
+      <c r="A162" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B162">
+        <v>1329</v>
+      </c>
+      <c r="C162">
+        <v>20</v>
+      </c>
+      <c r="D162" t="s">
+        <v>58</v>
+      </c>
+      <c r="E162" t="s">
+        <v>9</v>
+      </c>
+      <c r="F162">
+        <v>2010</v>
+      </c>
+      <c r="G162">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7">
+      <c r="A163" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B163">
+        <v>1329</v>
+      </c>
+      <c r="C163">
+        <v>120</v>
+      </c>
+      <c r="D163" t="s">
+        <v>58</v>
+      </c>
+      <c r="E163" t="s">
+        <v>36</v>
+      </c>
+      <c r="F163">
+        <v>2008</v>
+      </c>
+      <c r="G163">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7">
+      <c r="A164" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B164">
+        <v>1329</v>
+      </c>
+      <c r="C164">
+        <v>40</v>
+      </c>
+      <c r="D164" t="s">
+        <v>58</v>
+      </c>
+      <c r="E164" t="s">
+        <v>9</v>
+      </c>
+      <c r="F164">
+        <v>2006</v>
+      </c>
+      <c r="G164">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7">
+      <c r="A165" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B165">
+        <v>1329</v>
+      </c>
+      <c r="C165">
+        <v>80</v>
+      </c>
+      <c r="D165" t="s">
+        <v>58</v>
+      </c>
+      <c r="E165" t="s">
+        <v>9</v>
+      </c>
+      <c r="F165">
+        <v>2015</v>
+      </c>
+      <c r="G165">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7">
+      <c r="A166" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B166">
+        <v>1329</v>
+      </c>
+      <c r="C166">
+        <v>50</v>
+      </c>
+      <c r="D166" t="s">
+        <v>58</v>
+      </c>
+      <c r="E166" t="s">
+        <v>9</v>
+      </c>
+      <c r="F166">
+        <v>2016</v>
+      </c>
+      <c r="G166">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7">
+      <c r="A167" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B167">
+        <v>1329</v>
+      </c>
+      <c r="C167">
+        <v>160</v>
+      </c>
+      <c r="D167" t="s">
+        <v>58</v>
+      </c>
+      <c r="E167" t="s">
+        <v>36</v>
+      </c>
+      <c r="F167">
+        <v>2009</v>
+      </c>
+      <c r="G167">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7">
+      <c r="A168" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B168">
+        <v>1329</v>
+      </c>
+      <c r="C168">
+        <v>10</v>
+      </c>
+      <c r="D168" t="s">
+        <v>58</v>
+      </c>
+      <c r="E168" t="s">
+        <v>9</v>
+      </c>
+      <c r="F168">
+        <v>2008</v>
+      </c>
+      <c r="G168">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7">
+      <c r="A169" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B169">
+        <v>1329</v>
+      </c>
+      <c r="C169">
+        <v>70</v>
+      </c>
+      <c r="D169" t="s">
+        <v>58</v>
+      </c>
+      <c r="E169" t="s">
+        <v>36</v>
+      </c>
+      <c r="F169">
+        <v>2014</v>
+      </c>
+      <c r="G169">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7">
+      <c r="A170" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B170">
+        <v>1329</v>
+      </c>
+      <c r="C170">
+        <v>5</v>
+      </c>
+      <c r="D170" t="s">
+        <v>58</v>
+      </c>
+      <c r="E170" t="s">
+        <v>9</v>
+      </c>
+      <c r="F170">
+        <v>2019</v>
+      </c>
+      <c r="G170">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7">
+      <c r="A171" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B171">
+        <v>1329</v>
+      </c>
+      <c r="C171">
+        <v>50</v>
+      </c>
+      <c r="D171" t="s">
+        <v>57</v>
+      </c>
+      <c r="E171" t="s">
+        <v>9</v>
+      </c>
+      <c r="F171">
+        <v>2018</v>
+      </c>
+      <c r="G171">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7">
+      <c r="A172" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B172">
+        <v>1329</v>
+      </c>
+      <c r="C172">
+        <v>45</v>
+      </c>
+      <c r="D172" t="s">
+        <v>58</v>
+      </c>
+      <c r="E172" t="s">
+        <v>9</v>
+      </c>
+      <c r="F172">
+        <v>2013</v>
+      </c>
+      <c r="G172">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7">
+      <c r="A173" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B173">
+        <v>1329</v>
+      </c>
+      <c r="C173">
+        <v>80</v>
+      </c>
+      <c r="D173" t="s">
+        <v>58</v>
+      </c>
+      <c r="E173" t="s">
+        <v>36</v>
+      </c>
+      <c r="F173">
+        <v>2008</v>
+      </c>
+      <c r="G173">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7">
+      <c r="A174" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B174">
+        <v>1329</v>
+      </c>
+      <c r="C174">
+        <v>105</v>
+      </c>
+      <c r="D174" t="s">
+        <v>58</v>
+      </c>
+      <c r="E174" t="s">
+        <v>9</v>
+      </c>
+      <c r="F174">
+        <v>2016</v>
+      </c>
+      <c r="G174">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7">
+      <c r="A175" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B175">
+        <v>1329</v>
+      </c>
+      <c r="C175">
+        <v>115</v>
+      </c>
+      <c r="D175" t="s">
+        <v>58</v>
+      </c>
+      <c r="E175" t="s">
+        <v>9</v>
+      </c>
+      <c r="F175">
+        <v>2010</v>
+      </c>
+      <c r="G175">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7">
+      <c r="A176" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B176">
+        <v>1329</v>
+      </c>
+      <c r="C176">
+        <v>100</v>
+      </c>
+      <c r="D176" t="s">
+        <v>58</v>
+      </c>
+      <c r="E176" t="s">
+        <v>9</v>
+      </c>
+      <c r="F176">
+        <v>2014</v>
+      </c>
+      <c r="G176">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7">
+      <c r="A177" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B177">
+        <v>1329</v>
+      </c>
+      <c r="C177">
+        <v>30</v>
+      </c>
+      <c r="D177" t="s">
+        <v>58</v>
+      </c>
+      <c r="E177" t="s">
+        <v>9</v>
+      </c>
+      <c r="F177">
+        <v>2017</v>
+      </c>
+      <c r="G177">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7">
+      <c r="A178" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B178">
+        <v>1329</v>
+      </c>
+      <c r="C178">
+        <v>30</v>
+      </c>
+      <c r="D178" t="s">
+        <v>58</v>
+      </c>
+      <c r="E178" t="s">
+        <v>36</v>
+      </c>
+      <c r="F178">
+        <v>2016</v>
+      </c>
+      <c r="G178">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7">
+      <c r="A179" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B179">
+        <v>1329</v>
+      </c>
+      <c r="C179">
+        <v>40</v>
+      </c>
+      <c r="D179" t="s">
+        <v>58</v>
+      </c>
+      <c r="E179" t="s">
+        <v>36</v>
+      </c>
+      <c r="F179">
+        <v>2015</v>
+      </c>
+      <c r="G179">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7">
+      <c r="A180" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B180">
+        <v>1329</v>
+      </c>
+      <c r="C180">
+        <v>105</v>
+      </c>
+      <c r="D180" t="s">
+        <v>58</v>
+      </c>
+      <c r="E180" t="s">
+        <v>9</v>
+      </c>
+      <c r="F180">
+        <v>2007</v>
+      </c>
+      <c r="G180">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7">
+      <c r="A181" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B181">
+        <v>1329</v>
+      </c>
+      <c r="C181">
+        <v>40</v>
+      </c>
+      <c r="D181" t="s">
+        <v>58</v>
+      </c>
+      <c r="E181" t="s">
+        <v>9</v>
+      </c>
+      <c r="F181">
+        <v>2018</v>
+      </c>
+      <c r="G181">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7">
+      <c r="A182" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B182">
+        <v>1329</v>
+      </c>
+      <c r="C182">
+        <v>70</v>
+      </c>
+      <c r="D182" t="s">
+        <v>58</v>
+      </c>
+      <c r="E182" t="s">
+        <v>9</v>
+      </c>
+      <c r="F182">
+        <v>2013</v>
+      </c>
+      <c r="G182">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7">
+      <c r="A183" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B183">
+        <v>1329</v>
+      </c>
+      <c r="C183">
+        <v>155</v>
+      </c>
+      <c r="D183" t="s">
+        <v>58</v>
+      </c>
+      <c r="E183" t="s">
+        <v>9</v>
+      </c>
+      <c r="F183">
+        <v>2008</v>
+      </c>
+      <c r="G183">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7">
+      <c r="A184" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B184">
+        <v>1329</v>
+      </c>
+      <c r="C184">
+        <v>75</v>
+      </c>
+      <c r="D184" t="s">
+        <v>58</v>
+      </c>
+      <c r="E184" t="s">
+        <v>36</v>
+      </c>
+      <c r="F184">
+        <v>2015</v>
+      </c>
+      <c r="G184">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7">
+      <c r="A185" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B185">
+        <v>1329</v>
+      </c>
+      <c r="C185">
+        <v>30</v>
+      </c>
+      <c r="D185" t="s">
+        <v>58</v>
+      </c>
+      <c r="E185" t="s">
+        <v>9</v>
+      </c>
+      <c r="F185">
+        <v>2013</v>
+      </c>
+      <c r="G185">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7">
+      <c r="A186" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B186">
+        <v>1329</v>
+      </c>
+      <c r="C186">
+        <v>5</v>
+      </c>
+      <c r="D186" t="s">
+        <v>58</v>
+      </c>
+      <c r="E186" t="s">
+        <v>9</v>
+      </c>
+      <c r="F186">
+        <v>2019</v>
+      </c>
+      <c r="G186">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7">
+      <c r="A187" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B187">
+        <v>1329</v>
+      </c>
+      <c r="C187">
+        <v>5</v>
+      </c>
+      <c r="D187" t="s">
+        <v>58</v>
+      </c>
+      <c r="E187" t="s">
+        <v>9</v>
+      </c>
+      <c r="F187">
+        <v>2019</v>
+      </c>
+      <c r="G187">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7">
+      <c r="A188" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B188">
+        <v>1329</v>
+      </c>
+      <c r="C188">
+        <v>5</v>
+      </c>
+      <c r="D188" t="s">
+        <v>58</v>
+      </c>
+      <c r="E188" t="s">
+        <v>9</v>
+      </c>
+      <c r="F188">
+        <v>2019</v>
+      </c>
+      <c r="G188">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7">
+      <c r="A189" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B189">
+        <v>1329</v>
+      </c>
+      <c r="C189">
+        <v>45</v>
+      </c>
+      <c r="D189" t="s">
+        <v>58</v>
+      </c>
+      <c r="E189" t="s">
+        <v>9</v>
+      </c>
+      <c r="F189">
+        <v>2016</v>
+      </c>
+      <c r="G189">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7">
+      <c r="A190" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B190">
+        <v>1329</v>
+      </c>
+      <c r="C190">
+        <v>95</v>
+      </c>
+      <c r="D190" t="s">
+        <v>58</v>
+      </c>
+      <c r="E190" t="s">
+        <v>36</v>
+      </c>
+      <c r="F190">
+        <v>2015</v>
+      </c>
+      <c r="G190">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7">
+      <c r="A191" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B191">
+        <v>1329</v>
+      </c>
+      <c r="C191">
+        <v>65</v>
+      </c>
+      <c r="D191" t="s">
+        <v>58</v>
+      </c>
+      <c r="E191" t="s">
+        <v>36</v>
+      </c>
+      <c r="F191">
+        <v>2016</v>
+      </c>
+      <c r="G191">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7">
+      <c r="A192" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B192">
+        <v>1329</v>
+      </c>
+      <c r="C192">
+        <v>5</v>
+      </c>
+      <c r="D192" t="s">
+        <v>58</v>
+      </c>
+      <c r="E192" t="s">
+        <v>36</v>
+      </c>
+      <c r="F192">
+        <v>2019</v>
+      </c>
+      <c r="G192">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7">
+      <c r="A193" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B193">
+        <v>1329</v>
+      </c>
+      <c r="C193">
+        <v>175</v>
+      </c>
+      <c r="D193" t="s">
+        <v>58</v>
+      </c>
+      <c r="E193" t="s">
+        <v>9</v>
+      </c>
+      <c r="F193">
+        <v>2016</v>
+      </c>
+      <c r="G193">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7">
+      <c r="A194" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B194">
+        <v>1329</v>
+      </c>
+      <c r="C194">
+        <v>110</v>
+      </c>
+      <c r="D194" t="s">
+        <v>58</v>
+      </c>
+      <c r="E194" t="s">
+        <v>9</v>
+      </c>
+      <c r="F194">
+        <v>2010</v>
+      </c>
+      <c r="G194">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7">
+      <c r="A195" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B195">
+        <v>1329</v>
+      </c>
+      <c r="C195">
+        <v>105</v>
+      </c>
+      <c r="D195" t="s">
+        <v>58</v>
+      </c>
+      <c r="E195" t="s">
+        <v>9</v>
+      </c>
+      <c r="F195">
+        <v>2012</v>
+      </c>
+      <c r="G195">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7">
+      <c r="A196" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B196">
+        <v>1329</v>
+      </c>
+      <c r="C196">
+        <v>100</v>
+      </c>
+      <c r="D196" t="s">
+        <v>58</v>
+      </c>
+      <c r="E196" t="s">
+        <v>9</v>
+      </c>
+      <c r="F196">
+        <v>2008</v>
+      </c>
+      <c r="G196">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7">
+      <c r="A197" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B197">
+        <v>1329</v>
+      </c>
+      <c r="C197">
+        <v>45</v>
+      </c>
+      <c r="D197" t="s">
+        <v>58</v>
+      </c>
+      <c r="E197" t="s">
+        <v>36</v>
+      </c>
+      <c r="F197">
+        <v>2011</v>
+      </c>
+      <c r="G197">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7">
+      <c r="A198" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B198">
+        <v>1329</v>
+      </c>
+      <c r="C198">
+        <v>95</v>
+      </c>
+      <c r="D198" t="s">
+        <v>58</v>
+      </c>
+      <c r="E198" t="s">
+        <v>9</v>
+      </c>
+      <c r="F198">
+        <v>2010</v>
+      </c>
+      <c r="G198">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7">
+      <c r="A199" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B199">
+        <v>1329</v>
+      </c>
+      <c r="C199">
+        <v>135</v>
+      </c>
+      <c r="D199" t="s">
+        <v>58</v>
+      </c>
+      <c r="E199" t="s">
+        <v>9</v>
+      </c>
+      <c r="F199">
+        <v>2011</v>
+      </c>
+      <c r="G199">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7">
+      <c r="A200" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B200">
+        <v>1329</v>
+      </c>
+      <c r="C200">
+        <v>110</v>
+      </c>
+      <c r="D200" t="s">
+        <v>58</v>
+      </c>
+      <c r="E200" t="s">
+        <v>9</v>
+      </c>
+      <c r="F200">
+        <v>2004</v>
+      </c>
+      <c r="G200">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7">
+      <c r="A201" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B201">
+        <v>1329</v>
+      </c>
+      <c r="C201">
+        <v>55</v>
+      </c>
+      <c r="D201" t="s">
+        <v>58</v>
+      </c>
+      <c r="E201" t="s">
+        <v>9</v>
+      </c>
+      <c r="F201">
+        <v>2016</v>
+      </c>
+      <c r="G201">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7">
+      <c r="A202" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B202">
+        <v>1329</v>
+      </c>
+      <c r="C202">
+        <v>25</v>
+      </c>
+      <c r="D202" t="s">
+        <v>58</v>
+      </c>
+      <c r="E202" t="s">
+        <v>36</v>
+      </c>
+      <c r="F202">
+        <v>2017</v>
+      </c>
+      <c r="G202">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7">
+      <c r="A203" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B203">
+        <v>1329</v>
+      </c>
+      <c r="C203">
+        <v>75</v>
+      </c>
+      <c r="D203" t="s">
+        <v>58</v>
+      </c>
+      <c r="E203" t="s">
+        <v>36</v>
+      </c>
+      <c r="F203">
+        <v>2015</v>
+      </c>
+      <c r="G203">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7">
+      <c r="A204" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B204">
+        <v>1329</v>
+      </c>
+      <c r="C204">
+        <v>30</v>
+      </c>
+      <c r="D204" t="s">
+        <v>58</v>
+      </c>
+      <c r="E204" t="s">
+        <v>9</v>
+      </c>
+      <c r="F204">
+        <v>2017</v>
+      </c>
+      <c r="G204">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7">
+      <c r="A205" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B205">
+        <v>1329</v>
+      </c>
+      <c r="C205">
+        <v>50</v>
+      </c>
+      <c r="D205" t="s">
+        <v>58</v>
+      </c>
+      <c r="E205" t="s">
+        <v>9</v>
+      </c>
+      <c r="F205">
+        <v>2017</v>
+      </c>
+      <c r="G205">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7">
+      <c r="A206" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B206">
+        <v>1329</v>
+      </c>
+      <c r="C206">
+        <v>10</v>
+      </c>
+      <c r="D206" t="s">
+        <v>58</v>
+      </c>
+      <c r="E206" t="s">
+        <v>36</v>
+      </c>
+      <c r="F206">
+        <v>2019</v>
+      </c>
+      <c r="G206">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7">
+      <c r="A207" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B207">
+        <v>1329</v>
+      </c>
+      <c r="C207">
+        <v>10</v>
+      </c>
+      <c r="D207" t="s">
+        <v>58</v>
+      </c>
+      <c r="E207" t="s">
+        <v>36</v>
+      </c>
+      <c r="F207">
+        <v>2019</v>
+      </c>
+      <c r="G207">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7">
+      <c r="A208" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B208">
+        <v>1329</v>
+      </c>
+      <c r="C208">
+        <v>40</v>
+      </c>
+      <c r="D208" t="s">
+        <v>58</v>
+      </c>
+      <c r="E208" t="s">
+        <v>36</v>
+      </c>
+      <c r="F208">
+        <v>2016</v>
+      </c>
+      <c r="G208">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7">
+      <c r="A209" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B209">
+        <v>1329</v>
+      </c>
+      <c r="C209">
+        <v>25</v>
+      </c>
+      <c r="D209" t="s">
+        <v>58</v>
+      </c>
+      <c r="E209" t="s">
+        <v>9</v>
+      </c>
+      <c r="F209">
+        <v>2018</v>
+      </c>
+      <c r="G209">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7">
+      <c r="A210" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B210">
+        <v>1329</v>
+      </c>
+      <c r="C210">
+        <v>145</v>
+      </c>
+      <c r="D210" t="s">
+        <v>58</v>
+      </c>
+      <c r="E210" t="s">
+        <v>36</v>
+      </c>
+      <c r="F210">
+        <v>2015</v>
+      </c>
+      <c r="G210">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7">
+      <c r="A211" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B211">
+        <v>1329</v>
+      </c>
+      <c r="C211">
+        <v>25</v>
+      </c>
+      <c r="D211" t="s">
+        <v>58</v>
+      </c>
+      <c r="E211" t="s">
+        <v>36</v>
+      </c>
+      <c r="F211">
+        <v>2017</v>
+      </c>
+      <c r="G211">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7">
+      <c r="A212" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B212">
+        <v>1329</v>
+      </c>
+      <c r="C212">
+        <v>10</v>
+      </c>
+      <c r="D212" t="s">
+        <v>58</v>
+      </c>
+      <c r="E212" t="s">
+        <v>36</v>
+      </c>
+      <c r="F212">
+        <v>2012</v>
+      </c>
+      <c r="G212">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7">
+      <c r="A213" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B213">
+        <v>1329</v>
+      </c>
+      <c r="C213">
+        <v>45</v>
+      </c>
+      <c r="D213" t="s">
+        <v>58</v>
+      </c>
+      <c r="E213" t="s">
+        <v>9</v>
+      </c>
+      <c r="F213">
+        <v>2013</v>
+      </c>
+      <c r="G213">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7">
+      <c r="A214" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B214">
+        <v>1329</v>
+      </c>
+      <c r="C214">
+        <v>15</v>
+      </c>
+      <c r="D214" t="s">
+        <v>58</v>
+      </c>
+      <c r="E214" t="s">
+        <v>9</v>
+      </c>
+      <c r="F214">
+        <v>2018</v>
+      </c>
+      <c r="G214">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7">
+      <c r="A215" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B215">
+        <v>1329</v>
+      </c>
+      <c r="C215">
+        <v>75</v>
+      </c>
+      <c r="D215" t="s">
+        <v>58</v>
+      </c>
+      <c r="E215" t="s">
+        <v>36</v>
+      </c>
+      <c r="F215">
+        <v>2013</v>
+      </c>
+      <c r="G215">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7">
+      <c r="A216" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B216">
+        <v>1329</v>
+      </c>
+      <c r="C216">
+        <v>30</v>
+      </c>
+      <c r="D216" t="s">
+        <v>58</v>
+      </c>
+      <c r="E216" t="s">
+        <v>9</v>
+      </c>
+      <c r="F216">
+        <v>2017</v>
+      </c>
+      <c r="G216">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7">
+      <c r="A217" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B217">
+        <v>1329</v>
+      </c>
+      <c r="C217">
+        <v>105</v>
+      </c>
+      <c r="D217" t="s">
+        <v>58</v>
+      </c>
+      <c r="E217" t="s">
+        <v>9</v>
+      </c>
+      <c r="F217">
+        <v>2014</v>
+      </c>
+      <c r="G217">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7">
+      <c r="A218" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B218">
+        <v>1329</v>
+      </c>
+      <c r="C218">
+        <v>55</v>
+      </c>
+      <c r="D218" t="s">
+        <v>58</v>
+      </c>
+      <c r="E218" t="s">
+        <v>9</v>
+      </c>
+      <c r="F218">
+        <v>2016</v>
+      </c>
+      <c r="G218">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7">
+      <c r="A219" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B219">
+        <v>1329</v>
+      </c>
+      <c r="C219">
+        <v>65</v>
+      </c>
+      <c r="D219" t="s">
+        <v>58</v>
+      </c>
+      <c r="E219" t="s">
+        <v>36</v>
+      </c>
+      <c r="F219">
+        <v>2015</v>
+      </c>
+      <c r="G219">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7">
+      <c r="A220" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B220">
+        <v>1329</v>
+      </c>
+      <c r="C220">
+        <v>25</v>
+      </c>
+      <c r="D220" t="s">
+        <v>58</v>
+      </c>
+      <c r="E220" t="s">
+        <v>36</v>
+      </c>
+      <c r="F220">
+        <v>2018</v>
+      </c>
+      <c r="G220">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7">
+      <c r="A221" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B221">
+        <v>1329</v>
+      </c>
+      <c r="C221">
+        <v>65</v>
+      </c>
+      <c r="D221" t="s">
+        <v>58</v>
+      </c>
+      <c r="E221" t="s">
+        <v>36</v>
+      </c>
+      <c r="F221">
+        <v>2016</v>
+      </c>
+      <c r="G221">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7">
+      <c r="A222" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B222">
+        <v>1329</v>
+      </c>
+      <c r="C222">
+        <v>50</v>
+      </c>
+      <c r="D222" t="s">
+        <v>58</v>
+      </c>
+      <c r="E222" t="s">
+        <v>36</v>
+      </c>
+      <c r="F222">
+        <v>2015</v>
+      </c>
+      <c r="G222">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7">
+      <c r="A223" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B223">
+        <v>1329</v>
+      </c>
+      <c r="C223">
+        <v>50</v>
+      </c>
+      <c r="D223" t="s">
+        <v>58</v>
+      </c>
+      <c r="E223" t="s">
+        <v>36</v>
+      </c>
+      <c r="F223">
+        <v>2012</v>
+      </c>
+      <c r="G223">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7">
+      <c r="A224" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B224">
+        <v>1329</v>
+      </c>
+      <c r="C224">
+        <v>45</v>
+      </c>
+      <c r="D224" t="s">
+        <v>58</v>
+      </c>
+      <c r="E224" t="s">
+        <v>36</v>
+      </c>
+      <c r="F224">
+        <v>2017</v>
+      </c>
+      <c r="G224">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7">
+      <c r="A225" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B225">
+        <v>1329</v>
+      </c>
+      <c r="C225">
+        <v>65</v>
+      </c>
+      <c r="D225" t="s">
+        <v>58</v>
+      </c>
+      <c r="E225" t="s">
+        <v>36</v>
+      </c>
+      <c r="F225">
+        <v>2013</v>
+      </c>
+      <c r="G225">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7">
+      <c r="A226" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B226">
+        <v>1329</v>
+      </c>
+      <c r="C226">
+        <v>20</v>
+      </c>
+      <c r="D226" t="s">
+        <v>58</v>
+      </c>
+      <c r="E226" t="s">
+        <v>9</v>
+      </c>
+      <c r="F226">
+        <v>2019</v>
+      </c>
+      <c r="G226">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7">
+      <c r="A227" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B227">
+        <v>1329</v>
+      </c>
+      <c r="C227">
+        <v>95</v>
+      </c>
+      <c r="D227" t="s">
+        <v>58</v>
+      </c>
+      <c r="E227" t="s">
+        <v>36</v>
+      </c>
+      <c r="F227">
+        <v>2012</v>
+      </c>
+      <c r="G227">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7">
+      <c r="A228" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B228">
+        <v>1329</v>
+      </c>
+      <c r="C228">
+        <v>45</v>
+      </c>
+      <c r="D228" t="s">
+        <v>58</v>
+      </c>
+      <c r="E228" t="s">
+        <v>36</v>
+      </c>
+      <c r="F228">
+        <v>2018</v>
+      </c>
+      <c r="G228">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7">
+      <c r="A229" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B229">
+        <v>1329</v>
+      </c>
+      <c r="C229">
+        <v>35</v>
+      </c>
+      <c r="D229" t="s">
+        <v>58</v>
+      </c>
+      <c r="E229" t="s">
+        <v>9</v>
+      </c>
+      <c r="F229">
+        <v>2018</v>
+      </c>
+      <c r="G229">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7">
+      <c r="A230" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B230">
+        <v>1329</v>
+      </c>
+      <c r="C230">
+        <v>45</v>
+      </c>
+      <c r="D230" t="s">
+        <v>58</v>
+      </c>
+      <c r="E230" t="s">
+        <v>36</v>
+      </c>
+      <c r="F230">
+        <v>2016</v>
+      </c>
+      <c r="G230">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7">
+      <c r="A231" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B231">
+        <v>1329</v>
+      </c>
+      <c r="C231">
+        <v>35</v>
+      </c>
+      <c r="D231" t="s">
+        <v>58</v>
+      </c>
+      <c r="E231" t="s">
+        <v>36</v>
+      </c>
+      <c r="F231">
+        <v>2012</v>
+      </c>
+      <c r="G231">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7">
+      <c r="A232" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B232">
+        <v>1329</v>
+      </c>
+      <c r="C232">
+        <v>40</v>
+      </c>
+      <c r="D232" t="s">
+        <v>58</v>
+      </c>
+      <c r="E232" t="s">
+        <v>9</v>
+      </c>
+      <c r="F232">
+        <v>2013</v>
+      </c>
+      <c r="G232">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7">
+      <c r="A233" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B233">
+        <v>1329</v>
+      </c>
+      <c r="C233">
+        <v>55</v>
+      </c>
+      <c r="D233" t="s">
+        <v>58</v>
+      </c>
+      <c r="E233" t="s">
+        <v>36</v>
+      </c>
+      <c r="F233">
+        <v>2016</v>
+      </c>
+      <c r="G233">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7">
+      <c r="A234" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B234">
+        <v>1329</v>
+      </c>
+      <c r="C234">
+        <v>75</v>
+      </c>
+      <c r="D234" t="s">
+        <v>58</v>
+      </c>
+      <c r="E234" t="s">
+        <v>36</v>
+      </c>
+      <c r="F234">
+        <v>2013</v>
+      </c>
+      <c r="G234">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7">
+      <c r="A235" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B235">
+        <v>1329</v>
+      </c>
+      <c r="C235">
+        <v>10</v>
+      </c>
+      <c r="D235" t="s">
+        <v>58</v>
+      </c>
+      <c r="E235" t="s">
+        <v>36</v>
+      </c>
+      <c r="F235">
+        <v>2019</v>
+      </c>
+      <c r="G235">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7">
+      <c r="A236" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B236">
+        <v>1329</v>
+      </c>
+      <c r="C236">
+        <v>85</v>
+      </c>
+      <c r="D236" t="s">
+        <v>58</v>
+      </c>
+      <c r="E236" t="s">
+        <v>36</v>
+      </c>
+      <c r="F236">
+        <v>2013</v>
+      </c>
+      <c r="G236">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7">
+      <c r="A237" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B237">
+        <v>1329</v>
+      </c>
+      <c r="C237">
+        <v>50</v>
+      </c>
+      <c r="D237" t="s">
+        <v>58</v>
+      </c>
+      <c r="E237" t="s">
+        <v>9</v>
+      </c>
+      <c r="F237">
+        <v>2016</v>
+      </c>
+      <c r="G237">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7">
+      <c r="A238" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B238">
+        <v>1329</v>
+      </c>
+      <c r="C238">
+        <v>65</v>
+      </c>
+      <c r="D238" t="s">
+        <v>58</v>
+      </c>
+      <c r="E238" t="s">
+        <v>9</v>
+      </c>
+      <c r="F238">
+        <v>2015</v>
+      </c>
+      <c r="G238">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7">
+      <c r="A239" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B239">
+        <v>1329</v>
+      </c>
+      <c r="C239">
+        <v>60</v>
+      </c>
+      <c r="D239" t="s">
+        <v>58</v>
+      </c>
+      <c r="E239" t="s">
+        <v>36</v>
+      </c>
+      <c r="F239">
+        <v>2015</v>
+      </c>
+      <c r="G239">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7">
+      <c r="A240" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B240">
+        <v>1329</v>
+      </c>
+      <c r="C240">
+        <v>50</v>
+      </c>
+      <c r="D240" t="s">
+        <v>58</v>
+      </c>
+      <c r="E240" t="s">
+        <v>9</v>
+      </c>
+      <c r="F240">
+        <v>2014</v>
+      </c>
+      <c r="G240">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7">
+      <c r="A241" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B241">
+        <v>1329</v>
+      </c>
+      <c r="C241">
+        <v>65</v>
+      </c>
+      <c r="D241" t="s">
+        <v>58</v>
+      </c>
+      <c r="E241" t="s">
+        <v>36</v>
+      </c>
+      <c r="F241">
+        <v>2016</v>
+      </c>
+      <c r="G241">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7">
+      <c r="A242" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B242">
+        <v>1329</v>
+      </c>
+      <c r="C242">
+        <v>55</v>
+      </c>
+      <c r="D242" t="s">
+        <v>58</v>
+      </c>
+      <c r="E242" t="s">
+        <v>36</v>
+      </c>
+      <c r="F242">
+        <v>2016</v>
+      </c>
+      <c r="G242">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7">
+      <c r="A243" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B243">
+        <v>1329</v>
+      </c>
+      <c r="C243">
+        <v>25</v>
+      </c>
+      <c r="D243" t="s">
+        <v>58</v>
+      </c>
+      <c r="E243" t="s">
+        <v>9</v>
+      </c>
+      <c r="F243">
+        <v>2017</v>
+      </c>
+      <c r="G243">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7">
+      <c r="A244" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B244">
+        <v>1329</v>
+      </c>
+      <c r="C244">
+        <v>135</v>
+      </c>
+      <c r="D244" t="s">
+        <v>58</v>
+      </c>
+      <c r="E244" t="s">
+        <v>36</v>
+      </c>
+      <c r="F244">
+        <v>2012</v>
+      </c>
+      <c r="G244">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7">
+      <c r="A245" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B245">
+        <v>1329</v>
+      </c>
+      <c r="C245">
+        <v>85</v>
+      </c>
+      <c r="D245" t="s">
+        <v>58</v>
+      </c>
+      <c r="E245" t="s">
+        <v>36</v>
+      </c>
+      <c r="F245">
+        <v>2012</v>
+      </c>
+      <c r="G245">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7">
+      <c r="A246" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B246">
+        <v>1329</v>
+      </c>
+      <c r="C246">
+        <v>10</v>
+      </c>
+      <c r="D246" t="s">
+        <v>58</v>
+      </c>
+      <c r="E246" t="s">
+        <v>36</v>
+      </c>
+      <c r="F246">
+        <v>2019</v>
+      </c>
+      <c r="G246">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7">
+      <c r="A247" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B247">
+        <v>1329</v>
+      </c>
+      <c r="C247">
+        <v>75</v>
+      </c>
+      <c r="D247" t="s">
+        <v>58</v>
+      </c>
+      <c r="E247" t="s">
+        <v>9</v>
+      </c>
+      <c r="F247">
+        <v>2014</v>
+      </c>
+      <c r="G247">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7">
+      <c r="A248" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B248">
+        <v>1329</v>
+      </c>
+      <c r="C248">
+        <v>80</v>
+      </c>
+      <c r="D248" t="s">
+        <v>58</v>
+      </c>
+      <c r="E248" t="s">
+        <v>36</v>
+      </c>
+      <c r="F248">
+        <v>2016</v>
+      </c>
+      <c r="G248">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7">
+      <c r="A249" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B249">
+        <v>1329</v>
+      </c>
+      <c r="C249">
+        <v>185</v>
+      </c>
+      <c r="D249" t="s">
+        <v>58</v>
+      </c>
+      <c r="E249" t="s">
+        <v>36</v>
+      </c>
+      <c r="F249">
+        <v>2012</v>
+      </c>
+      <c r="G249">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7">
+      <c r="A250" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B250">
+        <v>1329</v>
+      </c>
+      <c r="C250">
+        <v>80</v>
+      </c>
+      <c r="D250" t="s">
+        <v>58</v>
+      </c>
+      <c r="E250" t="s">
+        <v>9</v>
+      </c>
+      <c r="F250">
+        <v>2012</v>
+      </c>
+      <c r="G250">
+        <v>130</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/toyota.xlsx
+++ b/toyota.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15336" windowHeight="5448"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15336" windowHeight="5448" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="harga_2019" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="870" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="870" uniqueCount="68">
   <si>
     <t>Nama</t>
   </si>
@@ -205,9 +205,6 @@
   </si>
   <si>
     <t>km (ribu)</t>
-  </si>
-  <si>
-    <t>kapmesin (cc)</t>
   </si>
   <si>
     <t>Veloz</t>
@@ -630,8 +627,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -797,7 +794,7 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B6">
         <v>1329</v>
@@ -1087,7 +1084,7 @@
     </row>
     <row r="16" spans="1:11">
       <c r="A16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B16" s="4">
         <v>1798</v>
@@ -1145,7 +1142,7 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B18">
         <v>1798</v>
@@ -1174,7 +1171,7 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B19" s="4">
         <v>1798</v>
@@ -1203,7 +1200,7 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B20" s="3">
         <v>2494</v>
@@ -1290,7 +1287,7 @@
     </row>
     <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B23">
         <v>1998</v>
@@ -1319,7 +1316,7 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B24">
         <v>1998</v>
@@ -1377,7 +1374,7 @@
     </row>
     <row r="26" spans="1:9">
       <c r="A26" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1458,5769 +1455,5023 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G250"/>
+  <dimension ref="A1:F251"/>
   <sheetViews>
-    <sheetView topLeftCell="A234" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A241" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="G246" sqref="G246"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>59</v>
+        <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:6">
       <c r="A2" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B2">
-        <v>1998</v>
-      </c>
-      <c r="C2">
         <v>90</v>
       </c>
+      <c r="C2" t="s">
+        <v>57</v>
+      </c>
       <c r="D2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E2" t="s">
-        <v>36</v>
+        <v>36</v>
+      </c>
+      <c r="E2">
+        <v>2011</v>
       </c>
       <c r="F2">
-        <v>2011</v>
-      </c>
-      <c r="G2">
         <v>171</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:6">
       <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B3">
-        <v>1998</v>
-      </c>
-      <c r="C3">
         <v>10</v>
       </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
       <c r="D3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E3" t="s">
-        <v>36</v>
+        <v>36</v>
+      </c>
+      <c r="E3">
+        <v>2018</v>
       </c>
       <c r="F3">
-        <v>2018</v>
-      </c>
-      <c r="G3">
         <v>268</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:6">
       <c r="A4" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B4">
-        <v>1998</v>
-      </c>
-      <c r="C4">
         <v>60</v>
       </c>
+      <c r="C4" t="s">
+        <v>58</v>
+      </c>
       <c r="D4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E4" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="E4">
+        <v>2014</v>
       </c>
       <c r="F4">
-        <v>2014</v>
-      </c>
-      <c r="G4">
         <v>172</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:6">
       <c r="A5" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B5">
-        <v>1998</v>
-      </c>
-      <c r="C5">
         <v>90</v>
       </c>
+      <c r="C5" t="s">
+        <v>58</v>
+      </c>
       <c r="D5" t="s">
-        <v>58</v>
-      </c>
-      <c r="E5" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="E5">
+        <v>2012</v>
       </c>
       <c r="F5">
-        <v>2012</v>
-      </c>
-      <c r="G5">
         <v>137</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:6">
       <c r="A6" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B6">
-        <v>1998</v>
-      </c>
-      <c r="C6">
         <v>45</v>
       </c>
+      <c r="C6" t="s">
+        <v>57</v>
+      </c>
       <c r="D6" t="s">
-        <v>57</v>
-      </c>
-      <c r="E6" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="E6">
+        <v>2012</v>
       </c>
       <c r="F6">
-        <v>2012</v>
-      </c>
-      <c r="G6">
         <v>205</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:6">
       <c r="A7" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B7">
-        <v>1998</v>
-      </c>
-      <c r="C7">
         <v>15</v>
       </c>
+      <c r="C7" t="s">
+        <v>58</v>
+      </c>
       <c r="D7" t="s">
-        <v>58</v>
-      </c>
-      <c r="E7" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="E7">
+        <v>2012</v>
       </c>
       <c r="F7">
-        <v>2012</v>
-      </c>
-      <c r="G7">
         <v>155</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:6">
       <c r="A8" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>1998</v>
-      </c>
-      <c r="C8">
         <v>20</v>
       </c>
+      <c r="C8" t="s">
+        <v>58</v>
+      </c>
       <c r="D8" t="s">
-        <v>58</v>
-      </c>
-      <c r="E8" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="E8">
+        <v>2006</v>
       </c>
       <c r="F8">
-        <v>2006</v>
-      </c>
-      <c r="G8">
         <v>99</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:6">
       <c r="A9" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1998</v>
-      </c>
-      <c r="C9">
         <v>80</v>
       </c>
+      <c r="C9" t="s">
+        <v>58</v>
+      </c>
       <c r="D9" t="s">
-        <v>58</v>
-      </c>
-      <c r="E9" t="s">
-        <v>36</v>
+        <v>36</v>
+      </c>
+      <c r="E9">
+        <v>2014</v>
       </c>
       <c r="F9">
-        <v>2014</v>
-      </c>
-      <c r="G9">
         <v>185</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:6">
       <c r="A10" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B10">
-        <v>1998</v>
-      </c>
-      <c r="C10">
         <v>35</v>
       </c>
+      <c r="C10" t="s">
+        <v>57</v>
+      </c>
       <c r="D10" t="s">
-        <v>57</v>
-      </c>
-      <c r="E10" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="E10">
+        <v>2016</v>
       </c>
       <c r="F10">
-        <v>2016</v>
-      </c>
-      <c r="G10">
         <v>290</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:6">
       <c r="A11" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B11">
-        <v>1998</v>
-      </c>
-      <c r="C11">
         <v>105</v>
       </c>
+      <c r="C11" t="s">
+        <v>58</v>
+      </c>
       <c r="D11" t="s">
-        <v>58</v>
-      </c>
-      <c r="E11" t="s">
-        <v>36</v>
+        <v>36</v>
+      </c>
+      <c r="E11">
+        <v>2010</v>
       </c>
       <c r="F11">
-        <v>2010</v>
-      </c>
-      <c r="G11">
         <v>120</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:6">
       <c r="A12" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B12">
-        <v>1998</v>
-      </c>
-      <c r="C12">
         <v>5</v>
       </c>
+      <c r="C12" t="s">
+        <v>58</v>
+      </c>
       <c r="D12" t="s">
-        <v>58</v>
-      </c>
-      <c r="E12" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="E12">
+        <v>2019</v>
       </c>
       <c r="F12">
-        <v>2019</v>
-      </c>
-      <c r="G12">
         <v>277</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:6">
       <c r="A13" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B13">
-        <v>1998</v>
-      </c>
-      <c r="C13">
         <v>105</v>
       </c>
+      <c r="C13" t="s">
+        <v>57</v>
+      </c>
       <c r="D13" t="s">
-        <v>57</v>
-      </c>
-      <c r="E13" t="s">
-        <v>36</v>
+        <v>36</v>
+      </c>
+      <c r="E13">
+        <v>2013</v>
       </c>
       <c r="F13">
-        <v>2013</v>
-      </c>
-      <c r="G13">
         <v>219</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:6">
       <c r="A14" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B14">
-        <v>1998</v>
-      </c>
-      <c r="C14">
         <v>225</v>
       </c>
+      <c r="C14" t="s">
+        <v>58</v>
+      </c>
       <c r="D14" t="s">
-        <v>58</v>
-      </c>
-      <c r="E14" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="E14">
+        <v>2006</v>
       </c>
       <c r="F14">
-        <v>2006</v>
-      </c>
-      <c r="G14">
         <v>96</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:6">
       <c r="A15" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B15">
-        <v>1998</v>
-      </c>
-      <c r="C15">
         <v>20</v>
       </c>
+      <c r="C15" t="s">
+        <v>57</v>
+      </c>
       <c r="D15" t="s">
-        <v>57</v>
-      </c>
-      <c r="E15" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="E15">
+        <v>2018</v>
       </c>
       <c r="F15">
-        <v>2018</v>
-      </c>
-      <c r="G15">
         <v>284</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:6">
       <c r="A16" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B16">
-        <v>1998</v>
-      </c>
-      <c r="C16">
         <v>25</v>
       </c>
+      <c r="C16" t="s">
+        <v>58</v>
+      </c>
       <c r="D16" t="s">
-        <v>58</v>
-      </c>
-      <c r="E16" t="s">
-        <v>36</v>
+        <v>36</v>
+      </c>
+      <c r="E16">
+        <v>2016</v>
       </c>
       <c r="F16">
-        <v>2016</v>
-      </c>
-      <c r="G16">
         <v>265</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:6">
       <c r="A17" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B17">
-        <v>1998</v>
-      </c>
-      <c r="C17">
         <v>15</v>
       </c>
+      <c r="C17" t="s">
+        <v>57</v>
+      </c>
       <c r="D17" t="s">
-        <v>57</v>
-      </c>
-      <c r="E17" t="s">
-        <v>36</v>
+        <v>36</v>
+      </c>
+      <c r="E17">
+        <v>2012</v>
       </c>
       <c r="F17">
-        <v>2012</v>
-      </c>
-      <c r="G17">
         <v>189</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:6">
       <c r="A18" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B18">
-        <v>1998</v>
-      </c>
-      <c r="C18">
         <v>155</v>
       </c>
+      <c r="C18" t="s">
+        <v>58</v>
+      </c>
       <c r="D18" t="s">
-        <v>58</v>
-      </c>
-      <c r="E18" t="s">
-        <v>36</v>
+        <v>36</v>
+      </c>
+      <c r="E18">
+        <v>2011</v>
       </c>
       <c r="F18">
-        <v>2011</v>
-      </c>
-      <c r="G18">
         <v>133</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:6">
       <c r="A19" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B19">
-        <v>1998</v>
-      </c>
-      <c r="C19">
         <v>110</v>
       </c>
+      <c r="C19" t="s">
+        <v>57</v>
+      </c>
       <c r="D19" t="s">
-        <v>57</v>
-      </c>
-      <c r="E19" t="s">
-        <v>36</v>
+        <v>36</v>
+      </c>
+      <c r="E19">
+        <v>2012</v>
       </c>
       <c r="F19">
-        <v>2012</v>
-      </c>
-      <c r="G19">
         <v>195</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:6">
       <c r="A20" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B20">
-        <v>1998</v>
-      </c>
-      <c r="C20">
         <v>65</v>
       </c>
+      <c r="C20" t="s">
+        <v>58</v>
+      </c>
       <c r="D20" t="s">
-        <v>58</v>
-      </c>
-      <c r="E20" t="s">
-        <v>36</v>
+        <v>36</v>
+      </c>
+      <c r="E20">
+        <v>2017</v>
       </c>
       <c r="F20">
-        <v>2017</v>
-      </c>
-      <c r="G20">
         <v>260</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:6">
       <c r="A21" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B21">
-        <v>1998</v>
-      </c>
-      <c r="C21">
         <v>165</v>
       </c>
+      <c r="C21" t="s">
+        <v>57</v>
+      </c>
       <c r="D21" t="s">
-        <v>57</v>
-      </c>
-      <c r="E21" t="s">
-        <v>36</v>
+        <v>36</v>
+      </c>
+      <c r="E21">
+        <v>2008</v>
       </c>
       <c r="F21">
-        <v>2008</v>
-      </c>
-      <c r="G21">
         <v>143</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:6">
       <c r="A22" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B22">
-        <v>1998</v>
-      </c>
-      <c r="C22">
         <v>90</v>
       </c>
+      <c r="C22" t="s">
+        <v>57</v>
+      </c>
       <c r="D22" t="s">
-        <v>57</v>
-      </c>
-      <c r="E22" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="E22">
+        <v>2008</v>
       </c>
       <c r="F22">
-        <v>2008</v>
-      </c>
-      <c r="G22">
         <v>150</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:6">
       <c r="A23" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B23">
-        <v>1998</v>
-      </c>
-      <c r="C23">
         <v>45</v>
       </c>
+      <c r="C23" t="s">
+        <v>58</v>
+      </c>
       <c r="D23" t="s">
-        <v>58</v>
-      </c>
-      <c r="E23" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="E23">
+        <v>2014</v>
       </c>
       <c r="F23">
-        <v>2014</v>
-      </c>
-      <c r="G23">
         <v>198</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:6">
       <c r="A24" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B24">
-        <v>1998</v>
-      </c>
-      <c r="C24">
         <v>140</v>
       </c>
+      <c r="C24" t="s">
+        <v>58</v>
+      </c>
       <c r="D24" t="s">
-        <v>58</v>
-      </c>
-      <c r="E24" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="E24">
+        <v>2009</v>
       </c>
       <c r="F24">
-        <v>2009</v>
-      </c>
-      <c r="G24">
         <v>104</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:6">
       <c r="A25" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B25">
-        <v>1998</v>
-      </c>
-      <c r="C25">
         <v>70</v>
       </c>
+      <c r="C25" t="s">
+        <v>58</v>
+      </c>
       <c r="D25" t="s">
-        <v>58</v>
-      </c>
-      <c r="E25" t="s">
-        <v>36</v>
+        <v>36</v>
+      </c>
+      <c r="E25">
+        <v>2014</v>
       </c>
       <c r="F25">
-        <v>2014</v>
-      </c>
-      <c r="G25">
         <v>168</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:6">
       <c r="A26" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B26">
-        <v>1998</v>
-      </c>
-      <c r="C26">
         <v>40</v>
       </c>
+      <c r="C26" t="s">
+        <v>58</v>
+      </c>
       <c r="D26" t="s">
-        <v>58</v>
-      </c>
-      <c r="E26" t="s">
-        <v>36</v>
+        <v>36</v>
+      </c>
+      <c r="E26">
+        <v>2012</v>
       </c>
       <c r="F26">
-        <v>2012</v>
-      </c>
-      <c r="G26">
         <v>158</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:6">
       <c r="A27" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B27">
-        <v>1998</v>
-      </c>
-      <c r="C27">
         <v>80</v>
       </c>
+      <c r="C27" t="s">
+        <v>58</v>
+      </c>
       <c r="D27" t="s">
-        <v>58</v>
-      </c>
-      <c r="E27" t="s">
-        <v>36</v>
+        <v>36</v>
+      </c>
+      <c r="E27">
+        <v>2008</v>
       </c>
       <c r="F27">
-        <v>2008</v>
-      </c>
-      <c r="G27">
         <v>125</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:6">
       <c r="A28" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B28">
-        <v>1998</v>
-      </c>
-      <c r="C28">
         <v>135</v>
       </c>
+      <c r="C28" t="s">
+        <v>58</v>
+      </c>
       <c r="D28" t="s">
-        <v>58</v>
-      </c>
-      <c r="E28" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="E28">
+        <v>2009</v>
       </c>
       <c r="F28">
-        <v>2009</v>
-      </c>
-      <c r="G28">
         <v>115</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:6">
       <c r="A29" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B29">
-        <v>1998</v>
-      </c>
-      <c r="C29">
         <v>35</v>
       </c>
+      <c r="C29" t="s">
+        <v>57</v>
+      </c>
       <c r="D29" t="s">
-        <v>57</v>
-      </c>
-      <c r="E29" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="E29">
+        <v>2012</v>
       </c>
       <c r="F29">
-        <v>2012</v>
-      </c>
-      <c r="G29">
         <v>197</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:6">
       <c r="A30" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B30">
-        <v>1998</v>
-      </c>
-      <c r="C30">
         <v>15</v>
       </c>
+      <c r="C30" t="s">
+        <v>58</v>
+      </c>
       <c r="D30" t="s">
-        <v>58</v>
-      </c>
-      <c r="E30" t="s">
-        <v>36</v>
+        <v>36</v>
+      </c>
+      <c r="E30">
+        <v>2016</v>
       </c>
       <c r="F30">
-        <v>2016</v>
-      </c>
-      <c r="G30">
         <v>299</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:6">
       <c r="A31" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B31">
-        <v>1998</v>
-      </c>
-      <c r="C31">
         <v>130</v>
       </c>
+      <c r="C31" t="s">
+        <v>57</v>
+      </c>
       <c r="D31" t="s">
-        <v>57</v>
-      </c>
-      <c r="E31" t="s">
-        <v>36</v>
+        <v>36</v>
+      </c>
+      <c r="E31">
+        <v>2013</v>
       </c>
       <c r="F31">
-        <v>2013</v>
-      </c>
-      <c r="G31">
         <v>203</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:6">
       <c r="A32" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B32">
-        <v>1998</v>
-      </c>
-      <c r="C32">
         <v>65</v>
       </c>
+      <c r="C32" t="s">
+        <v>57</v>
+      </c>
       <c r="D32" t="s">
-        <v>57</v>
-      </c>
-      <c r="E32" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="E32">
+        <v>2016</v>
       </c>
       <c r="F32">
-        <v>2016</v>
-      </c>
-      <c r="G32">
         <v>275</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:6">
       <c r="A33" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B33">
-        <v>1998</v>
-      </c>
-      <c r="C33">
         <v>75</v>
       </c>
+      <c r="C33" t="s">
+        <v>58</v>
+      </c>
       <c r="D33" t="s">
-        <v>58</v>
-      </c>
-      <c r="E33" t="s">
-        <v>36</v>
+        <v>36</v>
+      </c>
+      <c r="E33">
+        <v>2008</v>
       </c>
       <c r="F33">
-        <v>2008</v>
-      </c>
-      <c r="G33">
         <v>130</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:6">
       <c r="A34" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B34">
-        <v>1998</v>
-      </c>
-      <c r="C34">
         <v>145</v>
       </c>
+      <c r="C34" t="s">
+        <v>58</v>
+      </c>
       <c r="D34" t="s">
-        <v>58</v>
-      </c>
-      <c r="E34" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="E34">
+        <v>2009</v>
       </c>
       <c r="F34">
-        <v>2009</v>
-      </c>
-      <c r="G34">
         <v>135</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:6">
       <c r="A35" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B35">
-        <v>1998</v>
-      </c>
-      <c r="C35">
         <v>115</v>
       </c>
+      <c r="C35" t="s">
+        <v>58</v>
+      </c>
       <c r="D35" t="s">
-        <v>58</v>
-      </c>
-      <c r="E35" t="s">
-        <v>36</v>
+        <v>36</v>
+      </c>
+      <c r="E35">
+        <v>2009</v>
       </c>
       <c r="F35">
-        <v>2009</v>
-      </c>
-      <c r="G35">
         <v>128</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:6">
       <c r="A36" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B36">
-        <v>1998</v>
-      </c>
-      <c r="C36">
         <v>200</v>
       </c>
+      <c r="C36" t="s">
+        <v>58</v>
+      </c>
       <c r="D36" t="s">
-        <v>58</v>
-      </c>
-      <c r="E36" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="E36">
+        <v>2005</v>
       </c>
       <c r="F36">
-        <v>2005</v>
-      </c>
-      <c r="G36">
         <v>82</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:6">
       <c r="A37" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B37">
-        <v>1998</v>
-      </c>
-      <c r="C37">
         <v>95</v>
       </c>
+      <c r="C37" t="s">
+        <v>58</v>
+      </c>
       <c r="D37" t="s">
-        <v>58</v>
-      </c>
-      <c r="E37" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="E37">
+        <v>2005</v>
       </c>
       <c r="F37">
-        <v>2005</v>
-      </c>
-      <c r="G37">
         <v>94</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:6">
       <c r="A38" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B38">
-        <v>1998</v>
-      </c>
-      <c r="C38">
         <v>95</v>
       </c>
+      <c r="C38" t="s">
+        <v>58</v>
+      </c>
       <c r="D38" t="s">
-        <v>58</v>
-      </c>
-      <c r="E38" t="s">
-        <v>36</v>
+        <v>36</v>
+      </c>
+      <c r="E38">
+        <v>2013</v>
       </c>
       <c r="F38">
-        <v>2013</v>
-      </c>
-      <c r="G38">
         <v>152</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:6">
       <c r="A39" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B39">
-        <v>1998</v>
-      </c>
-      <c r="C39">
         <v>100</v>
       </c>
+      <c r="C39" t="s">
+        <v>58</v>
+      </c>
       <c r="D39" t="s">
-        <v>58</v>
-      </c>
-      <c r="E39" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="E39">
+        <v>2011</v>
       </c>
       <c r="F39">
-        <v>2011</v>
-      </c>
-      <c r="G39">
         <v>150</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:6">
       <c r="A40" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B40">
-        <v>1998</v>
-      </c>
-      <c r="C40">
         <v>90</v>
       </c>
+      <c r="C40" t="s">
+        <v>57</v>
+      </c>
       <c r="D40" t="s">
-        <v>57</v>
-      </c>
-      <c r="E40" t="s">
-        <v>36</v>
+        <v>36</v>
+      </c>
+      <c r="E40">
+        <v>2013</v>
       </c>
       <c r="F40">
-        <v>2013</v>
-      </c>
-      <c r="G40">
         <v>198</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:6">
       <c r="A41" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B41">
-        <v>1998</v>
-      </c>
-      <c r="C41">
         <v>150</v>
       </c>
+      <c r="C41" t="s">
+        <v>58</v>
+      </c>
       <c r="D41" t="s">
-        <v>58</v>
-      </c>
-      <c r="E41" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="E41">
+        <v>2009</v>
       </c>
       <c r="F41">
-        <v>2009</v>
-      </c>
-      <c r="G41">
         <v>120</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:6">
       <c r="A42" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B42">
-        <v>1998</v>
-      </c>
-      <c r="C42">
         <v>150</v>
       </c>
+      <c r="C42" t="s">
+        <v>58</v>
+      </c>
       <c r="D42" t="s">
-        <v>58</v>
-      </c>
-      <c r="E42" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="E42">
+        <v>2008</v>
       </c>
       <c r="F42">
-        <v>2008</v>
-      </c>
-      <c r="G42">
         <v>107</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:6">
       <c r="A43" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B43">
-        <v>1998</v>
-      </c>
-      <c r="C43">
         <v>80</v>
       </c>
+      <c r="C43" t="s">
+        <v>58</v>
+      </c>
       <c r="D43" t="s">
-        <v>58</v>
-      </c>
-      <c r="E43" t="s">
-        <v>36</v>
+        <v>36</v>
+      </c>
+      <c r="E43">
+        <v>2013</v>
       </c>
       <c r="F43">
-        <v>2013</v>
-      </c>
-      <c r="G43">
         <v>145</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:6">
       <c r="A44" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B44">
-        <v>1998</v>
-      </c>
-      <c r="C44">
         <v>95</v>
       </c>
+      <c r="C44" t="s">
+        <v>58</v>
+      </c>
       <c r="D44" t="s">
-        <v>58</v>
-      </c>
-      <c r="E44" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="E44">
+        <v>2005</v>
       </c>
       <c r="F44">
-        <v>2005</v>
-      </c>
-      <c r="G44">
         <v>115</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:6">
       <c r="A45" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B45">
-        <v>1998</v>
-      </c>
-      <c r="C45">
         <v>145</v>
       </c>
+      <c r="C45" t="s">
+        <v>57</v>
+      </c>
       <c r="D45" t="s">
-        <v>57</v>
-      </c>
-      <c r="E45" t="s">
-        <v>36</v>
+        <v>36</v>
+      </c>
+      <c r="E45">
+        <v>2008</v>
       </c>
       <c r="F45">
-        <v>2008</v>
-      </c>
-      <c r="G45">
         <v>160</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:6">
       <c r="A46" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B46">
-        <v>1998</v>
-      </c>
-      <c r="C46">
         <v>105</v>
       </c>
+      <c r="C46" t="s">
+        <v>58</v>
+      </c>
       <c r="D46" t="s">
-        <v>58</v>
-      </c>
-      <c r="E46" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="E46">
+        <v>2009</v>
       </c>
       <c r="F46">
-        <v>2009</v>
-      </c>
-      <c r="G46">
         <v>130</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:6">
       <c r="A47" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B47">
-        <v>1998</v>
-      </c>
-      <c r="C47">
         <v>115</v>
       </c>
+      <c r="C47" t="s">
+        <v>58</v>
+      </c>
       <c r="D47" t="s">
-        <v>58</v>
-      </c>
-      <c r="E47" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="E47">
+        <v>2013</v>
       </c>
       <c r="F47">
-        <v>2013</v>
-      </c>
-      <c r="G47">
         <v>145</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:6">
       <c r="A48" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B48">
-        <v>1998</v>
-      </c>
-      <c r="C48">
         <v>150</v>
       </c>
+      <c r="C48" t="s">
+        <v>58</v>
+      </c>
       <c r="D48" t="s">
-        <v>58</v>
-      </c>
-      <c r="E48" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="E48">
+        <v>2009</v>
       </c>
       <c r="F48">
-        <v>2009</v>
-      </c>
-      <c r="G48">
         <v>140</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:6">
       <c r="A49" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B49">
-        <v>1998</v>
-      </c>
-      <c r="C49">
         <v>300</v>
       </c>
+      <c r="C49" t="s">
+        <v>58</v>
+      </c>
       <c r="D49" t="s">
-        <v>58</v>
-      </c>
-      <c r="E49" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="E49">
+        <v>2005</v>
       </c>
       <c r="F49">
-        <v>2005</v>
-      </c>
-      <c r="G49">
         <v>105</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:6">
       <c r="A50" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B50">
-        <v>1998</v>
-      </c>
-      <c r="C50">
         <v>110</v>
       </c>
+      <c r="C50" t="s">
+        <v>58</v>
+      </c>
       <c r="D50" t="s">
-        <v>58</v>
-      </c>
-      <c r="E50" t="s">
-        <v>36</v>
+        <v>36</v>
+      </c>
+      <c r="E50">
+        <v>2008</v>
       </c>
       <c r="F50">
-        <v>2008</v>
-      </c>
-      <c r="G50">
         <v>110</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:6">
       <c r="A51" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B51">
-        <v>1998</v>
-      </c>
-      <c r="C51">
         <v>145</v>
       </c>
+      <c r="C51" t="s">
+        <v>58</v>
+      </c>
       <c r="D51" t="s">
-        <v>58</v>
-      </c>
-      <c r="E51" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="E51">
+        <v>2004</v>
       </c>
       <c r="F51">
-        <v>2004</v>
-      </c>
-      <c r="G51">
         <v>87</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:6">
       <c r="A52" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B52">
-        <v>1998</v>
-      </c>
-      <c r="C52">
         <v>205</v>
       </c>
+      <c r="C52" t="s">
+        <v>58</v>
+      </c>
       <c r="D52" t="s">
-        <v>58</v>
-      </c>
-      <c r="E52" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="E52">
+        <v>2004</v>
       </c>
       <c r="F52">
-        <v>2004</v>
-      </c>
-      <c r="G52">
         <v>98</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:6">
       <c r="A53" s="9" t="s">
         <v>11</v>
       </c>
       <c r="B53">
-        <v>1197</v>
-      </c>
-      <c r="C53">
         <v>10</v>
       </c>
+      <c r="C53" t="s">
+        <v>58</v>
+      </c>
       <c r="D53" t="s">
-        <v>58</v>
-      </c>
-      <c r="E53" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="E53">
+        <v>2018</v>
       </c>
       <c r="F53">
-        <v>2018</v>
-      </c>
-      <c r="G53">
         <v>121</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:6">
       <c r="A54" s="9" t="s">
         <v>11</v>
       </c>
       <c r="B54">
-        <v>1197</v>
-      </c>
-      <c r="C54">
         <v>5</v>
       </c>
+      <c r="C54" t="s">
+        <v>58</v>
+      </c>
       <c r="D54" t="s">
-        <v>58</v>
-      </c>
-      <c r="E54" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="E54">
+        <v>2019</v>
       </c>
       <c r="F54">
-        <v>2019</v>
-      </c>
-      <c r="G54">
         <v>129</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:6">
       <c r="A55" s="9" t="s">
         <v>11</v>
       </c>
       <c r="B55">
-        <v>1197</v>
-      </c>
-      <c r="C55">
         <v>5</v>
       </c>
+      <c r="C55" t="s">
+        <v>58</v>
+      </c>
       <c r="D55" t="s">
-        <v>58</v>
-      </c>
-      <c r="E55" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="E55">
+        <v>2019</v>
       </c>
       <c r="F55">
-        <v>2019</v>
-      </c>
-      <c r="G55">
         <v>125</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:6">
       <c r="A56" s="9" t="s">
         <v>11</v>
       </c>
       <c r="B56">
-        <v>1197</v>
-      </c>
-      <c r="C56">
         <v>15</v>
       </c>
+      <c r="C56" t="s">
+        <v>58</v>
+      </c>
       <c r="D56" t="s">
-        <v>58</v>
-      </c>
-      <c r="E56" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="E56">
+        <v>2018</v>
       </c>
       <c r="F56">
-        <v>2018</v>
-      </c>
-      <c r="G56">
         <v>128</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:6">
       <c r="A57" s="9" t="s">
         <v>11</v>
       </c>
       <c r="B57">
-        <v>1197</v>
-      </c>
-      <c r="C57">
         <v>85</v>
       </c>
+      <c r="C57" t="s">
+        <v>58</v>
+      </c>
       <c r="D57" t="s">
-        <v>58</v>
-      </c>
-      <c r="E57" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="E57">
+        <v>2017</v>
       </c>
       <c r="F57">
-        <v>2017</v>
-      </c>
-      <c r="G57">
         <v>100</v>
       </c>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:6">
       <c r="A58" s="9" t="s">
         <v>11</v>
       </c>
       <c r="B58">
-        <v>1197</v>
-      </c>
-      <c r="C58">
         <v>45</v>
       </c>
+      <c r="C58" t="s">
+        <v>58</v>
+      </c>
       <c r="D58" t="s">
-        <v>58</v>
-      </c>
-      <c r="E58" t="s">
-        <v>36</v>
+        <v>36</v>
+      </c>
+      <c r="E58">
+        <v>2016</v>
       </c>
       <c r="F58">
-        <v>2016</v>
-      </c>
-      <c r="G58">
         <v>115</v>
       </c>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:6">
       <c r="A59" s="9" t="s">
         <v>11</v>
       </c>
       <c r="B59">
-        <v>1197</v>
-      </c>
-      <c r="C59">
         <v>25</v>
       </c>
+      <c r="C59" t="s">
+        <v>58</v>
+      </c>
       <c r="D59" t="s">
-        <v>58</v>
-      </c>
-      <c r="E59" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="E59">
+        <v>2018</v>
       </c>
       <c r="F59">
-        <v>2018</v>
-      </c>
-      <c r="G59">
         <v>121</v>
       </c>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:6">
       <c r="A60" s="9" t="s">
         <v>11</v>
       </c>
       <c r="B60">
-        <v>1197</v>
-      </c>
-      <c r="C60">
         <v>30</v>
       </c>
+      <c r="C60" t="s">
+        <v>58</v>
+      </c>
       <c r="D60" t="s">
-        <v>58</v>
-      </c>
-      <c r="E60" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="E60">
+        <v>2017</v>
       </c>
       <c r="F60">
-        <v>2017</v>
-      </c>
-      <c r="G60">
         <v>117</v>
       </c>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:6">
       <c r="A61" s="9" t="s">
         <v>11</v>
       </c>
       <c r="B61">
-        <v>1197</v>
-      </c>
-      <c r="C61">
         <v>5</v>
       </c>
+      <c r="C61" t="s">
+        <v>58</v>
+      </c>
       <c r="D61" t="s">
-        <v>58</v>
-      </c>
-      <c r="E61" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="E61">
+        <v>2019</v>
       </c>
       <c r="F61">
-        <v>2019</v>
-      </c>
-      <c r="G61">
         <v>158</v>
       </c>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:6">
       <c r="A62" s="9" t="s">
         <v>11</v>
       </c>
       <c r="B62">
-        <v>1197</v>
-      </c>
-      <c r="C62">
         <v>10</v>
       </c>
+      <c r="C62" t="s">
+        <v>58</v>
+      </c>
       <c r="D62" t="s">
-        <v>58</v>
-      </c>
-      <c r="E62" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="E62">
+        <v>2018</v>
       </c>
       <c r="F62">
-        <v>2018</v>
-      </c>
-      <c r="G62">
         <v>120</v>
       </c>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:6">
       <c r="A63" s="9" t="s">
         <v>11</v>
       </c>
       <c r="B63">
-        <v>1197</v>
-      </c>
-      <c r="C63">
         <v>10</v>
       </c>
+      <c r="C63" t="s">
+        <v>58</v>
+      </c>
       <c r="D63" t="s">
-        <v>58</v>
-      </c>
-      <c r="E63" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="E63">
+        <v>2018</v>
       </c>
       <c r="F63">
-        <v>2018</v>
-      </c>
-      <c r="G63">
         <v>120</v>
       </c>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:6">
       <c r="A64" s="9" t="s">
         <v>11</v>
       </c>
       <c r="B64">
-        <v>1197</v>
-      </c>
-      <c r="C64">
         <v>5</v>
       </c>
+      <c r="C64" t="s">
+        <v>58</v>
+      </c>
       <c r="D64" t="s">
-        <v>58</v>
-      </c>
-      <c r="E64" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="E64">
+        <v>2019</v>
       </c>
       <c r="F64">
-        <v>2019</v>
-      </c>
-      <c r="G64">
         <v>140</v>
       </c>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" spans="1:6">
       <c r="A65" s="9" t="s">
         <v>11</v>
       </c>
       <c r="B65">
-        <v>1197</v>
-      </c>
-      <c r="C65">
         <v>5</v>
       </c>
+      <c r="C65" t="s">
+        <v>58</v>
+      </c>
       <c r="D65" t="s">
-        <v>58</v>
-      </c>
-      <c r="E65" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="E65">
+        <v>2019</v>
       </c>
       <c r="F65">
-        <v>2019</v>
-      </c>
-      <c r="G65">
         <v>146</v>
       </c>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:6">
       <c r="A66" s="9" t="s">
         <v>11</v>
       </c>
       <c r="B66">
-        <v>1197</v>
-      </c>
-      <c r="C66">
         <v>10</v>
       </c>
+      <c r="C66" t="s">
+        <v>58</v>
+      </c>
       <c r="D66" t="s">
-        <v>58</v>
-      </c>
-      <c r="E66" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="E66">
+        <v>2018</v>
       </c>
       <c r="F66">
-        <v>2018</v>
-      </c>
-      <c r="G66">
         <v>120</v>
       </c>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:6">
       <c r="A67" s="9" t="s">
         <v>11</v>
       </c>
       <c r="B67">
-        <v>1197</v>
-      </c>
-      <c r="C67">
         <v>5</v>
       </c>
+      <c r="C67" t="s">
+        <v>58</v>
+      </c>
       <c r="D67" t="s">
-        <v>58</v>
-      </c>
-      <c r="E67" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="E67">
+        <v>2019</v>
       </c>
       <c r="F67">
-        <v>2019</v>
-      </c>
-      <c r="G67">
         <v>120</v>
       </c>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:6">
       <c r="A68" s="9" t="s">
         <v>11</v>
       </c>
       <c r="B68">
-        <v>1197</v>
-      </c>
-      <c r="C68">
         <v>30</v>
       </c>
+      <c r="C68" t="s">
+        <v>58</v>
+      </c>
       <c r="D68" t="s">
-        <v>58</v>
-      </c>
-      <c r="E68" t="s">
-        <v>36</v>
+        <v>36</v>
+      </c>
+      <c r="E68">
+        <v>2018</v>
       </c>
       <c r="F68">
-        <v>2018</v>
-      </c>
-      <c r="G68">
         <v>125</v>
       </c>
     </row>
-    <row r="69" spans="1:7">
+    <row r="69" spans="1:6">
       <c r="A69" s="9" t="s">
         <v>11</v>
       </c>
       <c r="B69">
-        <v>1197</v>
-      </c>
-      <c r="C69">
         <v>45</v>
       </c>
+      <c r="C69" t="s">
+        <v>58</v>
+      </c>
       <c r="D69" t="s">
-        <v>58</v>
-      </c>
-      <c r="E69" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="E69">
+        <v>2017</v>
       </c>
       <c r="F69">
-        <v>2017</v>
-      </c>
-      <c r="G69">
         <v>114</v>
       </c>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70" spans="1:6">
       <c r="A70" s="9" t="s">
         <v>11</v>
       </c>
       <c r="B70">
-        <v>1197</v>
-      </c>
-      <c r="C70">
         <v>20</v>
       </c>
+      <c r="C70" t="s">
+        <v>58</v>
+      </c>
       <c r="D70" t="s">
-        <v>58</v>
-      </c>
-      <c r="E70" t="s">
-        <v>36</v>
+        <v>36</v>
+      </c>
+      <c r="E70">
+        <v>2017</v>
       </c>
       <c r="F70">
-        <v>2017</v>
-      </c>
-      <c r="G70">
         <v>125</v>
       </c>
     </row>
-    <row r="71" spans="1:7">
+    <row r="71" spans="1:6">
       <c r="A71" s="9" t="s">
         <v>11</v>
       </c>
       <c r="B71">
-        <v>1197</v>
-      </c>
-      <c r="C71">
         <v>55</v>
       </c>
+      <c r="C71" t="s">
+        <v>58</v>
+      </c>
       <c r="D71" t="s">
-        <v>58</v>
-      </c>
-      <c r="E71" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="E71">
+        <v>2016</v>
       </c>
       <c r="F71">
-        <v>2016</v>
-      </c>
-      <c r="G71">
         <v>110</v>
       </c>
     </row>
-    <row r="72" spans="1:7">
+    <row r="72" spans="1:6">
       <c r="A72" s="9" t="s">
         <v>11</v>
       </c>
       <c r="B72">
-        <v>1197</v>
-      </c>
-      <c r="C72">
         <v>75</v>
       </c>
+      <c r="C72" t="s">
+        <v>58</v>
+      </c>
       <c r="D72" t="s">
-        <v>58</v>
-      </c>
-      <c r="E72" t="s">
-        <v>36</v>
+        <v>36</v>
+      </c>
+      <c r="E72">
+        <v>2016</v>
       </c>
       <c r="F72">
-        <v>2016</v>
-      </c>
-      <c r="G72">
         <v>105</v>
       </c>
     </row>
-    <row r="73" spans="1:7">
+    <row r="73" spans="1:6">
       <c r="A73" s="9" t="s">
         <v>11</v>
       </c>
       <c r="B73">
-        <v>1197</v>
-      </c>
-      <c r="C73">
         <v>30</v>
       </c>
+      <c r="C73" t="s">
+        <v>58</v>
+      </c>
       <c r="D73" t="s">
-        <v>58</v>
-      </c>
-      <c r="E73" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="E73">
+        <v>2017</v>
       </c>
       <c r="F73">
-        <v>2017</v>
-      </c>
-      <c r="G73">
         <v>105</v>
       </c>
     </row>
-    <row r="74" spans="1:7">
+    <row r="74" spans="1:6">
       <c r="A74" s="9" t="s">
         <v>11</v>
       </c>
       <c r="B74">
-        <v>1197</v>
-      </c>
-      <c r="C74">
         <v>40</v>
       </c>
+      <c r="C74" t="s">
+        <v>58</v>
+      </c>
       <c r="D74" t="s">
-        <v>58</v>
-      </c>
-      <c r="E74" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="E74">
+        <v>2017</v>
       </c>
       <c r="F74">
-        <v>2017</v>
-      </c>
-      <c r="G74">
         <v>114</v>
       </c>
     </row>
-    <row r="75" spans="1:7">
+    <row r="75" spans="1:6">
       <c r="A75" s="9" t="s">
         <v>11</v>
       </c>
       <c r="B75">
-        <v>1197</v>
-      </c>
-      <c r="C75">
         <v>35</v>
       </c>
+      <c r="C75" t="s">
+        <v>58</v>
+      </c>
       <c r="D75" t="s">
-        <v>58</v>
-      </c>
-      <c r="E75" t="s">
-        <v>36</v>
+        <v>36</v>
+      </c>
+      <c r="E75">
+        <v>2017</v>
       </c>
       <c r="F75">
-        <v>2017</v>
-      </c>
-      <c r="G75">
         <v>110</v>
       </c>
     </row>
-    <row r="76" spans="1:7">
+    <row r="76" spans="1:6">
       <c r="A76" s="9" t="s">
         <v>11</v>
       </c>
       <c r="B76">
-        <v>1197</v>
-      </c>
-      <c r="C76">
         <v>30</v>
       </c>
+      <c r="C76" t="s">
+        <v>58</v>
+      </c>
       <c r="D76" t="s">
-        <v>58</v>
-      </c>
-      <c r="E76" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="E76">
+        <v>2017</v>
       </c>
       <c r="F76">
-        <v>2017</v>
-      </c>
-      <c r="G76">
         <v>114</v>
       </c>
     </row>
-    <row r="77" spans="1:7">
+    <row r="77" spans="1:6">
       <c r="A77" s="9" t="s">
         <v>11</v>
       </c>
       <c r="B77">
-        <v>1197</v>
-      </c>
-      <c r="C77">
         <v>30</v>
       </c>
+      <c r="C77" t="s">
+        <v>58</v>
+      </c>
       <c r="D77" t="s">
-        <v>58</v>
-      </c>
-      <c r="E77" t="s">
-        <v>36</v>
+        <v>36</v>
+      </c>
+      <c r="E77">
+        <v>2016</v>
       </c>
       <c r="F77">
-        <v>2016</v>
-      </c>
-      <c r="G77">
         <v>115</v>
       </c>
     </row>
-    <row r="78" spans="1:7">
+    <row r="78" spans="1:6">
       <c r="A78" s="9" t="s">
         <v>11</v>
       </c>
       <c r="B78">
-        <v>1197</v>
-      </c>
-      <c r="C78">
         <v>45</v>
       </c>
+      <c r="C78" t="s">
+        <v>58</v>
+      </c>
       <c r="D78" t="s">
-        <v>58</v>
-      </c>
-      <c r="E78" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="E78">
+        <v>2016</v>
       </c>
       <c r="F78">
-        <v>2016</v>
-      </c>
-      <c r="G78">
         <v>103</v>
       </c>
     </row>
-    <row r="79" spans="1:7">
+    <row r="79" spans="1:6">
       <c r="A79" s="9" t="s">
         <v>11</v>
       </c>
       <c r="B79">
-        <v>1197</v>
-      </c>
-      <c r="C79">
         <v>5</v>
       </c>
+      <c r="C79" t="s">
+        <v>58</v>
+      </c>
       <c r="D79" t="s">
-        <v>58</v>
-      </c>
-      <c r="E79" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="E79">
+        <v>2019</v>
       </c>
       <c r="F79">
-        <v>2019</v>
-      </c>
-      <c r="G79">
         <v>146</v>
       </c>
     </row>
-    <row r="80" spans="1:7">
+    <row r="80" spans="1:6">
       <c r="A80" s="9" t="s">
         <v>11</v>
       </c>
       <c r="B80">
-        <v>1197</v>
-      </c>
-      <c r="C80">
         <v>5</v>
       </c>
+      <c r="C80" t="s">
+        <v>58</v>
+      </c>
       <c r="D80" t="s">
-        <v>58</v>
-      </c>
-      <c r="E80" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="E80">
+        <v>2019</v>
       </c>
       <c r="F80">
-        <v>2019</v>
-      </c>
-      <c r="G80">
         <v>154</v>
       </c>
     </row>
-    <row r="81" spans="1:7">
+    <row r="81" spans="1:6">
       <c r="A81" s="9" t="s">
         <v>11</v>
       </c>
       <c r="B81">
-        <v>1197</v>
-      </c>
-      <c r="C81">
         <v>5</v>
       </c>
+      <c r="C81" t="s">
+        <v>58</v>
+      </c>
       <c r="D81" t="s">
-        <v>58</v>
-      </c>
-      <c r="E81" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="E81">
+        <v>2019</v>
       </c>
       <c r="F81">
-        <v>2019</v>
-      </c>
-      <c r="G81">
         <v>164</v>
       </c>
     </row>
-    <row r="82" spans="1:7">
+    <row r="82" spans="1:6">
       <c r="A82" s="9" t="s">
         <v>11</v>
       </c>
       <c r="B82">
-        <v>1197</v>
-      </c>
-      <c r="C82">
         <v>50</v>
       </c>
+      <c r="C82" t="s">
+        <v>58</v>
+      </c>
       <c r="D82" t="s">
-        <v>58</v>
-      </c>
-      <c r="E82" t="s">
-        <v>36</v>
+        <v>36</v>
+      </c>
+      <c r="E82">
+        <v>2017</v>
       </c>
       <c r="F82">
-        <v>2017</v>
-      </c>
-      <c r="G82">
         <v>120</v>
       </c>
     </row>
-    <row r="83" spans="1:7">
+    <row r="83" spans="1:6">
       <c r="A83" s="9" t="s">
         <v>11</v>
       </c>
       <c r="B83">
-        <v>1197</v>
-      </c>
-      <c r="C83">
         <v>30</v>
       </c>
+      <c r="C83" t="s">
+        <v>58</v>
+      </c>
       <c r="D83" t="s">
-        <v>58</v>
-      </c>
-      <c r="E83" t="s">
-        <v>36</v>
+        <v>36</v>
+      </c>
+      <c r="E83">
+        <v>2016</v>
       </c>
       <c r="F83">
-        <v>2016</v>
-      </c>
-      <c r="G83">
         <v>120</v>
       </c>
     </row>
-    <row r="84" spans="1:7">
+    <row r="84" spans="1:6">
       <c r="A84" s="9" t="s">
         <v>11</v>
       </c>
       <c r="B84">
-        <v>1197</v>
-      </c>
-      <c r="C84">
         <v>30</v>
       </c>
+      <c r="C84" t="s">
+        <v>58</v>
+      </c>
       <c r="D84" t="s">
-        <v>58</v>
-      </c>
-      <c r="E84" t="s">
-        <v>36</v>
+        <v>36</v>
+      </c>
+      <c r="E84">
+        <v>2017</v>
       </c>
       <c r="F84">
-        <v>2017</v>
-      </c>
-      <c r="G84">
         <v>123</v>
       </c>
     </row>
-    <row r="85" spans="1:7">
+    <row r="85" spans="1:6">
       <c r="A85" s="9" t="s">
         <v>11</v>
       </c>
       <c r="B85">
-        <v>1197</v>
-      </c>
-      <c r="C85">
         <v>20</v>
       </c>
+      <c r="C85" t="s">
+        <v>58</v>
+      </c>
       <c r="D85" t="s">
-        <v>58</v>
-      </c>
-      <c r="E85" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="E85">
+        <v>2017</v>
       </c>
       <c r="F85">
-        <v>2017</v>
-      </c>
-      <c r="G85">
         <v>122</v>
       </c>
     </row>
-    <row r="86" spans="1:7">
+    <row r="86" spans="1:6">
       <c r="A86" s="9" t="s">
         <v>11</v>
       </c>
       <c r="B86">
-        <v>1197</v>
-      </c>
-      <c r="C86">
         <v>45</v>
       </c>
+      <c r="C86" t="s">
+        <v>58</v>
+      </c>
       <c r="D86" t="s">
-        <v>58</v>
-      </c>
-      <c r="E86" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="E86">
+        <v>2016</v>
       </c>
       <c r="F86">
-        <v>2016</v>
-      </c>
-      <c r="G86">
         <v>112</v>
       </c>
     </row>
-    <row r="87" spans="1:7">
+    <row r="87" spans="1:6">
       <c r="A87" s="9" t="s">
         <v>11</v>
       </c>
       <c r="B87">
-        <v>1197</v>
-      </c>
-      <c r="C87">
         <v>5</v>
       </c>
+      <c r="C87" t="s">
+        <v>58</v>
+      </c>
       <c r="D87" t="s">
-        <v>58</v>
-      </c>
-      <c r="E87" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="E87">
+        <v>2019</v>
       </c>
       <c r="F87">
-        <v>2019</v>
-      </c>
-      <c r="G87">
         <v>130</v>
       </c>
     </row>
-    <row r="88" spans="1:7">
+    <row r="88" spans="1:6">
       <c r="A88" s="9" t="s">
         <v>11</v>
       </c>
       <c r="B88">
-        <v>1197</v>
-      </c>
-      <c r="C88">
         <v>5</v>
       </c>
+      <c r="C88" t="s">
+        <v>58</v>
+      </c>
       <c r="D88" t="s">
-        <v>58</v>
-      </c>
-      <c r="E88" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="E88">
+        <v>2019</v>
       </c>
       <c r="F88">
-        <v>2019</v>
-      </c>
-      <c r="G88">
         <v>130</v>
       </c>
     </row>
-    <row r="89" spans="1:7">
+    <row r="89" spans="1:6">
       <c r="A89" s="9" t="s">
         <v>11</v>
       </c>
       <c r="B89">
-        <v>1197</v>
-      </c>
-      <c r="C89">
         <v>20</v>
       </c>
+      <c r="C89" t="s">
+        <v>58</v>
+      </c>
       <c r="D89" t="s">
-        <v>58</v>
-      </c>
-      <c r="E89" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="E89">
+        <v>2016</v>
       </c>
       <c r="F89">
-        <v>2016</v>
-      </c>
-      <c r="G89">
         <v>115</v>
       </c>
     </row>
-    <row r="90" spans="1:7">
+    <row r="90" spans="1:6">
       <c r="A90" s="9" t="s">
         <v>11</v>
       </c>
       <c r="B90">
-        <v>1197</v>
-      </c>
-      <c r="C90">
         <v>60</v>
       </c>
+      <c r="C90" t="s">
+        <v>58</v>
+      </c>
       <c r="D90" t="s">
-        <v>58</v>
-      </c>
-      <c r="E90" t="s">
-        <v>36</v>
+        <v>36</v>
+      </c>
+      <c r="E90">
+        <v>2017</v>
       </c>
       <c r="F90">
-        <v>2017</v>
-      </c>
-      <c r="G90">
         <v>120</v>
       </c>
     </row>
-    <row r="91" spans="1:7">
+    <row r="91" spans="1:6">
       <c r="A91" s="9" t="s">
         <v>11</v>
       </c>
       <c r="B91">
-        <v>1197</v>
-      </c>
-      <c r="C91">
         <v>70</v>
       </c>
+      <c r="C91" t="s">
+        <v>58</v>
+      </c>
       <c r="D91" t="s">
-        <v>58</v>
-      </c>
-      <c r="E91" t="s">
-        <v>36</v>
+        <v>36</v>
+      </c>
+      <c r="E91">
+        <v>2016</v>
       </c>
       <c r="F91">
-        <v>2016</v>
-      </c>
-      <c r="G91">
         <v>115</v>
       </c>
     </row>
-    <row r="92" spans="1:7">
+    <row r="92" spans="1:6">
       <c r="A92" s="9" t="s">
         <v>11</v>
       </c>
       <c r="B92">
-        <v>1197</v>
-      </c>
-      <c r="C92">
         <v>70</v>
       </c>
+      <c r="C92" t="s">
+        <v>58</v>
+      </c>
       <c r="D92" t="s">
-        <v>58</v>
-      </c>
-      <c r="E92" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="E92">
+        <v>2016</v>
       </c>
       <c r="F92">
-        <v>2016</v>
-      </c>
-      <c r="G92">
         <v>107</v>
       </c>
     </row>
-    <row r="93" spans="1:7">
+    <row r="93" spans="1:6">
       <c r="A93" s="9" t="s">
         <v>11</v>
       </c>
       <c r="B93">
-        <v>1197</v>
-      </c>
-      <c r="C93">
         <v>55</v>
       </c>
+      <c r="C93" t="s">
+        <v>58</v>
+      </c>
       <c r="D93" t="s">
-        <v>58</v>
-      </c>
-      <c r="E93" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="E93">
+        <v>2016</v>
       </c>
       <c r="F93">
-        <v>2016</v>
-      </c>
-      <c r="G93">
         <v>107</v>
       </c>
     </row>
-    <row r="94" spans="1:7">
+    <row r="94" spans="1:6">
       <c r="A94" s="9" t="s">
         <v>11</v>
       </c>
       <c r="B94">
-        <v>1197</v>
-      </c>
-      <c r="C94">
         <v>15</v>
       </c>
+      <c r="C94" t="s">
+        <v>58</v>
+      </c>
       <c r="D94" t="s">
-        <v>58</v>
-      </c>
-      <c r="E94" t="s">
-        <v>36</v>
+        <v>36</v>
+      </c>
+      <c r="E94">
+        <v>2016</v>
       </c>
       <c r="F94">
-        <v>2016</v>
-      </c>
-      <c r="G94">
         <v>107</v>
       </c>
     </row>
-    <row r="95" spans="1:7">
+    <row r="95" spans="1:6">
       <c r="A95" s="9" t="s">
         <v>11</v>
       </c>
       <c r="B95">
-        <v>1197</v>
-      </c>
-      <c r="C95">
         <v>30</v>
       </c>
+      <c r="C95" t="s">
+        <v>58</v>
+      </c>
       <c r="D95" t="s">
-        <v>58</v>
-      </c>
-      <c r="E95" t="s">
-        <v>36</v>
+        <v>36</v>
+      </c>
+      <c r="E95">
+        <v>2017</v>
       </c>
       <c r="F95">
-        <v>2017</v>
-      </c>
-      <c r="G95">
         <v>126</v>
       </c>
     </row>
-    <row r="96" spans="1:7">
+    <row r="96" spans="1:6">
       <c r="A96" s="9" t="s">
         <v>11</v>
       </c>
       <c r="B96">
-        <v>1197</v>
-      </c>
-      <c r="C96">
         <v>25</v>
       </c>
+      <c r="C96" t="s">
+        <v>58</v>
+      </c>
       <c r="D96" t="s">
-        <v>58</v>
-      </c>
-      <c r="E96" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="E96">
+        <v>2017</v>
       </c>
       <c r="F96">
-        <v>2017</v>
-      </c>
-      <c r="G96">
         <v>118</v>
       </c>
     </row>
-    <row r="97" spans="1:7">
+    <row r="97" spans="1:6">
       <c r="A97" s="9" t="s">
         <v>11</v>
       </c>
       <c r="B97">
-        <v>1197</v>
-      </c>
-      <c r="C97">
         <v>25</v>
       </c>
+      <c r="C97" t="s">
+        <v>58</v>
+      </c>
       <c r="D97" t="s">
-        <v>58</v>
-      </c>
-      <c r="E97" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="E97">
+        <v>2017</v>
       </c>
       <c r="F97">
-        <v>2017</v>
-      </c>
-      <c r="G97">
         <v>113</v>
       </c>
     </row>
-    <row r="98" spans="1:7">
+    <row r="98" spans="1:6">
       <c r="A98" s="9" t="s">
         <v>11</v>
       </c>
       <c r="B98">
-        <v>1197</v>
-      </c>
-      <c r="C98">
         <v>20</v>
       </c>
+      <c r="C98" t="s">
+        <v>58</v>
+      </c>
       <c r="D98" t="s">
-        <v>58</v>
-      </c>
-      <c r="E98" t="s">
-        <v>36</v>
+        <v>36</v>
+      </c>
+      <c r="E98">
+        <v>2017</v>
       </c>
       <c r="F98">
-        <v>2017</v>
-      </c>
-      <c r="G98">
         <v>122</v>
       </c>
     </row>
-    <row r="99" spans="1:7">
+    <row r="99" spans="1:6">
       <c r="A99" s="9" t="s">
         <v>11</v>
       </c>
       <c r="B99">
-        <v>1197</v>
-      </c>
-      <c r="C99">
         <v>15</v>
       </c>
+      <c r="C99" t="s">
+        <v>58</v>
+      </c>
       <c r="D99" t="s">
-        <v>58</v>
-      </c>
-      <c r="E99" t="s">
-        <v>36</v>
+        <v>36</v>
+      </c>
+      <c r="E99">
+        <v>2017</v>
       </c>
       <c r="F99">
-        <v>2017</v>
-      </c>
-      <c r="G99">
         <v>120</v>
       </c>
     </row>
-    <row r="100" spans="1:7">
+    <row r="100" spans="1:6">
       <c r="A100" s="9" t="s">
         <v>11</v>
       </c>
       <c r="B100">
-        <v>1197</v>
-      </c>
-      <c r="C100">
         <v>10</v>
       </c>
+      <c r="C100" t="s">
+        <v>58</v>
+      </c>
       <c r="D100" t="s">
-        <v>58</v>
-      </c>
-      <c r="E100" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="E100">
+        <v>2018</v>
       </c>
       <c r="F100">
-        <v>2018</v>
-      </c>
-      <c r="G100">
         <v>125</v>
       </c>
     </row>
-    <row r="101" spans="1:7">
+    <row r="101" spans="1:6">
       <c r="A101" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B101">
-        <v>1496</v>
-      </c>
-      <c r="C101">
         <v>60</v>
       </c>
+      <c r="C101" t="s">
+        <v>58</v>
+      </c>
       <c r="D101" t="s">
-        <v>58</v>
-      </c>
-      <c r="E101" t="s">
-        <v>36</v>
+        <v>36</v>
+      </c>
+      <c r="E101">
+        <v>2016</v>
       </c>
       <c r="F101">
-        <v>2016</v>
-      </c>
-      <c r="G101">
         <v>218</v>
       </c>
     </row>
-    <row r="102" spans="1:7">
+    <row r="102" spans="1:6">
       <c r="A102" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B102">
-        <v>1496</v>
-      </c>
-      <c r="C102">
         <v>30</v>
       </c>
+      <c r="C102" t="s">
+        <v>58</v>
+      </c>
       <c r="D102" t="s">
-        <v>58</v>
-      </c>
-      <c r="E102" t="s">
-        <v>36</v>
+        <v>36</v>
+      </c>
+      <c r="E102">
+        <v>2017</v>
       </c>
       <c r="F102">
-        <v>2017</v>
-      </c>
-      <c r="G102">
         <v>175</v>
       </c>
     </row>
-    <row r="103" spans="1:7">
+    <row r="103" spans="1:6">
       <c r="A103" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B103">
-        <v>1496</v>
-      </c>
-      <c r="C103">
         <v>35</v>
       </c>
+      <c r="C103" t="s">
+        <v>58</v>
+      </c>
       <c r="D103" t="s">
-        <v>58</v>
-      </c>
-      <c r="E103" t="s">
-        <v>36</v>
+        <v>36</v>
+      </c>
+      <c r="E103">
+        <v>2016</v>
       </c>
       <c r="F103">
-        <v>2016</v>
-      </c>
-      <c r="G103">
         <v>169</v>
       </c>
     </row>
-    <row r="104" spans="1:7">
+    <row r="104" spans="1:6">
       <c r="A104" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B104">
-        <v>1496</v>
-      </c>
-      <c r="C104">
         <v>60</v>
       </c>
+      <c r="C104" t="s">
+        <v>58</v>
+      </c>
       <c r="D104" t="s">
-        <v>58</v>
-      </c>
-      <c r="E104" t="s">
-        <v>36</v>
+        <v>36</v>
+      </c>
+      <c r="E104">
+        <v>2016</v>
       </c>
       <c r="F104">
-        <v>2016</v>
-      </c>
-      <c r="G104">
         <v>170</v>
       </c>
     </row>
-    <row r="105" spans="1:7">
+    <row r="105" spans="1:6">
       <c r="A105" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B105">
-        <v>1496</v>
-      </c>
-      <c r="C105">
         <v>40</v>
       </c>
+      <c r="C105" t="s">
+        <v>58</v>
+      </c>
       <c r="D105" t="s">
-        <v>58</v>
-      </c>
-      <c r="E105" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="E105">
+        <v>2017</v>
       </c>
       <c r="F105">
-        <v>2017</v>
-      </c>
-      <c r="G105">
         <v>188</v>
       </c>
     </row>
-    <row r="106" spans="1:7">
+    <row r="106" spans="1:6">
       <c r="A106" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B106">
-        <v>1496</v>
-      </c>
-      <c r="C106">
         <v>65</v>
       </c>
+      <c r="C106" t="s">
+        <v>58</v>
+      </c>
       <c r="D106" t="s">
-        <v>58</v>
-      </c>
-      <c r="E106" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="E106">
+        <v>2017</v>
       </c>
       <c r="F106">
-        <v>2017</v>
-      </c>
-      <c r="G106">
         <v>155</v>
       </c>
     </row>
-    <row r="107" spans="1:7">
+    <row r="107" spans="1:6">
       <c r="A107" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B107">
-        <v>1496</v>
-      </c>
-      <c r="C107">
         <v>20</v>
       </c>
+      <c r="C107" t="s">
+        <v>58</v>
+      </c>
       <c r="D107" t="s">
-        <v>58</v>
-      </c>
-      <c r="E107" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="E107">
+        <v>2016</v>
       </c>
       <c r="F107">
-        <v>2016</v>
-      </c>
-      <c r="G107">
         <v>185</v>
       </c>
     </row>
-    <row r="108" spans="1:7">
+    <row r="108" spans="1:6">
       <c r="A108" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B108">
-        <v>1496</v>
-      </c>
-      <c r="C108">
         <v>45</v>
       </c>
+      <c r="C108" t="s">
+        <v>58</v>
+      </c>
       <c r="D108" t="s">
-        <v>58</v>
-      </c>
-      <c r="E108" t="s">
-        <v>36</v>
+        <v>36</v>
+      </c>
+      <c r="E108">
+        <v>2016</v>
       </c>
       <c r="F108">
-        <v>2016</v>
-      </c>
-      <c r="G108">
         <v>160</v>
       </c>
     </row>
-    <row r="109" spans="1:7">
+    <row r="109" spans="1:6">
       <c r="A109" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B109">
-        <v>1496</v>
-      </c>
-      <c r="C109">
         <v>10</v>
       </c>
+      <c r="C109" t="s">
+        <v>58</v>
+      </c>
       <c r="D109" t="s">
-        <v>58</v>
-      </c>
-      <c r="E109" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="E109">
+        <v>2018</v>
       </c>
       <c r="F109">
-        <v>2018</v>
-      </c>
-      <c r="G109">
         <v>155</v>
       </c>
     </row>
-    <row r="110" spans="1:7">
+    <row r="110" spans="1:6">
       <c r="A110" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B110">
-        <v>1496</v>
-      </c>
-      <c r="C110">
         <v>50</v>
       </c>
+      <c r="C110" t="s">
+        <v>58</v>
+      </c>
       <c r="D110" t="s">
-        <v>58</v>
-      </c>
-      <c r="E110" t="s">
-        <v>36</v>
+        <v>36</v>
+      </c>
+      <c r="E110">
+        <v>2016</v>
       </c>
       <c r="F110">
-        <v>2016</v>
-      </c>
-      <c r="G110">
         <v>175</v>
       </c>
     </row>
-    <row r="111" spans="1:7">
+    <row r="111" spans="1:6">
       <c r="A111" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B111">
-        <v>1496</v>
-      </c>
-      <c r="C111">
         <v>25</v>
       </c>
+      <c r="C111" t="s">
+        <v>58</v>
+      </c>
       <c r="D111" t="s">
-        <v>58</v>
-      </c>
-      <c r="E111" t="s">
-        <v>36</v>
+        <v>36</v>
+      </c>
+      <c r="E111">
+        <v>2017</v>
       </c>
       <c r="F111">
-        <v>2017</v>
-      </c>
-      <c r="G111">
         <v>202</v>
       </c>
     </row>
-    <row r="112" spans="1:7">
+    <row r="112" spans="1:6">
       <c r="A112" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B112">
-        <v>1496</v>
-      </c>
-      <c r="C112">
         <v>40</v>
       </c>
+      <c r="C112" t="s">
+        <v>58</v>
+      </c>
       <c r="D112" t="s">
-        <v>58</v>
-      </c>
-      <c r="E112" t="s">
-        <v>36</v>
+        <v>36</v>
+      </c>
+      <c r="E112">
+        <v>2017</v>
       </c>
       <c r="F112">
-        <v>2017</v>
-      </c>
-      <c r="G112">
         <v>172</v>
       </c>
     </row>
-    <row r="113" spans="1:7">
+    <row r="113" spans="1:6">
       <c r="A113" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B113">
-        <v>1496</v>
-      </c>
-      <c r="C113">
         <v>5</v>
       </c>
+      <c r="C113" t="s">
+        <v>58</v>
+      </c>
       <c r="D113" t="s">
-        <v>58</v>
-      </c>
-      <c r="E113" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="E113">
+        <v>2017</v>
       </c>
       <c r="F113">
-        <v>2017</v>
-      </c>
-      <c r="G113">
         <v>168</v>
       </c>
     </row>
-    <row r="114" spans="1:7">
+    <row r="114" spans="1:6">
       <c r="A114" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B114">
-        <v>1496</v>
-      </c>
-      <c r="C114">
         <v>55</v>
       </c>
+      <c r="C114" t="s">
+        <v>58</v>
+      </c>
       <c r="D114" t="s">
-        <v>58</v>
-      </c>
-      <c r="E114" t="s">
-        <v>36</v>
+        <v>36</v>
+      </c>
+      <c r="E114">
+        <v>2016</v>
       </c>
       <c r="F114">
-        <v>2016</v>
-      </c>
-      <c r="G114">
         <v>175</v>
       </c>
     </row>
-    <row r="115" spans="1:7">
+    <row r="115" spans="1:6">
       <c r="A115" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B115">
-        <v>1496</v>
-      </c>
-      <c r="C115">
         <v>40</v>
       </c>
+      <c r="C115" t="s">
+        <v>58</v>
+      </c>
       <c r="D115" t="s">
-        <v>58</v>
-      </c>
-      <c r="E115" t="s">
-        <v>36</v>
+        <v>36</v>
+      </c>
+      <c r="E115">
+        <v>2016</v>
       </c>
       <c r="F115">
-        <v>2016</v>
-      </c>
-      <c r="G115">
         <v>182</v>
       </c>
     </row>
-    <row r="116" spans="1:7">
+    <row r="116" spans="1:6">
       <c r="A116" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B116">
-        <v>1496</v>
-      </c>
-      <c r="C116">
         <v>55</v>
       </c>
+      <c r="C116" t="s">
+        <v>58</v>
+      </c>
       <c r="D116" t="s">
-        <v>58</v>
-      </c>
-      <c r="E116" t="s">
-        <v>36</v>
+        <v>36</v>
+      </c>
+      <c r="E116">
+        <v>2017</v>
       </c>
       <c r="F116">
-        <v>2017</v>
-      </c>
-      <c r="G116">
         <v>169</v>
       </c>
     </row>
-    <row r="117" spans="1:7">
+    <row r="117" spans="1:6">
       <c r="A117" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B117">
-        <v>1496</v>
-      </c>
-      <c r="C117">
         <v>50</v>
       </c>
+      <c r="C117" t="s">
+        <v>58</v>
+      </c>
       <c r="D117" t="s">
-        <v>58</v>
-      </c>
-      <c r="E117" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="E117">
+        <v>2017</v>
       </c>
       <c r="F117">
-        <v>2017</v>
-      </c>
-      <c r="G117">
         <v>175</v>
       </c>
     </row>
-    <row r="118" spans="1:7">
+    <row r="118" spans="1:6">
       <c r="A118" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B118">
-        <v>1496</v>
-      </c>
-      <c r="C118">
         <v>25</v>
       </c>
+      <c r="C118" t="s">
+        <v>58</v>
+      </c>
       <c r="D118" t="s">
-        <v>58</v>
-      </c>
-      <c r="E118" t="s">
-        <v>36</v>
+        <v>36</v>
+      </c>
+      <c r="E118">
+        <v>2017</v>
       </c>
       <c r="F118">
-        <v>2017</v>
-      </c>
-      <c r="G118">
         <v>199</v>
       </c>
     </row>
-    <row r="119" spans="1:7">
+    <row r="119" spans="1:6">
       <c r="A119" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B119">
-        <v>1496</v>
-      </c>
-      <c r="C119">
         <v>65</v>
       </c>
+      <c r="C119" t="s">
+        <v>58</v>
+      </c>
       <c r="D119" t="s">
-        <v>58</v>
-      </c>
-      <c r="E119" t="s">
-        <v>36</v>
+        <v>36</v>
+      </c>
+      <c r="E119">
+        <v>2016</v>
       </c>
       <c r="F119">
-        <v>2016</v>
-      </c>
-      <c r="G119">
         <v>200</v>
       </c>
     </row>
-    <row r="120" spans="1:7">
+    <row r="120" spans="1:6">
       <c r="A120" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B120">
-        <v>1496</v>
-      </c>
-      <c r="C120">
         <v>25</v>
       </c>
+      <c r="C120" t="s">
+        <v>58</v>
+      </c>
       <c r="D120" t="s">
-        <v>58</v>
-      </c>
-      <c r="E120" t="s">
-        <v>36</v>
+        <v>36</v>
+      </c>
+      <c r="E120">
+        <v>2017</v>
       </c>
       <c r="F120">
-        <v>2017</v>
-      </c>
-      <c r="G120">
         <v>180</v>
       </c>
     </row>
-    <row r="121" spans="1:7">
+    <row r="121" spans="1:6">
       <c r="A121" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B121">
-        <v>1496</v>
-      </c>
-      <c r="C121">
         <v>60</v>
       </c>
+      <c r="C121" t="s">
+        <v>58</v>
+      </c>
       <c r="D121" t="s">
-        <v>58</v>
-      </c>
-      <c r="E121" t="s">
-        <v>36</v>
+        <v>36</v>
+      </c>
+      <c r="E121">
+        <v>2017</v>
       </c>
       <c r="F121">
-        <v>2017</v>
-      </c>
-      <c r="G121">
         <v>185</v>
       </c>
     </row>
-    <row r="122" spans="1:7">
+    <row r="122" spans="1:6">
       <c r="A122" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B122">
-        <v>1496</v>
-      </c>
-      <c r="C122">
         <v>15</v>
       </c>
+      <c r="C122" t="s">
+        <v>58</v>
+      </c>
       <c r="D122" t="s">
-        <v>58</v>
-      </c>
-      <c r="E122" t="s">
-        <v>36</v>
+        <v>36</v>
+      </c>
+      <c r="E122">
+        <v>2017</v>
       </c>
       <c r="F122">
-        <v>2017</v>
-      </c>
-      <c r="G122">
         <v>179</v>
       </c>
     </row>
-    <row r="123" spans="1:7">
+    <row r="123" spans="1:6">
       <c r="A123" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B123">
-        <v>1496</v>
-      </c>
-      <c r="C123">
         <v>5</v>
       </c>
+      <c r="C123" t="s">
+        <v>58</v>
+      </c>
       <c r="D123" t="s">
-        <v>58</v>
-      </c>
-      <c r="E123" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="E123">
+        <v>2017</v>
       </c>
       <c r="F123">
-        <v>2017</v>
-      </c>
-      <c r="G123">
         <v>168</v>
       </c>
     </row>
-    <row r="124" spans="1:7">
+    <row r="124" spans="1:6">
       <c r="A124" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B124">
-        <v>1496</v>
-      </c>
-      <c r="C124">
         <v>75</v>
       </c>
+      <c r="C124" t="s">
+        <v>58</v>
+      </c>
       <c r="D124" t="s">
-        <v>58</v>
-      </c>
-      <c r="E124" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="E124">
+        <v>2017</v>
       </c>
       <c r="F124">
-        <v>2017</v>
-      </c>
-      <c r="G124">
         <v>168</v>
       </c>
     </row>
-    <row r="125" spans="1:7">
+    <row r="125" spans="1:6">
       <c r="A125" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B125">
-        <v>1496</v>
-      </c>
-      <c r="C125">
         <v>15</v>
       </c>
+      <c r="C125" t="s">
+        <v>58</v>
+      </c>
       <c r="D125" t="s">
-        <v>58</v>
-      </c>
-      <c r="E125" t="s">
-        <v>36</v>
+        <v>36</v>
+      </c>
+      <c r="E125">
+        <v>2017</v>
       </c>
       <c r="F125">
-        <v>2017</v>
-      </c>
-      <c r="G125">
         <v>161</v>
       </c>
     </row>
-    <row r="126" spans="1:7">
+    <row r="126" spans="1:6">
       <c r="A126" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B126">
-        <v>1496</v>
-      </c>
-      <c r="C126">
         <v>30</v>
       </c>
+      <c r="C126" t="s">
+        <v>58</v>
+      </c>
       <c r="D126" t="s">
-        <v>58</v>
-      </c>
-      <c r="E126" t="s">
-        <v>36</v>
+        <v>36</v>
+      </c>
+      <c r="E126">
+        <v>2017</v>
       </c>
       <c r="F126">
-        <v>2017</v>
-      </c>
-      <c r="G126">
         <v>189</v>
       </c>
     </row>
-    <row r="127" spans="1:7">
+    <row r="127" spans="1:6">
       <c r="A127" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B127">
-        <v>1496</v>
-      </c>
-      <c r="C127">
         <v>65</v>
       </c>
+      <c r="C127" t="s">
+        <v>58</v>
+      </c>
       <c r="D127" t="s">
-        <v>58</v>
-      </c>
-      <c r="E127" t="s">
-        <v>36</v>
+        <v>36</v>
+      </c>
+      <c r="E127">
+        <v>2016</v>
       </c>
       <c r="F127">
-        <v>2016</v>
-      </c>
-      <c r="G127">
         <v>188</v>
       </c>
     </row>
-    <row r="128" spans="1:7">
+    <row r="128" spans="1:6">
       <c r="A128" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B128">
-        <v>1496</v>
-      </c>
-      <c r="C128">
         <v>50</v>
       </c>
+      <c r="C128" t="s">
+        <v>58</v>
+      </c>
       <c r="D128" t="s">
-        <v>58</v>
-      </c>
-      <c r="E128" t="s">
-        <v>36</v>
+        <v>36</v>
+      </c>
+      <c r="E128">
+        <v>2016</v>
       </c>
       <c r="F128">
-        <v>2016</v>
-      </c>
-      <c r="G128">
         <v>180</v>
       </c>
     </row>
-    <row r="129" spans="1:7">
+    <row r="129" spans="1:6">
       <c r="A129" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B129">
-        <v>1496</v>
-      </c>
-      <c r="C129">
         <v>30</v>
       </c>
+      <c r="C129" t="s">
+        <v>58</v>
+      </c>
       <c r="D129" t="s">
-        <v>58</v>
-      </c>
-      <c r="E129" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="E129">
+        <v>2017</v>
       </c>
       <c r="F129">
-        <v>2017</v>
-      </c>
-      <c r="G129">
         <v>170</v>
       </c>
     </row>
-    <row r="130" spans="1:7">
+    <row r="130" spans="1:6">
       <c r="A130" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B130">
-        <v>1496</v>
-      </c>
-      <c r="C130">
         <v>35</v>
       </c>
+      <c r="C130" t="s">
+        <v>58</v>
+      </c>
       <c r="D130" t="s">
-        <v>58</v>
-      </c>
-      <c r="E130" t="s">
-        <v>36</v>
+        <v>36</v>
+      </c>
+      <c r="E130">
+        <v>2017</v>
       </c>
       <c r="F130">
-        <v>2017</v>
-      </c>
-      <c r="G130">
         <v>195</v>
       </c>
     </row>
-    <row r="131" spans="1:7">
+    <row r="131" spans="1:6">
       <c r="A131" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B131">
-        <v>1496</v>
-      </c>
-      <c r="C131">
         <v>30</v>
       </c>
+      <c r="C131" t="s">
+        <v>58</v>
+      </c>
       <c r="D131" t="s">
-        <v>58</v>
-      </c>
-      <c r="E131" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="E131">
+        <v>2016</v>
       </c>
       <c r="F131">
-        <v>2016</v>
-      </c>
-      <c r="G131">
         <v>172</v>
       </c>
     </row>
-    <row r="132" spans="1:7">
+    <row r="132" spans="1:6">
       <c r="A132" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B132">
-        <v>1496</v>
-      </c>
-      <c r="C132">
         <v>5</v>
       </c>
+      <c r="C132" t="s">
+        <v>58</v>
+      </c>
       <c r="D132" t="s">
-        <v>58</v>
-      </c>
-      <c r="E132" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="E132">
+        <v>2017</v>
       </c>
       <c r="F132">
-        <v>2017</v>
-      </c>
-      <c r="G132">
         <v>156</v>
       </c>
     </row>
-    <row r="133" spans="1:7">
+    <row r="133" spans="1:6">
       <c r="A133" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B133">
-        <v>1496</v>
-      </c>
-      <c r="C133">
         <v>55</v>
       </c>
+      <c r="C133" t="s">
+        <v>58</v>
+      </c>
       <c r="D133" t="s">
-        <v>58</v>
-      </c>
-      <c r="E133" t="s">
-        <v>36</v>
+        <v>36</v>
+      </c>
+      <c r="E133">
+        <v>2016</v>
       </c>
       <c r="F133">
-        <v>2016</v>
-      </c>
-      <c r="G133">
         <v>178</v>
       </c>
     </row>
-    <row r="134" spans="1:7">
+    <row r="134" spans="1:6">
       <c r="A134" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B134">
-        <v>1496</v>
-      </c>
-      <c r="C134">
         <v>15</v>
       </c>
+      <c r="C134" t="s">
+        <v>58</v>
+      </c>
       <c r="D134" t="s">
-        <v>58</v>
-      </c>
-      <c r="E134" t="s">
-        <v>36</v>
+        <v>36</v>
+      </c>
+      <c r="E134">
+        <v>2018</v>
       </c>
       <c r="F134">
-        <v>2018</v>
-      </c>
-      <c r="G134">
         <v>195</v>
       </c>
     </row>
-    <row r="135" spans="1:7">
+    <row r="135" spans="1:6">
       <c r="A135" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B135">
-        <v>1496</v>
-      </c>
-      <c r="C135">
         <v>5</v>
       </c>
+      <c r="C135" t="s">
+        <v>58</v>
+      </c>
       <c r="D135" t="s">
-        <v>58</v>
-      </c>
-      <c r="E135" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="E135">
+        <v>2018</v>
       </c>
       <c r="F135">
-        <v>2018</v>
-      </c>
-      <c r="G135">
         <v>160</v>
       </c>
     </row>
-    <row r="136" spans="1:7">
+    <row r="136" spans="1:6">
       <c r="A136" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B136">
-        <v>1496</v>
-      </c>
-      <c r="C136">
         <v>30</v>
       </c>
+      <c r="C136" t="s">
+        <v>58</v>
+      </c>
       <c r="D136" t="s">
-        <v>58</v>
-      </c>
-      <c r="E136" t="s">
-        <v>36</v>
+        <v>36</v>
+      </c>
+      <c r="E136">
+        <v>2016</v>
       </c>
       <c r="F136">
-        <v>2016</v>
-      </c>
-      <c r="G136">
         <v>169</v>
       </c>
     </row>
-    <row r="137" spans="1:7">
+    <row r="137" spans="1:6">
       <c r="A137" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B137">
-        <v>1496</v>
-      </c>
-      <c r="C137">
         <v>20</v>
       </c>
+      <c r="C137" t="s">
+        <v>58</v>
+      </c>
       <c r="D137" t="s">
-        <v>58</v>
-      </c>
-      <c r="E137" t="s">
-        <v>36</v>
+        <v>36</v>
+      </c>
+      <c r="E137">
+        <v>2018</v>
       </c>
       <c r="F137">
-        <v>2018</v>
-      </c>
-      <c r="G137">
         <v>215</v>
       </c>
     </row>
-    <row r="138" spans="1:7">
+    <row r="138" spans="1:6">
       <c r="A138" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B138">
-        <v>1496</v>
-      </c>
-      <c r="C138">
         <v>50</v>
       </c>
+      <c r="C138" t="s">
+        <v>58</v>
+      </c>
       <c r="D138" t="s">
-        <v>58</v>
-      </c>
-      <c r="E138" t="s">
-        <v>36</v>
+        <v>36</v>
+      </c>
+      <c r="E138">
+        <v>2017</v>
       </c>
       <c r="F138">
-        <v>2017</v>
-      </c>
-      <c r="G138">
         <v>200</v>
       </c>
     </row>
-    <row r="139" spans="1:7">
+    <row r="139" spans="1:6">
       <c r="A139" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B139">
-        <v>1496</v>
-      </c>
-      <c r="C139">
         <v>35</v>
       </c>
+      <c r="C139" t="s">
+        <v>58</v>
+      </c>
       <c r="D139" t="s">
-        <v>58</v>
-      </c>
-      <c r="E139" t="s">
-        <v>36</v>
+        <v>36</v>
+      </c>
+      <c r="E139">
+        <v>2017</v>
       </c>
       <c r="F139">
-        <v>2017</v>
-      </c>
-      <c r="G139">
         <v>185</v>
       </c>
     </row>
-    <row r="140" spans="1:7">
+    <row r="140" spans="1:6">
       <c r="A140" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B140">
-        <v>1496</v>
-      </c>
-      <c r="C140">
         <v>40</v>
       </c>
+      <c r="C140" t="s">
+        <v>58</v>
+      </c>
       <c r="D140" t="s">
-        <v>58</v>
-      </c>
-      <c r="E140" t="s">
-        <v>36</v>
+        <v>36</v>
+      </c>
+      <c r="E140">
+        <v>2017</v>
       </c>
       <c r="F140">
-        <v>2017</v>
-      </c>
-      <c r="G140">
         <v>178</v>
       </c>
     </row>
-    <row r="141" spans="1:7">
+    <row r="141" spans="1:6">
       <c r="A141" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B141">
-        <v>1496</v>
-      </c>
-      <c r="C141">
         <v>5</v>
       </c>
+      <c r="C141" t="s">
+        <v>58</v>
+      </c>
       <c r="D141" t="s">
-        <v>58</v>
-      </c>
-      <c r="E141" t="s">
-        <v>36</v>
+        <v>36</v>
+      </c>
+      <c r="E141">
+        <v>2018</v>
       </c>
       <c r="F141">
-        <v>2018</v>
-      </c>
-      <c r="G141">
         <v>219</v>
       </c>
     </row>
-    <row r="142" spans="1:7">
+    <row r="142" spans="1:6">
       <c r="A142" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B142">
-        <v>1496</v>
-      </c>
-      <c r="C142">
         <v>25</v>
       </c>
+      <c r="C142" t="s">
+        <v>58</v>
+      </c>
       <c r="D142" t="s">
-        <v>58</v>
-      </c>
-      <c r="E142" t="s">
-        <v>36</v>
+        <v>36</v>
+      </c>
+      <c r="E142">
+        <v>2017</v>
       </c>
       <c r="F142">
-        <v>2017</v>
-      </c>
-      <c r="G142">
         <v>229</v>
       </c>
     </row>
-    <row r="143" spans="1:7">
+    <row r="143" spans="1:6">
       <c r="A143" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B143">
-        <v>1496</v>
-      </c>
-      <c r="C143">
         <v>20</v>
       </c>
+      <c r="C143" t="s">
+        <v>58</v>
+      </c>
       <c r="D143" t="s">
-        <v>58</v>
-      </c>
-      <c r="E143" t="s">
-        <v>36</v>
+        <v>36</v>
+      </c>
+      <c r="E143">
+        <v>2017</v>
       </c>
       <c r="F143">
-        <v>2017</v>
-      </c>
-      <c r="G143">
         <v>171</v>
       </c>
     </row>
-    <row r="144" spans="1:7">
+    <row r="144" spans="1:6">
       <c r="A144" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B144">
-        <v>1496</v>
-      </c>
-      <c r="C144">
         <v>20</v>
       </c>
+      <c r="C144" t="s">
+        <v>58</v>
+      </c>
       <c r="D144" t="s">
-        <v>58</v>
-      </c>
-      <c r="E144" t="s">
-        <v>36</v>
+        <v>36</v>
+      </c>
+      <c r="E144">
+        <v>2017</v>
       </c>
       <c r="F144">
-        <v>2017</v>
-      </c>
-      <c r="G144">
         <v>199</v>
       </c>
     </row>
-    <row r="145" spans="1:7">
+    <row r="145" spans="1:6">
       <c r="A145" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B145">
-        <v>1496</v>
-      </c>
-      <c r="C145">
         <v>40</v>
       </c>
+      <c r="C145" t="s">
+        <v>58</v>
+      </c>
       <c r="D145" t="s">
-        <v>58</v>
-      </c>
-      <c r="E145" t="s">
-        <v>36</v>
+        <v>36</v>
+      </c>
+      <c r="E145">
+        <v>2017</v>
       </c>
       <c r="F145">
-        <v>2017</v>
-      </c>
-      <c r="G145">
         <v>210</v>
       </c>
     </row>
-    <row r="146" spans="1:7">
+    <row r="146" spans="1:6">
       <c r="A146" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B146">
-        <v>1496</v>
-      </c>
-      <c r="C146">
         <v>40</v>
       </c>
+      <c r="C146" t="s">
+        <v>58</v>
+      </c>
       <c r="D146" t="s">
-        <v>58</v>
-      </c>
-      <c r="E146" t="s">
-        <v>36</v>
+        <v>36</v>
+      </c>
+      <c r="E146">
+        <v>2017</v>
       </c>
       <c r="F146">
-        <v>2017</v>
-      </c>
-      <c r="G146">
         <v>190</v>
       </c>
     </row>
-    <row r="147" spans="1:7">
+    <row r="147" spans="1:6">
       <c r="A147" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B147">
-        <v>1496</v>
-      </c>
-      <c r="C147">
         <v>40</v>
       </c>
+      <c r="C147" t="s">
+        <v>58</v>
+      </c>
       <c r="D147" t="s">
-        <v>58</v>
-      </c>
-      <c r="E147" t="s">
-        <v>36</v>
+        <v>36</v>
+      </c>
+      <c r="E147">
+        <v>2016</v>
       </c>
       <c r="F147">
-        <v>2016</v>
-      </c>
-      <c r="G147">
         <v>165</v>
       </c>
     </row>
-    <row r="148" spans="1:7">
+    <row r="148" spans="1:6">
       <c r="A148" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B148">
-        <v>1496</v>
-      </c>
-      <c r="C148">
         <v>25</v>
       </c>
+      <c r="C148" t="s">
+        <v>58</v>
+      </c>
       <c r="D148" t="s">
-        <v>58</v>
-      </c>
-      <c r="E148" t="s">
-        <v>36</v>
+        <v>36</v>
+      </c>
+      <c r="E148">
+        <v>2017</v>
       </c>
       <c r="F148">
-        <v>2017</v>
-      </c>
-      <c r="G148">
         <v>200</v>
       </c>
     </row>
-    <row r="149" spans="1:7">
+    <row r="149" spans="1:6">
       <c r="A149" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B149">
-        <v>1496</v>
-      </c>
-      <c r="C149">
         <v>20</v>
       </c>
+      <c r="C149" t="s">
+        <v>58</v>
+      </c>
       <c r="D149" t="s">
-        <v>58</v>
-      </c>
-      <c r="E149" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="E149">
+        <v>2016</v>
       </c>
       <c r="F149">
-        <v>2016</v>
-      </c>
-      <c r="G149">
         <v>147</v>
       </c>
     </row>
-    <row r="150" spans="1:7">
+    <row r="150" spans="1:6">
       <c r="A150" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B150">
-        <v>1496</v>
-      </c>
-      <c r="C150">
         <v>30</v>
       </c>
+      <c r="C150" t="s">
+        <v>58</v>
+      </c>
       <c r="D150" t="s">
-        <v>58</v>
-      </c>
-      <c r="E150" t="s">
-        <v>36</v>
+        <v>36</v>
+      </c>
+      <c r="E150">
+        <v>2017</v>
       </c>
       <c r="F150">
-        <v>2017</v>
-      </c>
-      <c r="G150">
         <v>183</v>
       </c>
     </row>
-    <row r="151" spans="1:7">
+    <row r="151" spans="1:6">
       <c r="A151" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B151">
-        <v>1329</v>
-      </c>
-      <c r="C151">
         <v>105</v>
       </c>
+      <c r="C151" t="s">
+        <v>58</v>
+      </c>
       <c r="D151" t="s">
-        <v>58</v>
-      </c>
-      <c r="E151" t="s">
-        <v>36</v>
+        <v>36</v>
+      </c>
+      <c r="E151">
+        <v>2010</v>
       </c>
       <c r="F151">
-        <v>2010</v>
-      </c>
-      <c r="G151">
         <v>85</v>
       </c>
     </row>
-    <row r="152" spans="1:7">
+    <row r="152" spans="1:6">
       <c r="A152" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B152">
-        <v>1329</v>
-      </c>
-      <c r="C152">
         <v>175</v>
       </c>
+      <c r="C152" t="s">
+        <v>58</v>
+      </c>
       <c r="D152" t="s">
-        <v>58</v>
-      </c>
-      <c r="E152" t="s">
-        <v>36</v>
+        <v>36</v>
+      </c>
+      <c r="E152">
+        <v>2009</v>
       </c>
       <c r="F152">
-        <v>2009</v>
-      </c>
-      <c r="G152">
         <v>87</v>
       </c>
     </row>
-    <row r="153" spans="1:7">
+    <row r="153" spans="1:6">
       <c r="A153" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B153">
-        <v>1329</v>
-      </c>
-      <c r="C153">
         <v>90</v>
       </c>
+      <c r="C153" t="s">
+        <v>58</v>
+      </c>
       <c r="D153" t="s">
-        <v>58</v>
-      </c>
-      <c r="E153" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="E153">
+        <v>2011</v>
       </c>
       <c r="F153">
-        <v>2011</v>
-      </c>
-      <c r="G153">
         <v>95</v>
       </c>
     </row>
-    <row r="154" spans="1:7">
+    <row r="154" spans="1:6">
       <c r="A154" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B154">
-        <v>1329</v>
-      </c>
-      <c r="C154">
         <v>20</v>
       </c>
+      <c r="C154" t="s">
+        <v>58</v>
+      </c>
       <c r="D154" t="s">
-        <v>58</v>
-      </c>
-      <c r="E154" t="s">
-        <v>36</v>
+        <v>36</v>
+      </c>
+      <c r="E154">
+        <v>2009</v>
       </c>
       <c r="F154">
-        <v>2009</v>
-      </c>
-      <c r="G154">
         <v>90</v>
       </c>
     </row>
-    <row r="155" spans="1:7">
+    <row r="155" spans="1:6">
       <c r="A155" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B155">
-        <v>1329</v>
-      </c>
-      <c r="C155">
         <v>75</v>
       </c>
+      <c r="C155" t="s">
+        <v>58</v>
+      </c>
       <c r="D155" t="s">
-        <v>58</v>
-      </c>
-      <c r="E155" t="s">
-        <v>36</v>
+        <v>36</v>
+      </c>
+      <c r="E155">
+        <v>2013</v>
       </c>
       <c r="F155">
-        <v>2013</v>
-      </c>
-      <c r="G155">
         <v>128</v>
       </c>
     </row>
-    <row r="156" spans="1:7">
+    <row r="156" spans="1:6">
       <c r="A156" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B156">
-        <v>1329</v>
-      </c>
-      <c r="C156">
         <v>70</v>
       </c>
+      <c r="C156" t="s">
+        <v>58</v>
+      </c>
       <c r="D156" t="s">
-        <v>58</v>
-      </c>
-      <c r="E156" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="E156">
+        <v>2011</v>
       </c>
       <c r="F156">
-        <v>2011</v>
-      </c>
-      <c r="G156">
         <v>109</v>
       </c>
     </row>
-    <row r="157" spans="1:7">
+    <row r="157" spans="1:6">
       <c r="A157" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B157">
-        <v>1329</v>
-      </c>
-      <c r="C157">
         <v>40</v>
       </c>
+      <c r="C157" t="s">
+        <v>58</v>
+      </c>
       <c r="D157" t="s">
-        <v>58</v>
-      </c>
-      <c r="E157" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="E157">
+        <v>2017</v>
       </c>
       <c r="F157">
-        <v>2017</v>
-      </c>
-      <c r="G157">
         <v>145</v>
       </c>
     </row>
-    <row r="158" spans="1:7">
+    <row r="158" spans="1:6">
       <c r="A158" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B158">
-        <v>1329</v>
-      </c>
-      <c r="C158">
         <v>65</v>
       </c>
+      <c r="C158" t="s">
+        <v>58</v>
+      </c>
       <c r="D158" t="s">
-        <v>58</v>
-      </c>
-      <c r="E158" t="s">
-        <v>36</v>
+        <v>36</v>
+      </c>
+      <c r="E158">
+        <v>2014</v>
       </c>
       <c r="F158">
-        <v>2014</v>
-      </c>
-      <c r="G158">
         <v>145</v>
       </c>
     </row>
-    <row r="159" spans="1:7">
+    <row r="159" spans="1:6">
       <c r="A159" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B159">
-        <v>1329</v>
-      </c>
-      <c r="C159">
         <v>45</v>
       </c>
+      <c r="C159" t="s">
+        <v>58</v>
+      </c>
       <c r="D159" t="s">
-        <v>58</v>
-      </c>
-      <c r="E159" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="E159">
+        <v>2011</v>
       </c>
       <c r="F159">
-        <v>2011</v>
-      </c>
-      <c r="G159">
         <v>99</v>
       </c>
     </row>
-    <row r="160" spans="1:7">
+    <row r="160" spans="1:6">
       <c r="A160" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B160">
-        <v>1329</v>
-      </c>
-      <c r="C160">
         <v>90</v>
       </c>
+      <c r="C160" t="s">
+        <v>58</v>
+      </c>
       <c r="D160" t="s">
-        <v>58</v>
-      </c>
-      <c r="E160" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="E160">
+        <v>2012</v>
       </c>
       <c r="F160">
-        <v>2012</v>
-      </c>
-      <c r="G160">
         <v>120</v>
       </c>
     </row>
-    <row r="161" spans="1:7">
+    <row r="161" spans="1:6">
       <c r="A161" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B161">
-        <v>1329</v>
-      </c>
-      <c r="C161">
         <v>75</v>
       </c>
+      <c r="C161" t="s">
+        <v>58</v>
+      </c>
       <c r="D161" t="s">
-        <v>58</v>
-      </c>
-      <c r="E161" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="E161">
+        <v>2014</v>
       </c>
       <c r="F161">
-        <v>2014</v>
-      </c>
-      <c r="G161">
         <v>138</v>
       </c>
     </row>
-    <row r="162" spans="1:7">
+    <row r="162" spans="1:6">
       <c r="A162" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B162">
-        <v>1329</v>
-      </c>
-      <c r="C162">
         <v>20</v>
       </c>
+      <c r="C162" t="s">
+        <v>58</v>
+      </c>
       <c r="D162" t="s">
-        <v>58</v>
-      </c>
-      <c r="E162" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="E162">
+        <v>2010</v>
       </c>
       <c r="F162">
-        <v>2010</v>
-      </c>
-      <c r="G162">
         <v>110</v>
       </c>
     </row>
-    <row r="163" spans="1:7">
+    <row r="163" spans="1:6">
       <c r="A163" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B163">
-        <v>1329</v>
-      </c>
-      <c r="C163">
         <v>120</v>
       </c>
+      <c r="C163" t="s">
+        <v>58</v>
+      </c>
       <c r="D163" t="s">
-        <v>58</v>
-      </c>
-      <c r="E163" t="s">
-        <v>36</v>
+        <v>36</v>
+      </c>
+      <c r="E163">
+        <v>2008</v>
       </c>
       <c r="F163">
-        <v>2008</v>
-      </c>
-      <c r="G163">
         <v>90</v>
       </c>
     </row>
-    <row r="164" spans="1:7">
+    <row r="164" spans="1:6">
       <c r="A164" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B164">
-        <v>1329</v>
-      </c>
-      <c r="C164">
         <v>40</v>
       </c>
+      <c r="C164" t="s">
+        <v>58</v>
+      </c>
       <c r="D164" t="s">
-        <v>58</v>
-      </c>
-      <c r="E164" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="E164">
+        <v>2006</v>
       </c>
       <c r="F164">
-        <v>2006</v>
-      </c>
-      <c r="G164">
         <v>79</v>
       </c>
     </row>
-    <row r="165" spans="1:7">
+    <row r="165" spans="1:6">
       <c r="A165" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B165">
-        <v>1329</v>
-      </c>
-      <c r="C165">
         <v>80</v>
       </c>
+      <c r="C165" t="s">
+        <v>58</v>
+      </c>
       <c r="D165" t="s">
-        <v>58</v>
-      </c>
-      <c r="E165" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="E165">
+        <v>2015</v>
       </c>
       <c r="F165">
-        <v>2015</v>
-      </c>
-      <c r="G165">
         <v>106</v>
       </c>
     </row>
-    <row r="166" spans="1:7">
+    <row r="166" spans="1:6">
       <c r="A166" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B166">
-        <v>1329</v>
-      </c>
-      <c r="C166">
         <v>50</v>
       </c>
+      <c r="C166" t="s">
+        <v>58</v>
+      </c>
       <c r="D166" t="s">
-        <v>58</v>
-      </c>
-      <c r="E166" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="E166">
+        <v>2016</v>
       </c>
       <c r="F166">
-        <v>2016</v>
-      </c>
-      <c r="G166">
         <v>132</v>
       </c>
     </row>
-    <row r="167" spans="1:7">
+    <row r="167" spans="1:6">
       <c r="A167" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B167">
-        <v>1329</v>
-      </c>
-      <c r="C167">
         <v>160</v>
       </c>
+      <c r="C167" t="s">
+        <v>58</v>
+      </c>
       <c r="D167" t="s">
-        <v>58</v>
-      </c>
-      <c r="E167" t="s">
-        <v>36</v>
+        <v>36</v>
+      </c>
+      <c r="E167">
+        <v>2009</v>
       </c>
       <c r="F167">
-        <v>2009</v>
-      </c>
-      <c r="G167">
         <v>94</v>
       </c>
     </row>
-    <row r="168" spans="1:7">
+    <row r="168" spans="1:6">
       <c r="A168" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B168">
-        <v>1329</v>
-      </c>
-      <c r="C168">
         <v>10</v>
       </c>
+      <c r="C168" t="s">
+        <v>58</v>
+      </c>
       <c r="D168" t="s">
-        <v>58</v>
-      </c>
-      <c r="E168" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="E168">
+        <v>2008</v>
       </c>
       <c r="F168">
-        <v>2008</v>
-      </c>
-      <c r="G168">
         <v>92</v>
       </c>
     </row>
-    <row r="169" spans="1:7">
+    <row r="169" spans="1:6">
       <c r="A169" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B169">
-        <v>1329</v>
-      </c>
-      <c r="C169">
         <v>70</v>
       </c>
+      <c r="C169" t="s">
+        <v>58</v>
+      </c>
       <c r="D169" t="s">
-        <v>58</v>
-      </c>
-      <c r="E169" t="s">
-        <v>36</v>
+        <v>36</v>
+      </c>
+      <c r="E169">
+        <v>2014</v>
       </c>
       <c r="F169">
-        <v>2014</v>
-      </c>
-      <c r="G169">
         <v>129</v>
       </c>
     </row>
-    <row r="170" spans="1:7">
+    <row r="170" spans="1:6">
       <c r="A170" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B170">
-        <v>1329</v>
-      </c>
-      <c r="C170">
         <v>5</v>
       </c>
+      <c r="C170" t="s">
+        <v>58</v>
+      </c>
       <c r="D170" t="s">
-        <v>58</v>
-      </c>
-      <c r="E170" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="E170">
+        <v>2019</v>
       </c>
       <c r="F170">
-        <v>2019</v>
-      </c>
-      <c r="G170">
         <v>185</v>
       </c>
     </row>
-    <row r="171" spans="1:7">
+    <row r="171" spans="1:6">
       <c r="A171" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B171">
-        <v>1329</v>
-      </c>
-      <c r="C171">
         <v>50</v>
       </c>
+      <c r="C171" t="s">
+        <v>57</v>
+      </c>
       <c r="D171" t="s">
-        <v>57</v>
-      </c>
-      <c r="E171" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="E171">
+        <v>2018</v>
       </c>
       <c r="F171">
-        <v>2018</v>
-      </c>
-      <c r="G171">
         <v>175</v>
       </c>
     </row>
-    <row r="172" spans="1:7">
+    <row r="172" spans="1:6">
       <c r="A172" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B172">
-        <v>1329</v>
-      </c>
-      <c r="C172">
         <v>45</v>
       </c>
+      <c r="C172" t="s">
+        <v>58</v>
+      </c>
       <c r="D172" t="s">
-        <v>58</v>
-      </c>
-      <c r="E172" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="E172">
+        <v>2013</v>
       </c>
       <c r="F172">
-        <v>2013</v>
-      </c>
-      <c r="G172">
         <v>135</v>
       </c>
     </row>
-    <row r="173" spans="1:7">
+    <row r="173" spans="1:6">
       <c r="A173" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B173">
-        <v>1329</v>
-      </c>
-      <c r="C173">
         <v>80</v>
       </c>
+      <c r="C173" t="s">
+        <v>58</v>
+      </c>
       <c r="D173" t="s">
-        <v>58</v>
-      </c>
-      <c r="E173" t="s">
-        <v>36</v>
+        <v>36</v>
+      </c>
+      <c r="E173">
+        <v>2008</v>
       </c>
       <c r="F173">
-        <v>2008</v>
-      </c>
-      <c r="G173">
         <v>83</v>
       </c>
     </row>
-    <row r="174" spans="1:7">
+    <row r="174" spans="1:6">
       <c r="A174" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B174">
-        <v>1329</v>
-      </c>
-      <c r="C174">
         <v>105</v>
       </c>
+      <c r="C174" t="s">
+        <v>58</v>
+      </c>
       <c r="D174" t="s">
-        <v>58</v>
-      </c>
-      <c r="E174" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="E174">
+        <v>2016</v>
       </c>
       <c r="F174">
-        <v>2016</v>
-      </c>
-      <c r="G174">
         <v>133</v>
       </c>
     </row>
-    <row r="175" spans="1:7">
+    <row r="175" spans="1:6">
       <c r="A175" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B175">
-        <v>1329</v>
-      </c>
-      <c r="C175">
         <v>115</v>
       </c>
+      <c r="C175" t="s">
+        <v>58</v>
+      </c>
       <c r="D175" t="s">
-        <v>58</v>
-      </c>
-      <c r="E175" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="E175">
+        <v>2010</v>
       </c>
       <c r="F175">
-        <v>2010</v>
-      </c>
-      <c r="G175">
         <v>112</v>
       </c>
     </row>
-    <row r="176" spans="1:7">
+    <row r="176" spans="1:6">
       <c r="A176" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B176">
-        <v>1329</v>
-      </c>
-      <c r="C176">
         <v>100</v>
       </c>
+      <c r="C176" t="s">
+        <v>58</v>
+      </c>
       <c r="D176" t="s">
-        <v>58</v>
-      </c>
-      <c r="E176" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="E176">
+        <v>2014</v>
       </c>
       <c r="F176">
-        <v>2014</v>
-      </c>
-      <c r="G176">
         <v>119</v>
       </c>
     </row>
-    <row r="177" spans="1:7">
+    <row r="177" spans="1:6">
       <c r="A177" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B177">
-        <v>1329</v>
-      </c>
-      <c r="C177">
         <v>30</v>
       </c>
+      <c r="C177" t="s">
+        <v>58</v>
+      </c>
       <c r="D177" t="s">
-        <v>58</v>
-      </c>
-      <c r="E177" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="E177">
+        <v>2017</v>
       </c>
       <c r="F177">
-        <v>2017</v>
-      </c>
-      <c r="G177">
         <v>155</v>
       </c>
     </row>
-    <row r="178" spans="1:7">
+    <row r="178" spans="1:6">
       <c r="A178" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B178">
-        <v>1329</v>
-      </c>
-      <c r="C178">
         <v>30</v>
       </c>
+      <c r="C178" t="s">
+        <v>58</v>
+      </c>
       <c r="D178" t="s">
-        <v>58</v>
-      </c>
-      <c r="E178" t="s">
-        <v>36</v>
+        <v>36</v>
+      </c>
+      <c r="E178">
+        <v>2016</v>
       </c>
       <c r="F178">
-        <v>2016</v>
-      </c>
-      <c r="G178">
         <v>152</v>
       </c>
     </row>
-    <row r="179" spans="1:7">
+    <row r="179" spans="1:6">
       <c r="A179" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B179">
-        <v>1329</v>
-      </c>
-      <c r="C179">
         <v>40</v>
       </c>
+      <c r="C179" t="s">
+        <v>58</v>
+      </c>
       <c r="D179" t="s">
-        <v>58</v>
-      </c>
-      <c r="E179" t="s">
-        <v>36</v>
+        <v>36</v>
+      </c>
+      <c r="E179">
+        <v>2015</v>
       </c>
       <c r="F179">
-        <v>2015</v>
-      </c>
-      <c r="G179">
         <v>140</v>
       </c>
     </row>
-    <row r="180" spans="1:7">
+    <row r="180" spans="1:6">
       <c r="A180" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B180">
-        <v>1329</v>
-      </c>
-      <c r="C180">
         <v>105</v>
       </c>
+      <c r="C180" t="s">
+        <v>58</v>
+      </c>
       <c r="D180" t="s">
-        <v>58</v>
-      </c>
-      <c r="E180" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="E180">
+        <v>2007</v>
       </c>
       <c r="F180">
-        <v>2007</v>
-      </c>
-      <c r="G180">
         <v>105</v>
       </c>
     </row>
-    <row r="181" spans="1:7">
+    <row r="181" spans="1:6">
       <c r="A181" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B181">
-        <v>1329</v>
-      </c>
-      <c r="C181">
         <v>40</v>
       </c>
+      <c r="C181" t="s">
+        <v>58</v>
+      </c>
       <c r="D181" t="s">
-        <v>58</v>
-      </c>
-      <c r="E181" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="E181">
+        <v>2018</v>
       </c>
       <c r="F181">
-        <v>2018</v>
-      </c>
-      <c r="G181">
         <v>149</v>
       </c>
     </row>
-    <row r="182" spans="1:7">
+    <row r="182" spans="1:6">
       <c r="A182" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B182">
-        <v>1329</v>
-      </c>
-      <c r="C182">
         <v>70</v>
       </c>
+      <c r="C182" t="s">
+        <v>58</v>
+      </c>
       <c r="D182" t="s">
-        <v>58</v>
-      </c>
-      <c r="E182" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="E182">
+        <v>2013</v>
       </c>
       <c r="F182">
-        <v>2013</v>
-      </c>
-      <c r="G182">
         <v>120</v>
       </c>
     </row>
-    <row r="183" spans="1:7">
+    <row r="183" spans="1:6">
       <c r="A183" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B183">
-        <v>1329</v>
-      </c>
-      <c r="C183">
         <v>155</v>
       </c>
+      <c r="C183" t="s">
+        <v>58</v>
+      </c>
       <c r="D183" t="s">
-        <v>58</v>
-      </c>
-      <c r="E183" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="E183">
+        <v>2008</v>
       </c>
       <c r="F183">
-        <v>2008</v>
-      </c>
-      <c r="G183">
         <v>93</v>
       </c>
     </row>
-    <row r="184" spans="1:7">
+    <row r="184" spans="1:6">
       <c r="A184" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B184">
-        <v>1329</v>
-      </c>
-      <c r="C184">
         <v>75</v>
       </c>
+      <c r="C184" t="s">
+        <v>58</v>
+      </c>
       <c r="D184" t="s">
-        <v>58</v>
-      </c>
-      <c r="E184" t="s">
-        <v>36</v>
+        <v>36</v>
+      </c>
+      <c r="E184">
+        <v>2015</v>
       </c>
       <c r="F184">
-        <v>2015</v>
-      </c>
-      <c r="G184">
         <v>140</v>
       </c>
     </row>
-    <row r="185" spans="1:7">
+    <row r="185" spans="1:6">
       <c r="A185" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B185">
-        <v>1329</v>
-      </c>
-      <c r="C185">
         <v>30</v>
       </c>
+      <c r="C185" t="s">
+        <v>58</v>
+      </c>
       <c r="D185" t="s">
-        <v>58</v>
-      </c>
-      <c r="E185" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="E185">
+        <v>2013</v>
       </c>
       <c r="F185">
-        <v>2013</v>
-      </c>
-      <c r="G185">
         <v>114</v>
       </c>
     </row>
-    <row r="186" spans="1:7">
+    <row r="186" spans="1:6">
       <c r="A186" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B186">
-        <v>1329</v>
-      </c>
-      <c r="C186">
         <v>5</v>
       </c>
+      <c r="C186" t="s">
+        <v>58</v>
+      </c>
       <c r="D186" t="s">
-        <v>58</v>
-      </c>
-      <c r="E186" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="E186">
+        <v>2019</v>
       </c>
       <c r="F186">
-        <v>2019</v>
-      </c>
-      <c r="G186">
         <v>170</v>
       </c>
     </row>
-    <row r="187" spans="1:7">
+    <row r="187" spans="1:6">
       <c r="A187" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B187">
-        <v>1329</v>
-      </c>
-      <c r="C187">
         <v>5</v>
       </c>
+      <c r="C187" t="s">
+        <v>58</v>
+      </c>
       <c r="D187" t="s">
-        <v>58</v>
-      </c>
-      <c r="E187" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="E187">
+        <v>2019</v>
       </c>
       <c r="F187">
-        <v>2019</v>
-      </c>
-      <c r="G187">
         <v>189</v>
       </c>
     </row>
-    <row r="188" spans="1:7">
+    <row r="188" spans="1:6">
       <c r="A188" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B188">
-        <v>1329</v>
-      </c>
-      <c r="C188">
         <v>5</v>
       </c>
+      <c r="C188" t="s">
+        <v>58</v>
+      </c>
       <c r="D188" t="s">
-        <v>58</v>
-      </c>
-      <c r="E188" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="E188">
+        <v>2019</v>
       </c>
       <c r="F188">
-        <v>2019</v>
-      </c>
-      <c r="G188">
         <v>187</v>
       </c>
     </row>
-    <row r="189" spans="1:7">
+    <row r="189" spans="1:6">
       <c r="A189" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B189">
-        <v>1329</v>
-      </c>
-      <c r="C189">
         <v>45</v>
       </c>
+      <c r="C189" t="s">
+        <v>58</v>
+      </c>
       <c r="D189" t="s">
-        <v>58</v>
-      </c>
-      <c r="E189" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="E189">
+        <v>2016</v>
       </c>
       <c r="F189">
-        <v>2016</v>
-      </c>
-      <c r="G189">
         <v>163</v>
       </c>
     </row>
-    <row r="190" spans="1:7">
+    <row r="190" spans="1:6">
       <c r="A190" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B190">
-        <v>1329</v>
-      </c>
-      <c r="C190">
         <v>95</v>
       </c>
+      <c r="C190" t="s">
+        <v>58</v>
+      </c>
       <c r="D190" t="s">
-        <v>58</v>
-      </c>
-      <c r="E190" t="s">
-        <v>36</v>
+        <v>36</v>
+      </c>
+      <c r="E190">
+        <v>2015</v>
       </c>
       <c r="F190">
-        <v>2015</v>
-      </c>
-      <c r="G190">
         <v>125</v>
       </c>
     </row>
-    <row r="191" spans="1:7">
+    <row r="191" spans="1:6">
       <c r="A191" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B191">
-        <v>1329</v>
-      </c>
-      <c r="C191">
         <v>65</v>
       </c>
+      <c r="C191" t="s">
+        <v>58</v>
+      </c>
       <c r="D191" t="s">
-        <v>58</v>
-      </c>
-      <c r="E191" t="s">
-        <v>36</v>
+        <v>36</v>
+      </c>
+      <c r="E191">
+        <v>2016</v>
       </c>
       <c r="F191">
-        <v>2016</v>
-      </c>
-      <c r="G191">
         <v>133</v>
       </c>
     </row>
-    <row r="192" spans="1:7">
+    <row r="192" spans="1:6">
       <c r="A192" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B192">
-        <v>1329</v>
-      </c>
-      <c r="C192">
         <v>5</v>
       </c>
+      <c r="C192" t="s">
+        <v>58</v>
+      </c>
       <c r="D192" t="s">
-        <v>58</v>
-      </c>
-      <c r="E192" t="s">
-        <v>36</v>
+        <v>36</v>
+      </c>
+      <c r="E192">
+        <v>2019</v>
       </c>
       <c r="F192">
-        <v>2019</v>
-      </c>
-      <c r="G192">
         <v>240</v>
       </c>
     </row>
-    <row r="193" spans="1:7">
+    <row r="193" spans="1:6">
       <c r="A193" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B193">
-        <v>1329</v>
-      </c>
-      <c r="C193">
         <v>175</v>
       </c>
+      <c r="C193" t="s">
+        <v>58</v>
+      </c>
       <c r="D193" t="s">
-        <v>58</v>
-      </c>
-      <c r="E193" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="E193">
+        <v>2016</v>
       </c>
       <c r="F193">
-        <v>2016</v>
-      </c>
-      <c r="G193">
         <v>123</v>
       </c>
     </row>
-    <row r="194" spans="1:7">
+    <row r="194" spans="1:6">
       <c r="A194" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B194">
-        <v>1329</v>
-      </c>
-      <c r="C194">
         <v>110</v>
       </c>
+      <c r="C194" t="s">
+        <v>58</v>
+      </c>
       <c r="D194" t="s">
-        <v>58</v>
-      </c>
-      <c r="E194" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="E194">
+        <v>2010</v>
       </c>
       <c r="F194">
-        <v>2010</v>
-      </c>
-      <c r="G194">
         <v>117</v>
       </c>
     </row>
-    <row r="195" spans="1:7">
+    <row r="195" spans="1:6">
       <c r="A195" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B195">
-        <v>1329</v>
-      </c>
-      <c r="C195">
         <v>105</v>
       </c>
+      <c r="C195" t="s">
+        <v>58</v>
+      </c>
       <c r="D195" t="s">
-        <v>58</v>
-      </c>
-      <c r="E195" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="E195">
+        <v>2012</v>
       </c>
       <c r="F195">
-        <v>2012</v>
-      </c>
-      <c r="G195">
         <v>105</v>
       </c>
     </row>
-    <row r="196" spans="1:7">
+    <row r="196" spans="1:6">
       <c r="A196" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B196">
-        <v>1329</v>
-      </c>
-      <c r="C196">
         <v>100</v>
       </c>
+      <c r="C196" t="s">
+        <v>58</v>
+      </c>
       <c r="D196" t="s">
-        <v>58</v>
-      </c>
-      <c r="E196" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="E196">
+        <v>2008</v>
       </c>
       <c r="F196">
-        <v>2008</v>
-      </c>
-      <c r="G196">
         <v>95</v>
       </c>
     </row>
-    <row r="197" spans="1:7">
+    <row r="197" spans="1:6">
       <c r="A197" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B197">
-        <v>1329</v>
-      </c>
-      <c r="C197">
         <v>45</v>
       </c>
+      <c r="C197" t="s">
+        <v>58</v>
+      </c>
       <c r="D197" t="s">
-        <v>58</v>
-      </c>
-      <c r="E197" t="s">
-        <v>36</v>
+        <v>36</v>
+      </c>
+      <c r="E197">
+        <v>2011</v>
       </c>
       <c r="F197">
-        <v>2011</v>
-      </c>
-      <c r="G197">
         <v>105</v>
       </c>
     </row>
-    <row r="198" spans="1:7">
+    <row r="198" spans="1:6">
       <c r="A198" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B198">
-        <v>1329</v>
-      </c>
-      <c r="C198">
         <v>95</v>
       </c>
+      <c r="C198" t="s">
+        <v>58</v>
+      </c>
       <c r="D198" t="s">
-        <v>58</v>
-      </c>
-      <c r="E198" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="E198">
+        <v>2010</v>
       </c>
       <c r="F198">
-        <v>2010</v>
-      </c>
-      <c r="G198">
         <v>113</v>
       </c>
     </row>
-    <row r="199" spans="1:7">
+    <row r="199" spans="1:6">
       <c r="A199" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B199">
-        <v>1329</v>
-      </c>
-      <c r="C199">
         <v>135</v>
       </c>
+      <c r="C199" t="s">
+        <v>58</v>
+      </c>
       <c r="D199" t="s">
-        <v>58</v>
-      </c>
-      <c r="E199" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="E199">
+        <v>2011</v>
       </c>
       <c r="F199">
-        <v>2011</v>
-      </c>
-      <c r="G199">
         <v>125</v>
       </c>
     </row>
-    <row r="200" spans="1:7">
+    <row r="200" spans="1:6">
       <c r="A200" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B200">
-        <v>1329</v>
-      </c>
-      <c r="C200">
         <v>110</v>
       </c>
+      <c r="C200" t="s">
+        <v>58</v>
+      </c>
       <c r="D200" t="s">
-        <v>58</v>
-      </c>
-      <c r="E200" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="E200">
+        <v>2004</v>
       </c>
       <c r="F200">
-        <v>2004</v>
-      </c>
-      <c r="G200">
         <v>80</v>
       </c>
     </row>
-    <row r="201" spans="1:7">
+    <row r="201" spans="1:6">
       <c r="A201" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B201">
-        <v>1329</v>
-      </c>
-      <c r="C201">
         <v>55</v>
       </c>
+      <c r="C201" t="s">
+        <v>58</v>
+      </c>
       <c r="D201" t="s">
-        <v>58</v>
-      </c>
-      <c r="E201" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="E201">
+        <v>2016</v>
       </c>
       <c r="F201">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6">
+      <c r="A202" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B202">
+        <v>25</v>
+      </c>
+      <c r="C202" t="s">
+        <v>58</v>
+      </c>
+      <c r="D202" t="s">
+        <v>36</v>
+      </c>
+      <c r="E202">
+        <v>2017</v>
+      </c>
+      <c r="F202">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6">
+      <c r="A203" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B203">
+        <v>75</v>
+      </c>
+      <c r="C203" t="s">
+        <v>58</v>
+      </c>
+      <c r="D203" t="s">
+        <v>36</v>
+      </c>
+      <c r="E203">
+        <v>2015</v>
+      </c>
+      <c r="F203">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6">
+      <c r="A204" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B204">
+        <v>30</v>
+      </c>
+      <c r="C204" t="s">
+        <v>58</v>
+      </c>
+      <c r="D204" t="s">
+        <v>9</v>
+      </c>
+      <c r="E204">
+        <v>2017</v>
+      </c>
+      <c r="F204">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6">
+      <c r="A205" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B205">
+        <v>50</v>
+      </c>
+      <c r="C205" t="s">
+        <v>58</v>
+      </c>
+      <c r="D205" t="s">
+        <v>9</v>
+      </c>
+      <c r="E205">
+        <v>2017</v>
+      </c>
+      <c r="F205">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6">
+      <c r="A206" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B206">
+        <v>10</v>
+      </c>
+      <c r="C206" t="s">
+        <v>58</v>
+      </c>
+      <c r="D206" t="s">
+        <v>36</v>
+      </c>
+      <c r="E206">
+        <v>2019</v>
+      </c>
+      <c r="F206">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6">
+      <c r="A207" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B207">
+        <v>10</v>
+      </c>
+      <c r="C207" t="s">
+        <v>58</v>
+      </c>
+      <c r="D207" t="s">
+        <v>36</v>
+      </c>
+      <c r="E207">
+        <v>2019</v>
+      </c>
+      <c r="F207">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6">
+      <c r="A208" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B208">
+        <v>40</v>
+      </c>
+      <c r="C208" t="s">
+        <v>58</v>
+      </c>
+      <c r="D208" t="s">
+        <v>36</v>
+      </c>
+      <c r="E208">
         <v>2016</v>
       </c>
-      <c r="G201">
+      <c r="F208">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6">
+      <c r="A209" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B209">
+        <v>25</v>
+      </c>
+      <c r="C209" t="s">
+        <v>58</v>
+      </c>
+      <c r="D209" t="s">
+        <v>9</v>
+      </c>
+      <c r="E209">
+        <v>2018</v>
+      </c>
+      <c r="F209">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6">
+      <c r="A210" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B210">
+        <v>145</v>
+      </c>
+      <c r="C210" t="s">
+        <v>58</v>
+      </c>
+      <c r="D210" t="s">
+        <v>36</v>
+      </c>
+      <c r="E210">
+        <v>2015</v>
+      </c>
+      <c r="F210">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6">
+      <c r="A211" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B211">
+        <v>25</v>
+      </c>
+      <c r="C211" t="s">
+        <v>58</v>
+      </c>
+      <c r="D211" t="s">
+        <v>36</v>
+      </c>
+      <c r="E211">
+        <v>2017</v>
+      </c>
+      <c r="F211">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6">
+      <c r="A212" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B212">
+        <v>10</v>
+      </c>
+      <c r="C212" t="s">
+        <v>58</v>
+      </c>
+      <c r="D212" t="s">
+        <v>36</v>
+      </c>
+      <c r="E212">
+        <v>2012</v>
+      </c>
+      <c r="F212">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6">
+      <c r="A213" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B213">
+        <v>45</v>
+      </c>
+      <c r="C213" t="s">
+        <v>58</v>
+      </c>
+      <c r="D213" t="s">
+        <v>9</v>
+      </c>
+      <c r="E213">
+        <v>2013</v>
+      </c>
+      <c r="F213">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6">
+      <c r="A214" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B214">
+        <v>15</v>
+      </c>
+      <c r="C214" t="s">
+        <v>58</v>
+      </c>
+      <c r="D214" t="s">
+        <v>9</v>
+      </c>
+      <c r="E214">
+        <v>2018</v>
+      </c>
+      <c r="F214">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6">
+      <c r="A215" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B215">
+        <v>75</v>
+      </c>
+      <c r="C215" t="s">
+        <v>58</v>
+      </c>
+      <c r="D215" t="s">
+        <v>36</v>
+      </c>
+      <c r="E215">
+        <v>2013</v>
+      </c>
+      <c r="F215">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6">
+      <c r="A216" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B216">
+        <v>30</v>
+      </c>
+      <c r="C216" t="s">
+        <v>58</v>
+      </c>
+      <c r="D216" t="s">
+        <v>9</v>
+      </c>
+      <c r="E216">
+        <v>2017</v>
+      </c>
+      <c r="F216">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6">
+      <c r="A217" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B217">
+        <v>105</v>
+      </c>
+      <c r="C217" t="s">
+        <v>58</v>
+      </c>
+      <c r="D217" t="s">
+        <v>9</v>
+      </c>
+      <c r="E217">
+        <v>2014</v>
+      </c>
+      <c r="F217">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6">
+      <c r="A218" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B218">
+        <v>55</v>
+      </c>
+      <c r="C218" t="s">
+        <v>58</v>
+      </c>
+      <c r="D218" t="s">
+        <v>9</v>
+      </c>
+      <c r="E218">
+        <v>2016</v>
+      </c>
+      <c r="F218">
         <v>165</v>
       </c>
     </row>
-    <row r="202" spans="1:7">
-      <c r="A202" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="B202">
-        <v>1329</v>
-      </c>
-      <c r="C202">
+    <row r="219" spans="1:6">
+      <c r="A219" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B219">
+        <v>65</v>
+      </c>
+      <c r="C219" t="s">
+        <v>58</v>
+      </c>
+      <c r="D219" t="s">
+        <v>36</v>
+      </c>
+      <c r="E219">
+        <v>2015</v>
+      </c>
+      <c r="F219">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6">
+      <c r="A220" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B220">
         <v>25</v>
       </c>
-      <c r="D202" t="s">
-        <v>58</v>
-      </c>
-      <c r="E202" t="s">
-        <v>36</v>
-      </c>
-      <c r="F202">
+      <c r="C220" t="s">
+        <v>58</v>
+      </c>
+      <c r="D220" t="s">
+        <v>36</v>
+      </c>
+      <c r="E220">
+        <v>2018</v>
+      </c>
+      <c r="F220">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6">
+      <c r="A221" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B221">
+        <v>65</v>
+      </c>
+      <c r="C221" t="s">
+        <v>58</v>
+      </c>
+      <c r="D221" t="s">
+        <v>36</v>
+      </c>
+      <c r="E221">
+        <v>2016</v>
+      </c>
+      <c r="F221">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6">
+      <c r="A222" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B222">
+        <v>50</v>
+      </c>
+      <c r="C222" t="s">
+        <v>58</v>
+      </c>
+      <c r="D222" t="s">
+        <v>36</v>
+      </c>
+      <c r="E222">
+        <v>2015</v>
+      </c>
+      <c r="F222">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6">
+      <c r="A223" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B223">
+        <v>50</v>
+      </c>
+      <c r="C223" t="s">
+        <v>58</v>
+      </c>
+      <c r="D223" t="s">
+        <v>36</v>
+      </c>
+      <c r="E223">
+        <v>2012</v>
+      </c>
+      <c r="F223">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6">
+      <c r="A224" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B224">
+        <v>45</v>
+      </c>
+      <c r="C224" t="s">
+        <v>58</v>
+      </c>
+      <c r="D224" t="s">
+        <v>36</v>
+      </c>
+      <c r="E224">
         <v>2017</v>
       </c>
-      <c r="G202">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="203" spans="1:7">
-      <c r="A203" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="B203">
-        <v>1329</v>
-      </c>
-      <c r="C203">
+      <c r="F224">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6">
+      <c r="A225" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B225">
+        <v>65</v>
+      </c>
+      <c r="C225" t="s">
+        <v>58</v>
+      </c>
+      <c r="D225" t="s">
+        <v>36</v>
+      </c>
+      <c r="E225">
+        <v>2013</v>
+      </c>
+      <c r="F225">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6">
+      <c r="A226" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B226">
+        <v>20</v>
+      </c>
+      <c r="C226" t="s">
+        <v>58</v>
+      </c>
+      <c r="D226" t="s">
+        <v>9</v>
+      </c>
+      <c r="E226">
+        <v>2019</v>
+      </c>
+      <c r="F226">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6">
+      <c r="A227" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B227">
+        <v>95</v>
+      </c>
+      <c r="C227" t="s">
+        <v>58</v>
+      </c>
+      <c r="D227" t="s">
+        <v>36</v>
+      </c>
+      <c r="E227">
+        <v>2012</v>
+      </c>
+      <c r="F227">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6">
+      <c r="A228" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B228">
+        <v>45</v>
+      </c>
+      <c r="C228" t="s">
+        <v>58</v>
+      </c>
+      <c r="D228" t="s">
+        <v>36</v>
+      </c>
+      <c r="E228">
+        <v>2018</v>
+      </c>
+      <c r="F228">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6">
+      <c r="A229" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B229">
+        <v>35</v>
+      </c>
+      <c r="C229" t="s">
+        <v>58</v>
+      </c>
+      <c r="D229" t="s">
+        <v>9</v>
+      </c>
+      <c r="E229">
+        <v>2018</v>
+      </c>
+      <c r="F229">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6">
+      <c r="A230" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B230">
+        <v>45</v>
+      </c>
+      <c r="C230" t="s">
+        <v>58</v>
+      </c>
+      <c r="D230" t="s">
+        <v>36</v>
+      </c>
+      <c r="E230">
+        <v>2016</v>
+      </c>
+      <c r="F230">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6">
+      <c r="A231" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B231">
+        <v>35</v>
+      </c>
+      <c r="C231" t="s">
+        <v>58</v>
+      </c>
+      <c r="D231" t="s">
+        <v>36</v>
+      </c>
+      <c r="E231">
+        <v>2012</v>
+      </c>
+      <c r="F231">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6">
+      <c r="A232" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B232">
+        <v>40</v>
+      </c>
+      <c r="C232" t="s">
+        <v>58</v>
+      </c>
+      <c r="D232" t="s">
+        <v>9</v>
+      </c>
+      <c r="E232">
+        <v>2013</v>
+      </c>
+      <c r="F232">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6">
+      <c r="A233" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B233">
+        <v>55</v>
+      </c>
+      <c r="C233" t="s">
+        <v>58</v>
+      </c>
+      <c r="D233" t="s">
+        <v>36</v>
+      </c>
+      <c r="E233">
+        <v>2016</v>
+      </c>
+      <c r="F233">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6">
+      <c r="A234" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B234">
         <v>75</v>
       </c>
-      <c r="D203" t="s">
-        <v>58</v>
-      </c>
-      <c r="E203" t="s">
-        <v>36</v>
-      </c>
-      <c r="F203">
+      <c r="C234" t="s">
+        <v>58</v>
+      </c>
+      <c r="D234" t="s">
+        <v>36</v>
+      </c>
+      <c r="E234">
+        <v>2013</v>
+      </c>
+      <c r="F234">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6">
+      <c r="A235" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B235">
+        <v>10</v>
+      </c>
+      <c r="C235" t="s">
+        <v>58</v>
+      </c>
+      <c r="D235" t="s">
+        <v>36</v>
+      </c>
+      <c r="E235">
+        <v>2019</v>
+      </c>
+      <c r="F235">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6">
+      <c r="A236" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B236">
+        <v>85</v>
+      </c>
+      <c r="C236" t="s">
+        <v>58</v>
+      </c>
+      <c r="D236" t="s">
+        <v>36</v>
+      </c>
+      <c r="E236">
+        <v>2013</v>
+      </c>
+      <c r="F236">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6">
+      <c r="A237" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B237">
+        <v>50</v>
+      </c>
+      <c r="C237" t="s">
+        <v>58</v>
+      </c>
+      <c r="D237" t="s">
+        <v>9</v>
+      </c>
+      <c r="E237">
+        <v>2016</v>
+      </c>
+      <c r="F237">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6">
+      <c r="A238" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B238">
+        <v>65</v>
+      </c>
+      <c r="C238" t="s">
+        <v>58</v>
+      </c>
+      <c r="D238" t="s">
+        <v>9</v>
+      </c>
+      <c r="E238">
         <v>2015</v>
       </c>
-      <c r="G203">
+      <c r="F238">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6">
+      <c r="A239" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B239">
+        <v>60</v>
+      </c>
+      <c r="C239" t="s">
+        <v>58</v>
+      </c>
+      <c r="D239" t="s">
+        <v>36</v>
+      </c>
+      <c r="E239">
+        <v>2015</v>
+      </c>
+      <c r="F239">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6">
+      <c r="A240" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B240">
+        <v>50</v>
+      </c>
+      <c r="C240" t="s">
+        <v>58</v>
+      </c>
+      <c r="D240" t="s">
+        <v>9</v>
+      </c>
+      <c r="E240">
+        <v>2014</v>
+      </c>
+      <c r="F240">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6">
+      <c r="A241" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B241">
+        <v>65</v>
+      </c>
+      <c r="C241" t="s">
+        <v>58</v>
+      </c>
+      <c r="D241" t="s">
+        <v>36</v>
+      </c>
+      <c r="E241">
+        <v>2016</v>
+      </c>
+      <c r="F241">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6">
+      <c r="A242" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B242">
+        <v>55</v>
+      </c>
+      <c r="C242" t="s">
+        <v>58</v>
+      </c>
+      <c r="D242" t="s">
+        <v>36</v>
+      </c>
+      <c r="E242">
+        <v>2016</v>
+      </c>
+      <c r="F242">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6">
+      <c r="A243" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B243">
+        <v>25</v>
+      </c>
+      <c r="C243" t="s">
+        <v>58</v>
+      </c>
+      <c r="D243" t="s">
+        <v>9</v>
+      </c>
+      <c r="E243">
+        <v>2017</v>
+      </c>
+      <c r="F243">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6">
+      <c r="A244" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B244">
         <v>135</v>
       </c>
-    </row>
-    <row r="204" spans="1:7">
-      <c r="A204" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="B204">
-        <v>1329</v>
-      </c>
-      <c r="C204">
-        <v>30</v>
-      </c>
-      <c r="D204" t="s">
-        <v>58</v>
-      </c>
-      <c r="E204" t="s">
-        <v>9</v>
-      </c>
-      <c r="F204">
-        <v>2017</v>
-      </c>
-      <c r="G204">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="205" spans="1:7">
-      <c r="A205" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="B205">
-        <v>1329</v>
-      </c>
-      <c r="C205">
-        <v>50</v>
-      </c>
-      <c r="D205" t="s">
-        <v>58</v>
-      </c>
-      <c r="E205" t="s">
-        <v>9</v>
-      </c>
-      <c r="F205">
-        <v>2017</v>
-      </c>
-      <c r="G205">
+      <c r="C244" t="s">
+        <v>58</v>
+      </c>
+      <c r="D244" t="s">
+        <v>36</v>
+      </c>
+      <c r="E244">
+        <v>2012</v>
+      </c>
+      <c r="F244">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6">
+      <c r="A245" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B245">
+        <v>85</v>
+      </c>
+      <c r="C245" t="s">
+        <v>58</v>
+      </c>
+      <c r="D245" t="s">
+        <v>36</v>
+      </c>
+      <c r="E245">
+        <v>2012</v>
+      </c>
+      <c r="F245">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6">
+      <c r="A246" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B246">
+        <v>10</v>
+      </c>
+      <c r="C246" t="s">
+        <v>58</v>
+      </c>
+      <c r="D246" t="s">
+        <v>36</v>
+      </c>
+      <c r="E246">
+        <v>2019</v>
+      </c>
+      <c r="F246">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6">
+      <c r="A247" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B247">
+        <v>75</v>
+      </c>
+      <c r="C247" t="s">
+        <v>58</v>
+      </c>
+      <c r="D247" t="s">
+        <v>9</v>
+      </c>
+      <c r="E247">
+        <v>2014</v>
+      </c>
+      <c r="F247">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6">
+      <c r="A248" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B248">
+        <v>80</v>
+      </c>
+      <c r="C248" t="s">
+        <v>58</v>
+      </c>
+      <c r="D248" t="s">
+        <v>36</v>
+      </c>
+      <c r="E248">
+        <v>2016</v>
+      </c>
+      <c r="F248">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6">
+      <c r="A249" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B249">
         <v>185</v>
       </c>
-    </row>
-    <row r="206" spans="1:7">
-      <c r="A206" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="B206">
-        <v>1329</v>
-      </c>
-      <c r="C206">
-        <v>10</v>
-      </c>
-      <c r="D206" t="s">
-        <v>58</v>
-      </c>
-      <c r="E206" t="s">
-        <v>36</v>
-      </c>
-      <c r="F206">
-        <v>2019</v>
-      </c>
-      <c r="G206">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="207" spans="1:7">
-      <c r="A207" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="B207">
-        <v>1329</v>
-      </c>
-      <c r="C207">
-        <v>10</v>
-      </c>
-      <c r="D207" t="s">
-        <v>58</v>
-      </c>
-      <c r="E207" t="s">
-        <v>36</v>
-      </c>
-      <c r="F207">
-        <v>2019</v>
-      </c>
-      <c r="G207">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="208" spans="1:7">
-      <c r="A208" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="B208">
-        <v>1329</v>
-      </c>
-      <c r="C208">
+      <c r="C249" t="s">
+        <v>58</v>
+      </c>
+      <c r="D249" t="s">
+        <v>36</v>
+      </c>
+      <c r="E249">
+        <v>2012</v>
+      </c>
+      <c r="F249">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6">
+      <c r="A250" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B250">
+        <v>80</v>
+      </c>
+      <c r="C250" t="s">
+        <v>58</v>
+      </c>
+      <c r="D250" t="s">
+        <v>9</v>
+      </c>
+      <c r="E250">
+        <v>2012</v>
+      </c>
+      <c r="F250">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6">
+      <c r="A251" s="7" t="s">
         <v>40</v>
-      </c>
-      <c r="D208" t="s">
-        <v>58</v>
-      </c>
-      <c r="E208" t="s">
-        <v>36</v>
-      </c>
-      <c r="F208">
-        <v>2016</v>
-      </c>
-      <c r="G208">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="209" spans="1:7">
-      <c r="A209" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="B209">
-        <v>1329</v>
-      </c>
-      <c r="C209">
-        <v>25</v>
-      </c>
-      <c r="D209" t="s">
-        <v>58</v>
-      </c>
-      <c r="E209" t="s">
-        <v>9</v>
-      </c>
-      <c r="F209">
-        <v>2018</v>
-      </c>
-      <c r="G209">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="210" spans="1:7">
-      <c r="A210" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="B210">
-        <v>1329</v>
-      </c>
-      <c r="C210">
-        <v>145</v>
-      </c>
-      <c r="D210" t="s">
-        <v>58</v>
-      </c>
-      <c r="E210" t="s">
-        <v>36</v>
-      </c>
-      <c r="F210">
-        <v>2015</v>
-      </c>
-      <c r="G210">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="211" spans="1:7">
-      <c r="A211" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="B211">
-        <v>1329</v>
-      </c>
-      <c r="C211">
-        <v>25</v>
-      </c>
-      <c r="D211" t="s">
-        <v>58</v>
-      </c>
-      <c r="E211" t="s">
-        <v>36</v>
-      </c>
-      <c r="F211">
-        <v>2017</v>
-      </c>
-      <c r="G211">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="212" spans="1:7">
-      <c r="A212" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="B212">
-        <v>1329</v>
-      </c>
-      <c r="C212">
-        <v>10</v>
-      </c>
-      <c r="D212" t="s">
-        <v>58</v>
-      </c>
-      <c r="E212" t="s">
-        <v>36</v>
-      </c>
-      <c r="F212">
-        <v>2012</v>
-      </c>
-      <c r="G212">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="213" spans="1:7">
-      <c r="A213" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="B213">
-        <v>1329</v>
-      </c>
-      <c r="C213">
-        <v>45</v>
-      </c>
-      <c r="D213" t="s">
-        <v>58</v>
-      </c>
-      <c r="E213" t="s">
-        <v>9</v>
-      </c>
-      <c r="F213">
-        <v>2013</v>
-      </c>
-      <c r="G213">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="214" spans="1:7">
-      <c r="A214" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="B214">
-        <v>1329</v>
-      </c>
-      <c r="C214">
-        <v>15</v>
-      </c>
-      <c r="D214" t="s">
-        <v>58</v>
-      </c>
-      <c r="E214" t="s">
-        <v>9</v>
-      </c>
-      <c r="F214">
-        <v>2018</v>
-      </c>
-      <c r="G214">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="215" spans="1:7">
-      <c r="A215" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="B215">
-        <v>1329</v>
-      </c>
-      <c r="C215">
-        <v>75</v>
-      </c>
-      <c r="D215" t="s">
-        <v>58</v>
-      </c>
-      <c r="E215" t="s">
-        <v>36</v>
-      </c>
-      <c r="F215">
-        <v>2013</v>
-      </c>
-      <c r="G215">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="216" spans="1:7">
-      <c r="A216" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="B216">
-        <v>1329</v>
-      </c>
-      <c r="C216">
-        <v>30</v>
-      </c>
-      <c r="D216" t="s">
-        <v>58</v>
-      </c>
-      <c r="E216" t="s">
-        <v>9</v>
-      </c>
-      <c r="F216">
-        <v>2017</v>
-      </c>
-      <c r="G216">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="217" spans="1:7">
-      <c r="A217" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="B217">
-        <v>1329</v>
-      </c>
-      <c r="C217">
-        <v>105</v>
-      </c>
-      <c r="D217" t="s">
-        <v>58</v>
-      </c>
-      <c r="E217" t="s">
-        <v>9</v>
-      </c>
-      <c r="F217">
-        <v>2014</v>
-      </c>
-      <c r="G217">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="218" spans="1:7">
-      <c r="A218" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="B218">
-        <v>1329</v>
-      </c>
-      <c r="C218">
-        <v>55</v>
-      </c>
-      <c r="D218" t="s">
-        <v>58</v>
-      </c>
-      <c r="E218" t="s">
-        <v>9</v>
-      </c>
-      <c r="F218">
-        <v>2016</v>
-      </c>
-      <c r="G218">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="219" spans="1:7">
-      <c r="A219" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="B219">
-        <v>1329</v>
-      </c>
-      <c r="C219">
-        <v>65</v>
-      </c>
-      <c r="D219" t="s">
-        <v>58</v>
-      </c>
-      <c r="E219" t="s">
-        <v>36</v>
-      </c>
-      <c r="F219">
-        <v>2015</v>
-      </c>
-      <c r="G219">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="220" spans="1:7">
-      <c r="A220" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="B220">
-        <v>1329</v>
-      </c>
-      <c r="C220">
-        <v>25</v>
-      </c>
-      <c r="D220" t="s">
-        <v>58</v>
-      </c>
-      <c r="E220" t="s">
-        <v>36</v>
-      </c>
-      <c r="F220">
-        <v>2018</v>
-      </c>
-      <c r="G220">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="221" spans="1:7">
-      <c r="A221" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="B221">
-        <v>1329</v>
-      </c>
-      <c r="C221">
-        <v>65</v>
-      </c>
-      <c r="D221" t="s">
-        <v>58</v>
-      </c>
-      <c r="E221" t="s">
-        <v>36</v>
-      </c>
-      <c r="F221">
-        <v>2016</v>
-      </c>
-      <c r="G221">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="222" spans="1:7">
-      <c r="A222" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="B222">
-        <v>1329</v>
-      </c>
-      <c r="C222">
-        <v>50</v>
-      </c>
-      <c r="D222" t="s">
-        <v>58</v>
-      </c>
-      <c r="E222" t="s">
-        <v>36</v>
-      </c>
-      <c r="F222">
-        <v>2015</v>
-      </c>
-      <c r="G222">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="223" spans="1:7">
-      <c r="A223" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="B223">
-        <v>1329</v>
-      </c>
-      <c r="C223">
-        <v>50</v>
-      </c>
-      <c r="D223" t="s">
-        <v>58</v>
-      </c>
-      <c r="E223" t="s">
-        <v>36</v>
-      </c>
-      <c r="F223">
-        <v>2012</v>
-      </c>
-      <c r="G223">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="224" spans="1:7">
-      <c r="A224" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="B224">
-        <v>1329</v>
-      </c>
-      <c r="C224">
-        <v>45</v>
-      </c>
-      <c r="D224" t="s">
-        <v>58</v>
-      </c>
-      <c r="E224" t="s">
-        <v>36</v>
-      </c>
-      <c r="F224">
-        <v>2017</v>
-      </c>
-      <c r="G224">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="225" spans="1:7">
-      <c r="A225" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="B225">
-        <v>1329</v>
-      </c>
-      <c r="C225">
-        <v>65</v>
-      </c>
-      <c r="D225" t="s">
-        <v>58</v>
-      </c>
-      <c r="E225" t="s">
-        <v>36</v>
-      </c>
-      <c r="F225">
-        <v>2013</v>
-      </c>
-      <c r="G225">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="226" spans="1:7">
-      <c r="A226" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="B226">
-        <v>1329</v>
-      </c>
-      <c r="C226">
-        <v>20</v>
-      </c>
-      <c r="D226" t="s">
-        <v>58</v>
-      </c>
-      <c r="E226" t="s">
-        <v>9</v>
-      </c>
-      <c r="F226">
-        <v>2019</v>
-      </c>
-      <c r="G226">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="227" spans="1:7">
-      <c r="A227" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="B227">
-        <v>1329</v>
-      </c>
-      <c r="C227">
-        <v>95</v>
-      </c>
-      <c r="D227" t="s">
-        <v>58</v>
-      </c>
-      <c r="E227" t="s">
-        <v>36</v>
-      </c>
-      <c r="F227">
-        <v>2012</v>
-      </c>
-      <c r="G227">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="228" spans="1:7">
-      <c r="A228" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="B228">
-        <v>1329</v>
-      </c>
-      <c r="C228">
-        <v>45</v>
-      </c>
-      <c r="D228" t="s">
-        <v>58</v>
-      </c>
-      <c r="E228" t="s">
-        <v>36</v>
-      </c>
-      <c r="F228">
-        <v>2018</v>
-      </c>
-      <c r="G228">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="229" spans="1:7">
-      <c r="A229" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="B229">
-        <v>1329</v>
-      </c>
-      <c r="C229">
-        <v>35</v>
-      </c>
-      <c r="D229" t="s">
-        <v>58</v>
-      </c>
-      <c r="E229" t="s">
-        <v>9</v>
-      </c>
-      <c r="F229">
-        <v>2018</v>
-      </c>
-      <c r="G229">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="230" spans="1:7">
-      <c r="A230" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="B230">
-        <v>1329</v>
-      </c>
-      <c r="C230">
-        <v>45</v>
-      </c>
-      <c r="D230" t="s">
-        <v>58</v>
-      </c>
-      <c r="E230" t="s">
-        <v>36</v>
-      </c>
-      <c r="F230">
-        <v>2016</v>
-      </c>
-      <c r="G230">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="231" spans="1:7">
-      <c r="A231" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="B231">
-        <v>1329</v>
-      </c>
-      <c r="C231">
-        <v>35</v>
-      </c>
-      <c r="D231" t="s">
-        <v>58</v>
-      </c>
-      <c r="E231" t="s">
-        <v>36</v>
-      </c>
-      <c r="F231">
-        <v>2012</v>
-      </c>
-      <c r="G231">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="232" spans="1:7">
-      <c r="A232" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="B232">
-        <v>1329</v>
-      </c>
-      <c r="C232">
-        <v>40</v>
-      </c>
-      <c r="D232" t="s">
-        <v>58</v>
-      </c>
-      <c r="E232" t="s">
-        <v>9</v>
-      </c>
-      <c r="F232">
-        <v>2013</v>
-      </c>
-      <c r="G232">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="233" spans="1:7">
-      <c r="A233" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="B233">
-        <v>1329</v>
-      </c>
-      <c r="C233">
-        <v>55</v>
-      </c>
-      <c r="D233" t="s">
-        <v>58</v>
-      </c>
-      <c r="E233" t="s">
-        <v>36</v>
-      </c>
-      <c r="F233">
-        <v>2016</v>
-      </c>
-      <c r="G233">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="234" spans="1:7">
-      <c r="A234" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="B234">
-        <v>1329</v>
-      </c>
-      <c r="C234">
-        <v>75</v>
-      </c>
-      <c r="D234" t="s">
-        <v>58</v>
-      </c>
-      <c r="E234" t="s">
-        <v>36</v>
-      </c>
-      <c r="F234">
-        <v>2013</v>
-      </c>
-      <c r="G234">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="235" spans="1:7">
-      <c r="A235" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="B235">
-        <v>1329</v>
-      </c>
-      <c r="C235">
-        <v>10</v>
-      </c>
-      <c r="D235" t="s">
-        <v>58</v>
-      </c>
-      <c r="E235" t="s">
-        <v>36</v>
-      </c>
-      <c r="F235">
-        <v>2019</v>
-      </c>
-      <c r="G235">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="236" spans="1:7">
-      <c r="A236" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="B236">
-        <v>1329</v>
-      </c>
-      <c r="C236">
-        <v>85</v>
-      </c>
-      <c r="D236" t="s">
-        <v>58</v>
-      </c>
-      <c r="E236" t="s">
-        <v>36</v>
-      </c>
-      <c r="F236">
-        <v>2013</v>
-      </c>
-      <c r="G236">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="237" spans="1:7">
-      <c r="A237" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="B237">
-        <v>1329</v>
-      </c>
-      <c r="C237">
-        <v>50</v>
-      </c>
-      <c r="D237" t="s">
-        <v>58</v>
-      </c>
-      <c r="E237" t="s">
-        <v>9</v>
-      </c>
-      <c r="F237">
-        <v>2016</v>
-      </c>
-      <c r="G237">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="238" spans="1:7">
-      <c r="A238" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="B238">
-        <v>1329</v>
-      </c>
-      <c r="C238">
-        <v>65</v>
-      </c>
-      <c r="D238" t="s">
-        <v>58</v>
-      </c>
-      <c r="E238" t="s">
-        <v>9</v>
-      </c>
-      <c r="F238">
-        <v>2015</v>
-      </c>
-      <c r="G238">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="239" spans="1:7">
-      <c r="A239" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="B239">
-        <v>1329</v>
-      </c>
-      <c r="C239">
-        <v>60</v>
-      </c>
-      <c r="D239" t="s">
-        <v>58</v>
-      </c>
-      <c r="E239" t="s">
-        <v>36</v>
-      </c>
-      <c r="F239">
-        <v>2015</v>
-      </c>
-      <c r="G239">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="240" spans="1:7">
-      <c r="A240" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="B240">
-        <v>1329</v>
-      </c>
-      <c r="C240">
-        <v>50</v>
-      </c>
-      <c r="D240" t="s">
-        <v>58</v>
-      </c>
-      <c r="E240" t="s">
-        <v>9</v>
-      </c>
-      <c r="F240">
-        <v>2014</v>
-      </c>
-      <c r="G240">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="241" spans="1:7">
-      <c r="A241" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="B241">
-        <v>1329</v>
-      </c>
-      <c r="C241">
-        <v>65</v>
-      </c>
-      <c r="D241" t="s">
-        <v>58</v>
-      </c>
-      <c r="E241" t="s">
-        <v>36</v>
-      </c>
-      <c r="F241">
-        <v>2016</v>
-      </c>
-      <c r="G241">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="242" spans="1:7">
-      <c r="A242" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="B242">
-        <v>1329</v>
-      </c>
-      <c r="C242">
-        <v>55</v>
-      </c>
-      <c r="D242" t="s">
-        <v>58</v>
-      </c>
-      <c r="E242" t="s">
-        <v>36</v>
-      </c>
-      <c r="F242">
-        <v>2016</v>
-      </c>
-      <c r="G242">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="243" spans="1:7">
-      <c r="A243" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="B243">
-        <v>1329</v>
-      </c>
-      <c r="C243">
-        <v>25</v>
-      </c>
-      <c r="D243" t="s">
-        <v>58</v>
-      </c>
-      <c r="E243" t="s">
-        <v>9</v>
-      </c>
-      <c r="F243">
-        <v>2017</v>
-      </c>
-      <c r="G243">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="244" spans="1:7">
-      <c r="A244" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="B244">
-        <v>1329</v>
-      </c>
-      <c r="C244">
-        <v>135</v>
-      </c>
-      <c r="D244" t="s">
-        <v>58</v>
-      </c>
-      <c r="E244" t="s">
-        <v>36</v>
-      </c>
-      <c r="F244">
-        <v>2012</v>
-      </c>
-      <c r="G244">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="245" spans="1:7">
-      <c r="A245" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="B245">
-        <v>1329</v>
-      </c>
-      <c r="C245">
-        <v>85</v>
-      </c>
-      <c r="D245" t="s">
-        <v>58</v>
-      </c>
-      <c r="E245" t="s">
-        <v>36</v>
-      </c>
-      <c r="F245">
-        <v>2012</v>
-      </c>
-      <c r="G245">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="246" spans="1:7">
-      <c r="A246" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="B246">
-        <v>1329</v>
-      </c>
-      <c r="C246">
-        <v>10</v>
-      </c>
-      <c r="D246" t="s">
-        <v>58</v>
-      </c>
-      <c r="E246" t="s">
-        <v>36</v>
-      </c>
-      <c r="F246">
-        <v>2019</v>
-      </c>
-      <c r="G246">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="247" spans="1:7">
-      <c r="A247" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="B247">
-        <v>1329</v>
-      </c>
-      <c r="C247">
-        <v>75</v>
-      </c>
-      <c r="D247" t="s">
-        <v>58</v>
-      </c>
-      <c r="E247" t="s">
-        <v>9</v>
-      </c>
-      <c r="F247">
-        <v>2014</v>
-      </c>
-      <c r="G247">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="248" spans="1:7">
-      <c r="A248" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="B248">
-        <v>1329</v>
-      </c>
-      <c r="C248">
-        <v>80</v>
-      </c>
-      <c r="D248" t="s">
-        <v>58</v>
-      </c>
-      <c r="E248" t="s">
-        <v>36</v>
-      </c>
-      <c r="F248">
-        <v>2016</v>
-      </c>
-      <c r="G248">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="249" spans="1:7">
-      <c r="A249" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="B249">
-        <v>1329</v>
-      </c>
-      <c r="C249">
-        <v>185</v>
-      </c>
-      <c r="D249" t="s">
-        <v>58</v>
-      </c>
-      <c r="E249" t="s">
-        <v>36</v>
-      </c>
-      <c r="F249">
-        <v>2012</v>
-      </c>
-      <c r="G249">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="250" spans="1:7">
-      <c r="A250" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="B250">
-        <v>1329</v>
-      </c>
-      <c r="C250">
-        <v>80</v>
-      </c>
-      <c r="D250" t="s">
-        <v>58</v>
-      </c>
-      <c r="E250" t="s">
-        <v>9</v>
-      </c>
-      <c r="F250">
-        <v>2012</v>
-      </c>
-      <c r="G250">
-        <v>130</v>
       </c>
     </row>
   </sheetData>

--- a/toyota.xlsx
+++ b/toyota.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15336" windowHeight="5448" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15336" windowHeight="5448"/>
   </bookViews>
   <sheets>
     <sheet name="harga_2019" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="870" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1499" uniqueCount="68">
   <si>
     <t>Nama</t>
   </si>
@@ -262,7 +262,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -311,6 +311,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFD3FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -325,7 +337,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -339,6 +351,8 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -348,6 +362,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFD3FF"/>
       <color rgb="FFFFCBCB"/>
     </mruColors>
   </colors>
@@ -627,8 +642,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -671,7 +686,7 @@
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="3">
@@ -703,7 +718,7 @@
       </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B3">
@@ -735,7 +750,7 @@
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B4">
@@ -764,7 +779,7 @@
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B5">
@@ -793,7 +808,7 @@
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="2" t="s">
         <v>60</v>
       </c>
       <c r="B6">
@@ -822,7 +837,7 @@
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" t="s">
+      <c r="A7" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B7">
@@ -851,7 +866,7 @@
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" t="s">
+      <c r="A8" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B8">
@@ -880,7 +895,7 @@
       </c>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" t="s">
+      <c r="A9" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B9" s="3">
@@ -909,7 +924,7 @@
       </c>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" t="s">
+      <c r="A10" s="2" t="s">
         <v>51</v>
       </c>
       <c r="B10">
@@ -1455,10 +1470,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F251"/>
+  <dimension ref="A1:F460"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A241" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G246" sqref="G246"/>
+    <sheetView topLeftCell="A438" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H458" sqref="H458"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -6473,6 +6488,4201 @@
       <c r="A251" s="7" t="s">
         <v>40</v>
       </c>
+      <c r="B251">
+        <v>30</v>
+      </c>
+      <c r="C251" t="s">
+        <v>57</v>
+      </c>
+      <c r="D251" t="s">
+        <v>9</v>
+      </c>
+      <c r="E251">
+        <v>2017</v>
+      </c>
+      <c r="F251">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6">
+      <c r="A252" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B252">
+        <v>10</v>
+      </c>
+      <c r="C252" t="s">
+        <v>57</v>
+      </c>
+      <c r="D252" t="s">
+        <v>36</v>
+      </c>
+      <c r="E252">
+        <v>2018</v>
+      </c>
+      <c r="F252">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6">
+      <c r="A253" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B253">
+        <v>80</v>
+      </c>
+      <c r="C253" t="s">
+        <v>57</v>
+      </c>
+      <c r="D253" t="s">
+        <v>36</v>
+      </c>
+      <c r="E253">
+        <v>2016</v>
+      </c>
+      <c r="F253">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6">
+      <c r="A254" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B254">
+        <v>15</v>
+      </c>
+      <c r="C254" t="s">
+        <v>58</v>
+      </c>
+      <c r="D254" t="s">
+        <v>36</v>
+      </c>
+      <c r="E254">
+        <v>2017</v>
+      </c>
+      <c r="F254">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6">
+      <c r="A255" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B255">
+        <v>25</v>
+      </c>
+      <c r="C255" t="s">
+        <v>58</v>
+      </c>
+      <c r="D255" t="s">
+        <v>9</v>
+      </c>
+      <c r="E255">
+        <v>2018</v>
+      </c>
+      <c r="F255">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6">
+      <c r="A256" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B256">
+        <v>5</v>
+      </c>
+      <c r="C256" t="s">
+        <v>58</v>
+      </c>
+      <c r="D256" t="s">
+        <v>36</v>
+      </c>
+      <c r="E256">
+        <v>2019</v>
+      </c>
+      <c r="F256">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6">
+      <c r="A257" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B257">
+        <v>25</v>
+      </c>
+      <c r="C257" t="s">
+        <v>58</v>
+      </c>
+      <c r="D257" t="s">
+        <v>36</v>
+      </c>
+      <c r="E257">
+        <v>2017</v>
+      </c>
+      <c r="F257">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6">
+      <c r="A258" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B258">
+        <v>30</v>
+      </c>
+      <c r="C258" t="s">
+        <v>57</v>
+      </c>
+      <c r="D258" t="s">
+        <v>36</v>
+      </c>
+      <c r="E258">
+        <v>2018</v>
+      </c>
+      <c r="F258">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6">
+      <c r="A259" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B259">
+        <v>20</v>
+      </c>
+      <c r="C259" t="s">
+        <v>58</v>
+      </c>
+      <c r="D259" t="s">
+        <v>36</v>
+      </c>
+      <c r="E259">
+        <v>2018</v>
+      </c>
+      <c r="F259">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6">
+      <c r="A260" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B260">
+        <v>15</v>
+      </c>
+      <c r="C260" t="s">
+        <v>58</v>
+      </c>
+      <c r="D260" t="s">
+        <v>9</v>
+      </c>
+      <c r="E260">
+        <v>2019</v>
+      </c>
+      <c r="F260">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6">
+      <c r="A261" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B261">
+        <v>40</v>
+      </c>
+      <c r="C261" t="s">
+        <v>58</v>
+      </c>
+      <c r="D261" t="s">
+        <v>36</v>
+      </c>
+      <c r="E261">
+        <v>2017</v>
+      </c>
+      <c r="F261">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6">
+      <c r="A262" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B262">
+        <v>20</v>
+      </c>
+      <c r="C262" t="s">
+        <v>57</v>
+      </c>
+      <c r="D262" t="s">
+        <v>36</v>
+      </c>
+      <c r="E262">
+        <v>2017</v>
+      </c>
+      <c r="F262">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6">
+      <c r="A263" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B263">
+        <v>55</v>
+      </c>
+      <c r="C263" t="s">
+        <v>58</v>
+      </c>
+      <c r="D263" t="s">
+        <v>9</v>
+      </c>
+      <c r="E263">
+        <v>2017</v>
+      </c>
+      <c r="F263">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6">
+      <c r="A264" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B264">
+        <v>35</v>
+      </c>
+      <c r="C264" t="s">
+        <v>57</v>
+      </c>
+      <c r="D264" t="s">
+        <v>36</v>
+      </c>
+      <c r="E264">
+        <v>2017</v>
+      </c>
+      <c r="F264">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6">
+      <c r="A265" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B265">
+        <v>30</v>
+      </c>
+      <c r="C265" t="s">
+        <v>58</v>
+      </c>
+      <c r="D265" t="s">
+        <v>36</v>
+      </c>
+      <c r="E265">
+        <v>2017</v>
+      </c>
+      <c r="F265">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6">
+      <c r="A266" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B266">
+        <v>20</v>
+      </c>
+      <c r="C266" t="s">
+        <v>58</v>
+      </c>
+      <c r="D266" t="s">
+        <v>36</v>
+      </c>
+      <c r="E266">
+        <v>2018</v>
+      </c>
+      <c r="F266">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6">
+      <c r="A267" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B267">
+        <v>45</v>
+      </c>
+      <c r="C267" t="s">
+        <v>58</v>
+      </c>
+      <c r="D267" t="s">
+        <v>36</v>
+      </c>
+      <c r="E267">
+        <v>2016</v>
+      </c>
+      <c r="F267">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6">
+      <c r="A268" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B268">
+        <v>35</v>
+      </c>
+      <c r="C268" t="s">
+        <v>57</v>
+      </c>
+      <c r="D268" t="s">
+        <v>9</v>
+      </c>
+      <c r="E268">
+        <v>2017</v>
+      </c>
+      <c r="F268">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6">
+      <c r="A269" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B269">
+        <v>10</v>
+      </c>
+      <c r="C269" t="s">
+        <v>57</v>
+      </c>
+      <c r="D269" t="s">
+        <v>36</v>
+      </c>
+      <c r="E269">
+        <v>2018</v>
+      </c>
+      <c r="F269">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6">
+      <c r="A270" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B270">
+        <v>55</v>
+      </c>
+      <c r="C270" t="s">
+        <v>58</v>
+      </c>
+      <c r="D270" t="s">
+        <v>9</v>
+      </c>
+      <c r="E270">
+        <v>2017</v>
+      </c>
+      <c r="F270">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6">
+      <c r="A271" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B271">
+        <v>45</v>
+      </c>
+      <c r="C271" t="s">
+        <v>58</v>
+      </c>
+      <c r="D271" t="s">
+        <v>36</v>
+      </c>
+      <c r="E271">
+        <v>2016</v>
+      </c>
+      <c r="F271">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6">
+      <c r="A272" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B272">
+        <v>15</v>
+      </c>
+      <c r="C272" t="s">
+        <v>58</v>
+      </c>
+      <c r="D272" t="s">
+        <v>9</v>
+      </c>
+      <c r="E272">
+        <v>2017</v>
+      </c>
+      <c r="F272">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6">
+      <c r="A273" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B273">
+        <v>40</v>
+      </c>
+      <c r="C273" t="s">
+        <v>58</v>
+      </c>
+      <c r="D273" t="s">
+        <v>36</v>
+      </c>
+      <c r="E273">
+        <v>2016</v>
+      </c>
+      <c r="F273">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6">
+      <c r="A274" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B274">
+        <v>45</v>
+      </c>
+      <c r="C274" t="s">
+        <v>57</v>
+      </c>
+      <c r="D274" t="s">
+        <v>36</v>
+      </c>
+      <c r="E274">
+        <v>2017</v>
+      </c>
+      <c r="F274">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6">
+      <c r="A275" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B275">
+        <v>35</v>
+      </c>
+      <c r="C275" t="s">
+        <v>58</v>
+      </c>
+      <c r="D275" t="s">
+        <v>36</v>
+      </c>
+      <c r="E275">
+        <v>2016</v>
+      </c>
+      <c r="F275">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6">
+      <c r="A276" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B276">
+        <v>5</v>
+      </c>
+      <c r="C276" t="s">
+        <v>57</v>
+      </c>
+      <c r="D276" t="s">
+        <v>36</v>
+      </c>
+      <c r="E276">
+        <v>2019</v>
+      </c>
+      <c r="F276">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6">
+      <c r="A277" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B277">
+        <v>15</v>
+      </c>
+      <c r="C277" t="s">
+        <v>57</v>
+      </c>
+      <c r="D277" t="s">
+        <v>9</v>
+      </c>
+      <c r="E277">
+        <v>2018</v>
+      </c>
+      <c r="F277">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6">
+      <c r="A278" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B278">
+        <v>40</v>
+      </c>
+      <c r="C278" t="s">
+        <v>58</v>
+      </c>
+      <c r="D278" t="s">
+        <v>36</v>
+      </c>
+      <c r="E278">
+        <v>2017</v>
+      </c>
+      <c r="F278">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6">
+      <c r="A279" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B279">
+        <v>30</v>
+      </c>
+      <c r="C279" t="s">
+        <v>58</v>
+      </c>
+      <c r="D279" t="s">
+        <v>36</v>
+      </c>
+      <c r="E279">
+        <v>2017</v>
+      </c>
+      <c r="F279">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6">
+      <c r="A280" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B280">
+        <v>25</v>
+      </c>
+      <c r="C280" t="s">
+        <v>57</v>
+      </c>
+      <c r="D280" t="s">
+        <v>36</v>
+      </c>
+      <c r="E280">
+        <v>2017</v>
+      </c>
+      <c r="F280">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6">
+      <c r="A281" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B281">
+        <v>15</v>
+      </c>
+      <c r="C281" t="s">
+        <v>58</v>
+      </c>
+      <c r="D281" t="s">
+        <v>36</v>
+      </c>
+      <c r="E281">
+        <v>2017</v>
+      </c>
+      <c r="F281">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6">
+      <c r="A282" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B282">
+        <v>70</v>
+      </c>
+      <c r="C282" t="s">
+        <v>57</v>
+      </c>
+      <c r="D282" t="s">
+        <v>36</v>
+      </c>
+      <c r="E282">
+        <v>2016</v>
+      </c>
+      <c r="F282">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6">
+      <c r="A283" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B283">
+        <v>20</v>
+      </c>
+      <c r="C283" t="s">
+        <v>57</v>
+      </c>
+      <c r="D283" t="s">
+        <v>36</v>
+      </c>
+      <c r="E283">
+        <v>2018</v>
+      </c>
+      <c r="F283">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6">
+      <c r="A284" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B284">
+        <v>20</v>
+      </c>
+      <c r="C284" t="s">
+        <v>57</v>
+      </c>
+      <c r="D284" t="s">
+        <v>36</v>
+      </c>
+      <c r="E284">
+        <v>2018</v>
+      </c>
+      <c r="F284">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6">
+      <c r="A285" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B285">
+        <v>40</v>
+      </c>
+      <c r="C285" t="s">
+        <v>58</v>
+      </c>
+      <c r="D285" t="s">
+        <v>36</v>
+      </c>
+      <c r="E285">
+        <v>2016</v>
+      </c>
+      <c r="F285">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6">
+      <c r="A286" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B286">
+        <v>10</v>
+      </c>
+      <c r="C286" t="s">
+        <v>57</v>
+      </c>
+      <c r="D286" t="s">
+        <v>36</v>
+      </c>
+      <c r="E286">
+        <v>2018</v>
+      </c>
+      <c r="F286">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6">
+      <c r="A287" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B287">
+        <v>55</v>
+      </c>
+      <c r="C287" t="s">
+        <v>58</v>
+      </c>
+      <c r="D287" t="s">
+        <v>9</v>
+      </c>
+      <c r="E287">
+        <v>2017</v>
+      </c>
+      <c r="F287">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6">
+      <c r="A288" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B288">
+        <v>45</v>
+      </c>
+      <c r="C288" t="s">
+        <v>58</v>
+      </c>
+      <c r="D288" t="s">
+        <v>36</v>
+      </c>
+      <c r="E288">
+        <v>2016</v>
+      </c>
+      <c r="F288">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6">
+      <c r="A289" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B289">
+        <v>15</v>
+      </c>
+      <c r="C289" t="s">
+        <v>58</v>
+      </c>
+      <c r="D289" t="s">
+        <v>9</v>
+      </c>
+      <c r="E289">
+        <v>2017</v>
+      </c>
+      <c r="F289">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6">
+      <c r="A290" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B290">
+        <v>40</v>
+      </c>
+      <c r="C290" t="s">
+        <v>58</v>
+      </c>
+      <c r="D290" t="s">
+        <v>36</v>
+      </c>
+      <c r="E290">
+        <v>2016</v>
+      </c>
+      <c r="F290">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6">
+      <c r="A291" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B291">
+        <v>45</v>
+      </c>
+      <c r="C291" t="s">
+        <v>57</v>
+      </c>
+      <c r="D291" t="s">
+        <v>36</v>
+      </c>
+      <c r="E291">
+        <v>2017</v>
+      </c>
+      <c r="F291">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6">
+      <c r="A292" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B292">
+        <v>35</v>
+      </c>
+      <c r="C292" t="s">
+        <v>58</v>
+      </c>
+      <c r="D292" t="s">
+        <v>36</v>
+      </c>
+      <c r="E292">
+        <v>2016</v>
+      </c>
+      <c r="F292">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6">
+      <c r="A293" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B293">
+        <v>5</v>
+      </c>
+      <c r="C293" t="s">
+        <v>57</v>
+      </c>
+      <c r="D293" t="s">
+        <v>36</v>
+      </c>
+      <c r="E293">
+        <v>2019</v>
+      </c>
+      <c r="F293">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6">
+      <c r="A294" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B294">
+        <v>15</v>
+      </c>
+      <c r="C294" t="s">
+        <v>57</v>
+      </c>
+      <c r="D294" t="s">
+        <v>9</v>
+      </c>
+      <c r="E294">
+        <v>2018</v>
+      </c>
+      <c r="F294">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6">
+      <c r="A295" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B295">
+        <v>30</v>
+      </c>
+      <c r="C295" t="s">
+        <v>57</v>
+      </c>
+      <c r="D295" t="s">
+        <v>9</v>
+      </c>
+      <c r="E295">
+        <v>2017</v>
+      </c>
+      <c r="F295">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6">
+      <c r="A296" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B296">
+        <v>10</v>
+      </c>
+      <c r="C296" t="s">
+        <v>57</v>
+      </c>
+      <c r="D296" t="s">
+        <v>36</v>
+      </c>
+      <c r="E296">
+        <v>2018</v>
+      </c>
+      <c r="F296">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6">
+      <c r="A297" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B297">
+        <v>80</v>
+      </c>
+      <c r="C297" t="s">
+        <v>57</v>
+      </c>
+      <c r="D297" t="s">
+        <v>36</v>
+      </c>
+      <c r="E297">
+        <v>2016</v>
+      </c>
+      <c r="F297">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6">
+      <c r="A298" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B298">
+        <v>15</v>
+      </c>
+      <c r="C298" t="s">
+        <v>58</v>
+      </c>
+      <c r="D298" t="s">
+        <v>36</v>
+      </c>
+      <c r="E298">
+        <v>2017</v>
+      </c>
+      <c r="F298">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6">
+      <c r="A299" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B299">
+        <v>25</v>
+      </c>
+      <c r="C299" t="s">
+        <v>58</v>
+      </c>
+      <c r="D299" t="s">
+        <v>9</v>
+      </c>
+      <c r="E299">
+        <v>2018</v>
+      </c>
+      <c r="F299">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6">
+      <c r="A300" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B300">
+        <v>5</v>
+      </c>
+      <c r="C300" t="s">
+        <v>58</v>
+      </c>
+      <c r="D300" t="s">
+        <v>36</v>
+      </c>
+      <c r="E300">
+        <v>2019</v>
+      </c>
+      <c r="F300">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6">
+      <c r="A301" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B301">
+        <v>5</v>
+      </c>
+      <c r="C301" t="s">
+        <v>58</v>
+      </c>
+      <c r="D301" t="s">
+        <v>36</v>
+      </c>
+      <c r="E301">
+        <v>2019</v>
+      </c>
+      <c r="F301">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6">
+      <c r="A302" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B302">
+        <v>30</v>
+      </c>
+      <c r="C302" t="s">
+        <v>58</v>
+      </c>
+      <c r="D302" t="s">
+        <v>36</v>
+      </c>
+      <c r="E302">
+        <v>2018</v>
+      </c>
+      <c r="F302">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6">
+      <c r="A303" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B303">
+        <v>20</v>
+      </c>
+      <c r="C303" t="s">
+        <v>58</v>
+      </c>
+      <c r="D303" t="s">
+        <v>36</v>
+      </c>
+      <c r="E303">
+        <v>2018</v>
+      </c>
+      <c r="F303">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6">
+      <c r="A304" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B304">
+        <v>20</v>
+      </c>
+      <c r="C304" t="s">
+        <v>58</v>
+      </c>
+      <c r="D304" t="s">
+        <v>36</v>
+      </c>
+      <c r="E304">
+        <v>2018</v>
+      </c>
+      <c r="F304">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6">
+      <c r="A305" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B305">
+        <v>5</v>
+      </c>
+      <c r="C305" t="s">
+        <v>58</v>
+      </c>
+      <c r="D305" t="s">
+        <v>36</v>
+      </c>
+      <c r="E305">
+        <v>2019</v>
+      </c>
+      <c r="F305">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6">
+      <c r="A306" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B306">
+        <v>5</v>
+      </c>
+      <c r="C306" t="s">
+        <v>58</v>
+      </c>
+      <c r="D306" t="s">
+        <v>36</v>
+      </c>
+      <c r="E306">
+        <v>2018</v>
+      </c>
+      <c r="F306">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6">
+      <c r="A307" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B307">
+        <v>35</v>
+      </c>
+      <c r="C307" t="s">
+        <v>58</v>
+      </c>
+      <c r="D307" t="s">
+        <v>36</v>
+      </c>
+      <c r="E307">
+        <v>2018</v>
+      </c>
+      <c r="F307">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="308" spans="1:6">
+      <c r="A308" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B308">
+        <v>30</v>
+      </c>
+      <c r="C308" t="s">
+        <v>58</v>
+      </c>
+      <c r="D308" t="s">
+        <v>36</v>
+      </c>
+      <c r="E308">
+        <v>2018</v>
+      </c>
+      <c r="F308">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="309" spans="1:6">
+      <c r="A309" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B309">
+        <v>15</v>
+      </c>
+      <c r="C309" t="s">
+        <v>58</v>
+      </c>
+      <c r="D309" t="s">
+        <v>36</v>
+      </c>
+      <c r="E309">
+        <v>2018</v>
+      </c>
+      <c r="F309">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="310" spans="1:6">
+      <c r="A310" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B310">
+        <v>30</v>
+      </c>
+      <c r="C310" t="s">
+        <v>58</v>
+      </c>
+      <c r="D310" t="s">
+        <v>36</v>
+      </c>
+      <c r="E310">
+        <v>2017</v>
+      </c>
+      <c r="F310">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="311" spans="1:6">
+      <c r="A311" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B311">
+        <v>5</v>
+      </c>
+      <c r="C311" t="s">
+        <v>58</v>
+      </c>
+      <c r="D311" t="s">
+        <v>36</v>
+      </c>
+      <c r="E311">
+        <v>2019</v>
+      </c>
+      <c r="F311">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6">
+      <c r="A312" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B312">
+        <v>5</v>
+      </c>
+      <c r="C312" t="s">
+        <v>58</v>
+      </c>
+      <c r="D312" t="s">
+        <v>36</v>
+      </c>
+      <c r="E312">
+        <v>2019</v>
+      </c>
+      <c r="F312">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="313" spans="1:6">
+      <c r="A313" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B313">
+        <v>5</v>
+      </c>
+      <c r="C313" t="s">
+        <v>58</v>
+      </c>
+      <c r="D313" t="s">
+        <v>36</v>
+      </c>
+      <c r="E313">
+        <v>2019</v>
+      </c>
+      <c r="F313">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="314" spans="1:6">
+      <c r="A314" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B314">
+        <v>15</v>
+      </c>
+      <c r="C314" t="s">
+        <v>58</v>
+      </c>
+      <c r="D314" t="s">
+        <v>36</v>
+      </c>
+      <c r="E314">
+        <v>2018</v>
+      </c>
+      <c r="F314">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="315" spans="1:6">
+      <c r="A315" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B315">
+        <v>10</v>
+      </c>
+      <c r="C315" t="s">
+        <v>58</v>
+      </c>
+      <c r="D315" t="s">
+        <v>36</v>
+      </c>
+      <c r="E315">
+        <v>2018</v>
+      </c>
+      <c r="F315">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="316" spans="1:6">
+      <c r="A316" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B316">
+        <v>5</v>
+      </c>
+      <c r="C316" t="s">
+        <v>58</v>
+      </c>
+      <c r="D316" t="s">
+        <v>36</v>
+      </c>
+      <c r="E316">
+        <v>2018</v>
+      </c>
+      <c r="F316">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="317" spans="1:6">
+      <c r="A317" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B317">
+        <v>15</v>
+      </c>
+      <c r="C317" t="s">
+        <v>58</v>
+      </c>
+      <c r="D317" t="s">
+        <v>36</v>
+      </c>
+      <c r="E317">
+        <v>2018</v>
+      </c>
+      <c r="F317">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="318" spans="1:6">
+      <c r="A318" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B318">
+        <v>35</v>
+      </c>
+      <c r="C318" t="s">
+        <v>58</v>
+      </c>
+      <c r="D318" t="s">
+        <v>36</v>
+      </c>
+      <c r="E318">
+        <v>2018</v>
+      </c>
+      <c r="F318">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="319" spans="1:6">
+      <c r="A319" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B319">
+        <v>30</v>
+      </c>
+      <c r="C319" t="s">
+        <v>58</v>
+      </c>
+      <c r="D319" t="s">
+        <v>36</v>
+      </c>
+      <c r="E319">
+        <v>2018</v>
+      </c>
+      <c r="F319">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="320" spans="1:6">
+      <c r="A320" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B320">
+        <v>20</v>
+      </c>
+      <c r="C320" t="s">
+        <v>58</v>
+      </c>
+      <c r="D320" t="s">
+        <v>36</v>
+      </c>
+      <c r="E320">
+        <v>2018</v>
+      </c>
+      <c r="F320">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="321" spans="1:6">
+      <c r="A321" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B321">
+        <v>20</v>
+      </c>
+      <c r="C321" t="s">
+        <v>58</v>
+      </c>
+      <c r="D321" t="s">
+        <v>36</v>
+      </c>
+      <c r="E321">
+        <v>2018</v>
+      </c>
+      <c r="F321">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="322" spans="1:6">
+      <c r="A322" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B322">
+        <v>10</v>
+      </c>
+      <c r="C322" t="s">
+        <v>58</v>
+      </c>
+      <c r="D322" t="s">
+        <v>36</v>
+      </c>
+      <c r="E322">
+        <v>2018</v>
+      </c>
+      <c r="F322">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="323" spans="1:6">
+      <c r="A323" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B323">
+        <v>15</v>
+      </c>
+      <c r="C323" t="s">
+        <v>58</v>
+      </c>
+      <c r="D323" t="s">
+        <v>36</v>
+      </c>
+      <c r="E323">
+        <v>2018</v>
+      </c>
+      <c r="F323">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="324" spans="1:6">
+      <c r="A324" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B324">
+        <v>5</v>
+      </c>
+      <c r="C324" t="s">
+        <v>58</v>
+      </c>
+      <c r="D324" t="s">
+        <v>36</v>
+      </c>
+      <c r="E324">
+        <v>2018</v>
+      </c>
+      <c r="F324">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="325" spans="1:6">
+      <c r="A325" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B325">
+        <v>5</v>
+      </c>
+      <c r="C325" t="s">
+        <v>58</v>
+      </c>
+      <c r="D325" t="s">
+        <v>36</v>
+      </c>
+      <c r="E325">
+        <v>2018</v>
+      </c>
+      <c r="F325">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="326" spans="1:6">
+      <c r="A326" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B326">
+        <v>15</v>
+      </c>
+      <c r="C326" t="s">
+        <v>58</v>
+      </c>
+      <c r="D326" t="s">
+        <v>36</v>
+      </c>
+      <c r="E326">
+        <v>2019</v>
+      </c>
+      <c r="F326">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="327" spans="1:6">
+      <c r="A327" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B327">
+        <v>10</v>
+      </c>
+      <c r="C327" t="s">
+        <v>58</v>
+      </c>
+      <c r="D327" t="s">
+        <v>36</v>
+      </c>
+      <c r="E327">
+        <v>2018</v>
+      </c>
+      <c r="F327">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="328" spans="1:6">
+      <c r="A328" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B328">
+        <v>10</v>
+      </c>
+      <c r="C328" t="s">
+        <v>58</v>
+      </c>
+      <c r="D328" t="s">
+        <v>36</v>
+      </c>
+      <c r="E328">
+        <v>2018</v>
+      </c>
+      <c r="F328">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="329" spans="1:6">
+      <c r="A329" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B329">
+        <v>5</v>
+      </c>
+      <c r="C329" t="s">
+        <v>58</v>
+      </c>
+      <c r="D329" t="s">
+        <v>36</v>
+      </c>
+      <c r="E329">
+        <v>2018</v>
+      </c>
+      <c r="F329">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="330" spans="1:6">
+      <c r="A330" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B330">
+        <v>20</v>
+      </c>
+      <c r="C330" t="s">
+        <v>58</v>
+      </c>
+      <c r="D330" t="s">
+        <v>36</v>
+      </c>
+      <c r="E330">
+        <v>2018</v>
+      </c>
+      <c r="F330">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="331" spans="1:6">
+      <c r="A331" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B331">
+        <v>5</v>
+      </c>
+      <c r="C331" t="s">
+        <v>58</v>
+      </c>
+      <c r="D331" t="s">
+        <v>36</v>
+      </c>
+      <c r="E331">
+        <v>2018</v>
+      </c>
+      <c r="F331">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="332" spans="1:6">
+      <c r="A332" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B332">
+        <v>25</v>
+      </c>
+      <c r="C332" t="s">
+        <v>58</v>
+      </c>
+      <c r="D332" t="s">
+        <v>36</v>
+      </c>
+      <c r="E332">
+        <v>2017</v>
+      </c>
+      <c r="F332">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="333" spans="1:6">
+      <c r="A333" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B333">
+        <v>35</v>
+      </c>
+      <c r="C333" t="s">
+        <v>58</v>
+      </c>
+      <c r="D333" t="s">
+        <v>36</v>
+      </c>
+      <c r="E333">
+        <v>2018</v>
+      </c>
+      <c r="F333">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="334" spans="1:6">
+      <c r="A334" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B334">
+        <v>10</v>
+      </c>
+      <c r="C334" t="s">
+        <v>58</v>
+      </c>
+      <c r="D334" t="s">
+        <v>36</v>
+      </c>
+      <c r="E334">
+        <v>2018</v>
+      </c>
+      <c r="F334">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="335" spans="1:6">
+      <c r="A335" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B335">
+        <v>5</v>
+      </c>
+      <c r="C335" t="s">
+        <v>58</v>
+      </c>
+      <c r="D335" t="s">
+        <v>36</v>
+      </c>
+      <c r="E335">
+        <v>2018</v>
+      </c>
+      <c r="F335">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="336" spans="1:6">
+      <c r="A336" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B336">
+        <v>5</v>
+      </c>
+      <c r="C336" t="s">
+        <v>58</v>
+      </c>
+      <c r="D336" t="s">
+        <v>36</v>
+      </c>
+      <c r="E336">
+        <v>2019</v>
+      </c>
+      <c r="F336">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="337" spans="1:6">
+      <c r="A337" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B337">
+        <v>30</v>
+      </c>
+      <c r="C337" t="s">
+        <v>58</v>
+      </c>
+      <c r="D337" t="s">
+        <v>36</v>
+      </c>
+      <c r="E337">
+        <v>2018</v>
+      </c>
+      <c r="F337">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="338" spans="1:6">
+      <c r="A338" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B338">
+        <v>20</v>
+      </c>
+      <c r="C338" t="s">
+        <v>58</v>
+      </c>
+      <c r="D338" t="s">
+        <v>36</v>
+      </c>
+      <c r="E338">
+        <v>2018</v>
+      </c>
+      <c r="F338">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="339" spans="1:6">
+      <c r="A339" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B339">
+        <v>20</v>
+      </c>
+      <c r="C339" t="s">
+        <v>58</v>
+      </c>
+      <c r="D339" t="s">
+        <v>36</v>
+      </c>
+      <c r="E339">
+        <v>2018</v>
+      </c>
+      <c r="F339">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="340" spans="1:6">
+      <c r="A340" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B340">
+        <v>5</v>
+      </c>
+      <c r="C340" t="s">
+        <v>58</v>
+      </c>
+      <c r="D340" t="s">
+        <v>36</v>
+      </c>
+      <c r="E340">
+        <v>2019</v>
+      </c>
+      <c r="F340">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="341" spans="1:6">
+      <c r="A341" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B341">
+        <v>5</v>
+      </c>
+      <c r="C341" t="s">
+        <v>58</v>
+      </c>
+      <c r="D341" t="s">
+        <v>36</v>
+      </c>
+      <c r="E341">
+        <v>2018</v>
+      </c>
+      <c r="F341">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="342" spans="1:6">
+      <c r="A342" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B342">
+        <v>35</v>
+      </c>
+      <c r="C342" t="s">
+        <v>58</v>
+      </c>
+      <c r="D342" t="s">
+        <v>36</v>
+      </c>
+      <c r="E342">
+        <v>2018</v>
+      </c>
+      <c r="F342">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="343" spans="1:6">
+      <c r="A343" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B343">
+        <v>30</v>
+      </c>
+      <c r="C343" t="s">
+        <v>58</v>
+      </c>
+      <c r="D343" t="s">
+        <v>36</v>
+      </c>
+      <c r="E343">
+        <v>2018</v>
+      </c>
+      <c r="F343">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="344" spans="1:6">
+      <c r="A344" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B344">
+        <v>15</v>
+      </c>
+      <c r="C344" t="s">
+        <v>58</v>
+      </c>
+      <c r="D344" t="s">
+        <v>36</v>
+      </c>
+      <c r="E344">
+        <v>2018</v>
+      </c>
+      <c r="F344">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="345" spans="1:6">
+      <c r="A345" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B345">
+        <v>30</v>
+      </c>
+      <c r="C345" t="s">
+        <v>58</v>
+      </c>
+      <c r="D345" t="s">
+        <v>36</v>
+      </c>
+      <c r="E345">
+        <v>2017</v>
+      </c>
+      <c r="F345">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="346" spans="1:6">
+      <c r="A346" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B346">
+        <v>5</v>
+      </c>
+      <c r="C346" t="s">
+        <v>58</v>
+      </c>
+      <c r="D346" t="s">
+        <v>36</v>
+      </c>
+      <c r="E346">
+        <v>2019</v>
+      </c>
+      <c r="F346">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="347" spans="1:6">
+      <c r="A347" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B347">
+        <v>5</v>
+      </c>
+      <c r="C347" t="s">
+        <v>58</v>
+      </c>
+      <c r="D347" t="s">
+        <v>36</v>
+      </c>
+      <c r="E347">
+        <v>2019</v>
+      </c>
+      <c r="F347">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="348" spans="1:6">
+      <c r="A348" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B348">
+        <v>5</v>
+      </c>
+      <c r="C348" t="s">
+        <v>58</v>
+      </c>
+      <c r="D348" t="s">
+        <v>36</v>
+      </c>
+      <c r="E348">
+        <v>2019</v>
+      </c>
+      <c r="F348">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="349" spans="1:6">
+      <c r="A349" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B349">
+        <v>15</v>
+      </c>
+      <c r="C349" t="s">
+        <v>58</v>
+      </c>
+      <c r="D349" t="s">
+        <v>36</v>
+      </c>
+      <c r="E349">
+        <v>2018</v>
+      </c>
+      <c r="F349">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="350" spans="1:6">
+      <c r="A350" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B350">
+        <v>10</v>
+      </c>
+      <c r="C350" t="s">
+        <v>58</v>
+      </c>
+      <c r="D350" t="s">
+        <v>36</v>
+      </c>
+      <c r="E350">
+        <v>2018</v>
+      </c>
+      <c r="F350">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="351" spans="1:6">
+      <c r="A351" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B351">
+        <v>90</v>
+      </c>
+      <c r="C351" t="s">
+        <v>58</v>
+      </c>
+      <c r="D351" t="s">
+        <v>36</v>
+      </c>
+      <c r="E351">
+        <v>2008</v>
+      </c>
+      <c r="F351">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="352" spans="1:6">
+      <c r="A352" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B352">
+        <v>95</v>
+      </c>
+      <c r="C352" t="s">
+        <v>58</v>
+      </c>
+      <c r="D352" t="s">
+        <v>36</v>
+      </c>
+      <c r="E352">
+        <v>2013</v>
+      </c>
+      <c r="F352">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="353" spans="1:6">
+      <c r="A353" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B353">
+        <v>5</v>
+      </c>
+      <c r="C353" t="s">
+        <v>57</v>
+      </c>
+      <c r="D353" t="s">
+        <v>36</v>
+      </c>
+      <c r="E353">
+        <v>2018</v>
+      </c>
+      <c r="F353">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="354" spans="1:6">
+      <c r="A354" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B354">
+        <v>120</v>
+      </c>
+      <c r="C354" t="s">
+        <v>58</v>
+      </c>
+      <c r="D354" t="s">
+        <v>36</v>
+      </c>
+      <c r="E354">
+        <v>2006</v>
+      </c>
+      <c r="F354">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="355" spans="1:6">
+      <c r="A355" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B355">
+        <v>35</v>
+      </c>
+      <c r="C355" t="s">
+        <v>58</v>
+      </c>
+      <c r="D355" t="s">
+        <v>36</v>
+      </c>
+      <c r="E355">
+        <v>2009</v>
+      </c>
+      <c r="F355">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="356" spans="1:6">
+      <c r="A356" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B356">
+        <v>20</v>
+      </c>
+      <c r="C356" t="s">
+        <v>58</v>
+      </c>
+      <c r="D356" t="s">
+        <v>36</v>
+      </c>
+      <c r="E356">
+        <v>2017</v>
+      </c>
+      <c r="F356">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="357" spans="1:6">
+      <c r="A357" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B357">
+        <v>45</v>
+      </c>
+      <c r="C357" t="s">
+        <v>58</v>
+      </c>
+      <c r="D357" t="s">
+        <v>36</v>
+      </c>
+      <c r="E357">
+        <v>2012</v>
+      </c>
+      <c r="F357">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="358" spans="1:6">
+      <c r="A358" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B358">
+        <v>75</v>
+      </c>
+      <c r="C358" t="s">
+        <v>58</v>
+      </c>
+      <c r="D358" t="s">
+        <v>36</v>
+      </c>
+      <c r="E358">
+        <v>2014</v>
+      </c>
+      <c r="F358">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="359" spans="1:6">
+      <c r="A359" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B359">
+        <v>50</v>
+      </c>
+      <c r="C359" t="s">
+        <v>58</v>
+      </c>
+      <c r="D359" t="s">
+        <v>36</v>
+      </c>
+      <c r="E359">
+        <v>2009</v>
+      </c>
+      <c r="F359">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="360" spans="1:6">
+      <c r="A360" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B360">
+        <v>35</v>
+      </c>
+      <c r="C360" t="s">
+        <v>58</v>
+      </c>
+      <c r="D360" t="s">
+        <v>36</v>
+      </c>
+      <c r="E360">
+        <v>2017</v>
+      </c>
+      <c r="F360">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="361" spans="1:6">
+      <c r="A361" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B361">
+        <v>5</v>
+      </c>
+      <c r="C361" t="s">
+        <v>58</v>
+      </c>
+      <c r="D361" t="s">
+        <v>36</v>
+      </c>
+      <c r="E361">
+        <v>2019</v>
+      </c>
+      <c r="F361">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="362" spans="1:6">
+      <c r="A362" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B362">
+        <v>15</v>
+      </c>
+      <c r="C362" t="s">
+        <v>58</v>
+      </c>
+      <c r="D362" t="s">
+        <v>36</v>
+      </c>
+      <c r="E362">
+        <v>2018</v>
+      </c>
+      <c r="F362">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="363" spans="1:6">
+      <c r="A363" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B363">
+        <v>10</v>
+      </c>
+      <c r="C363" t="s">
+        <v>58</v>
+      </c>
+      <c r="D363" t="s">
+        <v>36</v>
+      </c>
+      <c r="E363">
+        <v>2016</v>
+      </c>
+      <c r="F363">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="364" spans="1:6">
+      <c r="A364" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B364">
+        <v>95</v>
+      </c>
+      <c r="C364" t="s">
+        <v>58</v>
+      </c>
+      <c r="D364" t="s">
+        <v>36</v>
+      </c>
+      <c r="E364">
+        <v>2005</v>
+      </c>
+      <c r="F364">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="365" spans="1:6">
+      <c r="A365" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B365">
+        <v>65</v>
+      </c>
+      <c r="C365" t="s">
+        <v>58</v>
+      </c>
+      <c r="D365" t="s">
+        <v>36</v>
+      </c>
+      <c r="E365">
+        <v>2012</v>
+      </c>
+      <c r="F365">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="366" spans="1:6">
+      <c r="A366" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B366">
+        <v>20</v>
+      </c>
+      <c r="C366" t="s">
+        <v>58</v>
+      </c>
+      <c r="D366" t="s">
+        <v>36</v>
+      </c>
+      <c r="E366">
+        <v>2017</v>
+      </c>
+      <c r="F366">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="367" spans="1:6">
+      <c r="A367" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B367">
+        <v>25</v>
+      </c>
+      <c r="C367" t="s">
+        <v>58</v>
+      </c>
+      <c r="D367" t="s">
+        <v>36</v>
+      </c>
+      <c r="E367">
+        <v>2016</v>
+      </c>
+      <c r="F367">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="368" spans="1:6">
+      <c r="A368" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B368">
+        <v>30</v>
+      </c>
+      <c r="C368" t="s">
+        <v>58</v>
+      </c>
+      <c r="D368" t="s">
+        <v>36</v>
+      </c>
+      <c r="E368">
+        <v>2015</v>
+      </c>
+      <c r="F368">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="369" spans="1:6">
+      <c r="A369" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B369">
+        <v>85</v>
+      </c>
+      <c r="C369" t="s">
+        <v>58</v>
+      </c>
+      <c r="D369" t="s">
+        <v>36</v>
+      </c>
+      <c r="E369">
+        <v>2008</v>
+      </c>
+      <c r="F369">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="370" spans="1:6">
+      <c r="A370" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B370">
+        <v>35</v>
+      </c>
+      <c r="C370" t="s">
+        <v>58</v>
+      </c>
+      <c r="D370" t="s">
+        <v>36</v>
+      </c>
+      <c r="E370">
+        <v>2016</v>
+      </c>
+      <c r="F370">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="371" spans="1:6">
+      <c r="A371" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B371">
+        <v>55</v>
+      </c>
+      <c r="C371" t="s">
+        <v>58</v>
+      </c>
+      <c r="D371" t="s">
+        <v>36</v>
+      </c>
+      <c r="E371">
+        <v>2015</v>
+      </c>
+      <c r="F371">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="372" spans="1:6">
+      <c r="A372" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B372">
+        <v>65</v>
+      </c>
+      <c r="C372" t="s">
+        <v>58</v>
+      </c>
+      <c r="D372" t="s">
+        <v>36</v>
+      </c>
+      <c r="E372">
+        <v>2012</v>
+      </c>
+      <c r="F372">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="373" spans="1:6">
+      <c r="A373" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B373">
+        <v>45</v>
+      </c>
+      <c r="C373" t="s">
+        <v>58</v>
+      </c>
+      <c r="D373" t="s">
+        <v>36</v>
+      </c>
+      <c r="E373">
+        <v>2015</v>
+      </c>
+      <c r="F373">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="374" spans="1:6">
+      <c r="A374" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B374">
+        <v>50</v>
+      </c>
+      <c r="C374" t="s">
+        <v>58</v>
+      </c>
+      <c r="D374" t="s">
+        <v>36</v>
+      </c>
+      <c r="E374">
+        <v>2008</v>
+      </c>
+      <c r="F374">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="375" spans="1:6">
+      <c r="A375" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B375">
+        <v>60</v>
+      </c>
+      <c r="C375" t="s">
+        <v>58</v>
+      </c>
+      <c r="D375" t="s">
+        <v>36</v>
+      </c>
+      <c r="E375">
+        <v>2012</v>
+      </c>
+      <c r="F375">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="376" spans="1:6">
+      <c r="A376" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B376">
+        <v>105</v>
+      </c>
+      <c r="C376" t="s">
+        <v>58</v>
+      </c>
+      <c r="D376" t="s">
+        <v>36</v>
+      </c>
+      <c r="E376">
+        <v>2013</v>
+      </c>
+      <c r="F376">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="377" spans="1:6">
+      <c r="A377" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B377">
+        <v>50</v>
+      </c>
+      <c r="C377" t="s">
+        <v>58</v>
+      </c>
+      <c r="D377" t="s">
+        <v>36</v>
+      </c>
+      <c r="E377">
+        <v>2013</v>
+      </c>
+      <c r="F377">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="378" spans="1:6">
+      <c r="A378" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B378">
+        <v>70</v>
+      </c>
+      <c r="C378" t="s">
+        <v>58</v>
+      </c>
+      <c r="D378" t="s">
+        <v>36</v>
+      </c>
+      <c r="E378">
+        <v>2012</v>
+      </c>
+      <c r="F378">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="379" spans="1:6">
+      <c r="A379" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B379">
+        <v>65</v>
+      </c>
+      <c r="C379" t="s">
+        <v>58</v>
+      </c>
+      <c r="D379" t="s">
+        <v>36</v>
+      </c>
+      <c r="E379">
+        <v>2008</v>
+      </c>
+      <c r="F379">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="380" spans="1:6">
+      <c r="A380" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B380">
+        <v>110</v>
+      </c>
+      <c r="C380" t="s">
+        <v>58</v>
+      </c>
+      <c r="D380" t="s">
+        <v>36</v>
+      </c>
+      <c r="E380">
+        <v>2007</v>
+      </c>
+      <c r="F380">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="381" spans="1:6">
+      <c r="A381" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B381">
+        <v>150</v>
+      </c>
+      <c r="C381" t="s">
+        <v>58</v>
+      </c>
+      <c r="D381" t="s">
+        <v>36</v>
+      </c>
+      <c r="E381">
+        <v>2010</v>
+      </c>
+      <c r="F381">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="382" spans="1:6">
+      <c r="A382" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B382">
+        <v>100</v>
+      </c>
+      <c r="C382" t="s">
+        <v>58</v>
+      </c>
+      <c r="D382" t="s">
+        <v>36</v>
+      </c>
+      <c r="E382">
+        <v>2012</v>
+      </c>
+      <c r="F382">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="383" spans="1:6">
+      <c r="A383" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B383">
+        <v>105</v>
+      </c>
+      <c r="C383" t="s">
+        <v>58</v>
+      </c>
+      <c r="D383" t="s">
+        <v>36</v>
+      </c>
+      <c r="E383">
+        <v>2005</v>
+      </c>
+      <c r="F383">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="384" spans="1:6">
+      <c r="A384" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B384">
+        <v>40</v>
+      </c>
+      <c r="C384" t="s">
+        <v>58</v>
+      </c>
+      <c r="D384" t="s">
+        <v>36</v>
+      </c>
+      <c r="E384">
+        <v>2013</v>
+      </c>
+      <c r="F384">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="385" spans="1:6">
+      <c r="A385" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B385">
+        <v>45</v>
+      </c>
+      <c r="C385" t="s">
+        <v>58</v>
+      </c>
+      <c r="D385" t="s">
+        <v>36</v>
+      </c>
+      <c r="E385">
+        <v>2012</v>
+      </c>
+      <c r="F385">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="386" spans="1:6">
+      <c r="A386" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B386">
+        <v>40</v>
+      </c>
+      <c r="C386" t="s">
+        <v>58</v>
+      </c>
+      <c r="D386" t="s">
+        <v>36</v>
+      </c>
+      <c r="E386">
+        <v>2012</v>
+      </c>
+      <c r="F386">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="387" spans="1:6">
+      <c r="A387" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B387">
+        <v>5</v>
+      </c>
+      <c r="C387" t="s">
+        <v>58</v>
+      </c>
+      <c r="D387" t="s">
+        <v>36</v>
+      </c>
+      <c r="E387">
+        <v>2014</v>
+      </c>
+      <c r="F387">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="388" spans="1:6">
+      <c r="A388" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B388">
+        <v>175</v>
+      </c>
+      <c r="C388" t="s">
+        <v>58</v>
+      </c>
+      <c r="D388" t="s">
+        <v>36</v>
+      </c>
+      <c r="E388">
+        <v>2006</v>
+      </c>
+      <c r="F388">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="389" spans="1:6">
+      <c r="A389" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B389">
+        <v>40</v>
+      </c>
+      <c r="C389" t="s">
+        <v>58</v>
+      </c>
+      <c r="D389" t="s">
+        <v>36</v>
+      </c>
+      <c r="E389">
+        <v>2015</v>
+      </c>
+      <c r="F389">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="390" spans="1:6">
+      <c r="A390" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B390">
+        <v>15</v>
+      </c>
+      <c r="C390" t="s">
+        <v>58</v>
+      </c>
+      <c r="D390" t="s">
+        <v>36</v>
+      </c>
+      <c r="E390">
+        <v>2018</v>
+      </c>
+      <c r="F390">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="391" spans="1:6">
+      <c r="A391" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B391">
+        <v>85</v>
+      </c>
+      <c r="C391" t="s">
+        <v>58</v>
+      </c>
+      <c r="D391" t="s">
+        <v>36</v>
+      </c>
+      <c r="E391">
+        <v>2012</v>
+      </c>
+      <c r="F391">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="392" spans="1:6">
+      <c r="A392" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B392">
+        <v>5</v>
+      </c>
+      <c r="C392" t="s">
+        <v>58</v>
+      </c>
+      <c r="D392" t="s">
+        <v>36</v>
+      </c>
+      <c r="E392">
+        <v>2019</v>
+      </c>
+      <c r="F392">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="393" spans="1:6">
+      <c r="A393" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B393">
+        <v>55</v>
+      </c>
+      <c r="C393" t="s">
+        <v>58</v>
+      </c>
+      <c r="D393" t="s">
+        <v>36</v>
+      </c>
+      <c r="E393">
+        <v>2015</v>
+      </c>
+      <c r="F393">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="394" spans="1:6">
+      <c r="A394" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B394">
+        <v>5</v>
+      </c>
+      <c r="C394" t="s">
+        <v>58</v>
+      </c>
+      <c r="D394" t="s">
+        <v>36</v>
+      </c>
+      <c r="E394">
+        <v>2019</v>
+      </c>
+      <c r="F394">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="395" spans="1:6">
+      <c r="A395" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B395">
+        <v>55</v>
+      </c>
+      <c r="C395" t="s">
+        <v>58</v>
+      </c>
+      <c r="D395" t="s">
+        <v>36</v>
+      </c>
+      <c r="E395">
+        <v>2014</v>
+      </c>
+      <c r="F395">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="396" spans="1:6">
+      <c r="A396" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B396">
+        <v>20</v>
+      </c>
+      <c r="C396" t="s">
+        <v>58</v>
+      </c>
+      <c r="D396" t="s">
+        <v>36</v>
+      </c>
+      <c r="E396">
+        <v>2017</v>
+      </c>
+      <c r="F396">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="397" spans="1:6">
+      <c r="A397" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B397">
+        <v>75</v>
+      </c>
+      <c r="C397" t="s">
+        <v>58</v>
+      </c>
+      <c r="D397" t="s">
+        <v>36</v>
+      </c>
+      <c r="E397">
+        <v>2009</v>
+      </c>
+      <c r="F397">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="398" spans="1:6">
+      <c r="A398" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B398">
+        <v>70</v>
+      </c>
+      <c r="C398" t="s">
+        <v>58</v>
+      </c>
+      <c r="D398" t="s">
+        <v>36</v>
+      </c>
+      <c r="E398">
+        <v>2010</v>
+      </c>
+      <c r="F398">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="399" spans="1:6">
+      <c r="A399" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B399">
+        <v>35</v>
+      </c>
+      <c r="C399" t="s">
+        <v>58</v>
+      </c>
+      <c r="D399" t="s">
+        <v>36</v>
+      </c>
+      <c r="E399">
+        <v>2017</v>
+      </c>
+      <c r="F399">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="400" spans="1:6">
+      <c r="A400" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B400">
+        <v>5</v>
+      </c>
+      <c r="C400" t="s">
+        <v>58</v>
+      </c>
+      <c r="D400" t="s">
+        <v>36</v>
+      </c>
+      <c r="E400">
+        <v>2019</v>
+      </c>
+      <c r="F400">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="401" spans="1:6">
+      <c r="A401" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B401">
+        <v>55</v>
+      </c>
+      <c r="C401" t="s">
+        <v>58</v>
+      </c>
+      <c r="D401" t="s">
+        <v>36</v>
+      </c>
+      <c r="E401">
+        <v>2015</v>
+      </c>
+      <c r="F401">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="402" spans="1:6">
+      <c r="A402" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B402">
+        <v>45</v>
+      </c>
+      <c r="C402" t="s">
+        <v>58</v>
+      </c>
+      <c r="D402" t="s">
+        <v>36</v>
+      </c>
+      <c r="E402">
+        <v>2010</v>
+      </c>
+      <c r="F402">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="403" spans="1:6">
+      <c r="A403" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B403">
+        <v>105</v>
+      </c>
+      <c r="C403" t="s">
+        <v>58</v>
+      </c>
+      <c r="D403" t="s">
+        <v>36</v>
+      </c>
+      <c r="E403">
+        <v>2016</v>
+      </c>
+      <c r="F403">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="404" spans="1:6">
+      <c r="A404" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B404">
+        <v>40</v>
+      </c>
+      <c r="C404" t="s">
+        <v>58</v>
+      </c>
+      <c r="D404" t="s">
+        <v>36</v>
+      </c>
+      <c r="E404">
+        <v>2015</v>
+      </c>
+      <c r="F404">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="405" spans="1:6">
+      <c r="A405" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B405">
+        <v>80</v>
+      </c>
+      <c r="C405" t="s">
+        <v>58</v>
+      </c>
+      <c r="D405" t="s">
+        <v>36</v>
+      </c>
+      <c r="E405">
+        <v>2010</v>
+      </c>
+      <c r="F405">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="406" spans="1:6">
+      <c r="A406" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B406">
+        <v>80</v>
+      </c>
+      <c r="C406" t="s">
+        <v>58</v>
+      </c>
+      <c r="D406" t="s">
+        <v>36</v>
+      </c>
+      <c r="E406">
+        <v>2011</v>
+      </c>
+      <c r="F406">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="407" spans="1:6">
+      <c r="A407" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B407">
+        <v>45</v>
+      </c>
+      <c r="C407" t="s">
+        <v>58</v>
+      </c>
+      <c r="D407" t="s">
+        <v>36</v>
+      </c>
+      <c r="E407">
+        <v>2013</v>
+      </c>
+      <c r="F407">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="408" spans="1:6">
+      <c r="A408" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B408">
+        <v>35</v>
+      </c>
+      <c r="C408" t="s">
+        <v>58</v>
+      </c>
+      <c r="D408" t="s">
+        <v>36</v>
+      </c>
+      <c r="E408">
+        <v>2013</v>
+      </c>
+      <c r="F408">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="409" spans="1:6">
+      <c r="A409" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B409">
+        <v>50</v>
+      </c>
+      <c r="C409" t="s">
+        <v>58</v>
+      </c>
+      <c r="D409" t="s">
+        <v>36</v>
+      </c>
+      <c r="E409">
+        <v>2013</v>
+      </c>
+      <c r="F409">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="410" spans="1:6">
+      <c r="A410" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B410">
+        <v>50</v>
+      </c>
+      <c r="C410" t="s">
+        <v>58</v>
+      </c>
+      <c r="D410" t="s">
+        <v>36</v>
+      </c>
+      <c r="E410">
+        <v>2016</v>
+      </c>
+      <c r="F410">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="411" spans="1:6">
+      <c r="A411" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B411">
+        <v>55</v>
+      </c>
+      <c r="C411" t="s">
+        <v>58</v>
+      </c>
+      <c r="D411" t="s">
+        <v>36</v>
+      </c>
+      <c r="E411">
+        <v>2012</v>
+      </c>
+      <c r="F411">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="412" spans="1:6">
+      <c r="A412" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B412">
+        <v>55</v>
+      </c>
+      <c r="C412" t="s">
+        <v>58</v>
+      </c>
+      <c r="D412" t="s">
+        <v>36</v>
+      </c>
+      <c r="E412">
+        <v>2009</v>
+      </c>
+      <c r="F412">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="413" spans="1:6">
+      <c r="A413" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B413">
+        <v>25</v>
+      </c>
+      <c r="C413" t="s">
+        <v>58</v>
+      </c>
+      <c r="D413" t="s">
+        <v>36</v>
+      </c>
+      <c r="E413">
+        <v>2015</v>
+      </c>
+      <c r="F413">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="414" spans="1:6">
+      <c r="A414" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B414">
+        <v>80</v>
+      </c>
+      <c r="C414" t="s">
+        <v>58</v>
+      </c>
+      <c r="D414" t="s">
+        <v>36</v>
+      </c>
+      <c r="E414">
+        <v>2014</v>
+      </c>
+      <c r="F414">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="415" spans="1:6">
+      <c r="A415" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B415">
+        <v>20</v>
+      </c>
+      <c r="C415" t="s">
+        <v>58</v>
+      </c>
+      <c r="D415" t="s">
+        <v>36</v>
+      </c>
+      <c r="E415">
+        <v>2014</v>
+      </c>
+      <c r="F415">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="416" spans="1:6">
+      <c r="A416" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B416">
+        <v>40</v>
+      </c>
+      <c r="C416" t="s">
+        <v>58</v>
+      </c>
+      <c r="D416" t="s">
+        <v>36</v>
+      </c>
+      <c r="E416">
+        <v>2012</v>
+      </c>
+      <c r="F416">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="417" spans="1:6">
+      <c r="A417" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B417">
+        <v>65</v>
+      </c>
+      <c r="C417" t="s">
+        <v>58</v>
+      </c>
+      <c r="D417" t="s">
+        <v>36</v>
+      </c>
+      <c r="E417">
+        <v>2008</v>
+      </c>
+      <c r="F417">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="418" spans="1:6">
+      <c r="A418" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B418">
+        <v>75</v>
+      </c>
+      <c r="C418" t="s">
+        <v>58</v>
+      </c>
+      <c r="D418" t="s">
+        <v>36</v>
+      </c>
+      <c r="E418">
+        <v>2012</v>
+      </c>
+      <c r="F418">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="419" spans="1:6">
+      <c r="A419" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B419">
+        <v>40</v>
+      </c>
+      <c r="C419" t="s">
+        <v>58</v>
+      </c>
+      <c r="D419" t="s">
+        <v>36</v>
+      </c>
+      <c r="E419">
+        <v>2010</v>
+      </c>
+      <c r="F419">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="420" spans="1:6">
+      <c r="A420" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B420">
+        <v>75</v>
+      </c>
+      <c r="C420" t="s">
+        <v>58</v>
+      </c>
+      <c r="D420" t="s">
+        <v>36</v>
+      </c>
+      <c r="E420">
+        <v>2010</v>
+      </c>
+      <c r="F420">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="421" spans="1:6">
+      <c r="A421" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B421">
+        <v>95</v>
+      </c>
+      <c r="C421" t="s">
+        <v>58</v>
+      </c>
+      <c r="D421" t="s">
+        <v>36</v>
+      </c>
+      <c r="E421">
+        <v>2009</v>
+      </c>
+      <c r="F421">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="422" spans="1:6">
+      <c r="A422" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B422">
+        <v>5</v>
+      </c>
+      <c r="C422" t="s">
+        <v>58</v>
+      </c>
+      <c r="D422" t="s">
+        <v>36</v>
+      </c>
+      <c r="E422">
+        <v>2019</v>
+      </c>
+      <c r="F422">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="423" spans="1:6">
+      <c r="A423" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B423">
+        <v>40</v>
+      </c>
+      <c r="C423" t="s">
+        <v>58</v>
+      </c>
+      <c r="D423" t="s">
+        <v>36</v>
+      </c>
+      <c r="E423">
+        <v>2012</v>
+      </c>
+      <c r="F423">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="424" spans="1:6">
+      <c r="A424" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B424">
+        <v>85</v>
+      </c>
+      <c r="C424" t="s">
+        <v>58</v>
+      </c>
+      <c r="D424" t="s">
+        <v>36</v>
+      </c>
+      <c r="E424">
+        <v>2008</v>
+      </c>
+      <c r="F424">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="425" spans="1:6">
+      <c r="A425" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B425">
+        <v>40</v>
+      </c>
+      <c r="C425" t="s">
+        <v>58</v>
+      </c>
+      <c r="D425" t="s">
+        <v>36</v>
+      </c>
+      <c r="E425">
+        <v>2015</v>
+      </c>
+      <c r="F425">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="426" spans="1:6">
+      <c r="A426" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B426">
+        <v>65</v>
+      </c>
+      <c r="C426" t="s">
+        <v>58</v>
+      </c>
+      <c r="D426" t="s">
+        <v>36</v>
+      </c>
+      <c r="E426">
+        <v>2012</v>
+      </c>
+      <c r="F426">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="427" spans="1:6">
+      <c r="A427" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B427">
+        <v>45</v>
+      </c>
+      <c r="C427" t="s">
+        <v>58</v>
+      </c>
+      <c r="D427" t="s">
+        <v>36</v>
+      </c>
+      <c r="E427">
+        <v>2015</v>
+      </c>
+      <c r="F427">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="428" spans="1:6">
+      <c r="A428" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B428">
+        <v>40</v>
+      </c>
+      <c r="C428" t="s">
+        <v>58</v>
+      </c>
+      <c r="D428" t="s">
+        <v>36</v>
+      </c>
+      <c r="E428">
+        <v>2010</v>
+      </c>
+      <c r="F428">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="429" spans="1:6">
+      <c r="A429" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B429">
+        <v>75</v>
+      </c>
+      <c r="C429" t="s">
+        <v>58</v>
+      </c>
+      <c r="D429" t="s">
+        <v>36</v>
+      </c>
+      <c r="E429">
+        <v>2008</v>
+      </c>
+      <c r="F429">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="430" spans="1:6">
+      <c r="A430" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B430">
+        <v>5</v>
+      </c>
+      <c r="C430" t="s">
+        <v>58</v>
+      </c>
+      <c r="D430" t="s">
+        <v>36</v>
+      </c>
+      <c r="E430">
+        <v>2018</v>
+      </c>
+      <c r="F430">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="431" spans="1:6">
+      <c r="A431" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B431">
+        <v>110</v>
+      </c>
+      <c r="C431" t="s">
+        <v>58</v>
+      </c>
+      <c r="D431" t="s">
+        <v>36</v>
+      </c>
+      <c r="E431">
+        <v>2010</v>
+      </c>
+      <c r="F431">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="432" spans="1:6">
+      <c r="A432" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B432">
+        <v>70</v>
+      </c>
+      <c r="C432" t="s">
+        <v>58</v>
+      </c>
+      <c r="D432" t="s">
+        <v>36</v>
+      </c>
+      <c r="E432">
+        <v>2011</v>
+      </c>
+      <c r="F432">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="433" spans="1:6">
+      <c r="A433" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B433">
+        <v>35</v>
+      </c>
+      <c r="C433" t="s">
+        <v>58</v>
+      </c>
+      <c r="D433" t="s">
+        <v>36</v>
+      </c>
+      <c r="E433">
+        <v>2013</v>
+      </c>
+      <c r="F433">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="434" spans="1:6">
+      <c r="A434" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B434">
+        <v>70</v>
+      </c>
+      <c r="C434" t="s">
+        <v>58</v>
+      </c>
+      <c r="D434" t="s">
+        <v>36</v>
+      </c>
+      <c r="E434">
+        <v>2009</v>
+      </c>
+      <c r="F434">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="435" spans="1:6">
+      <c r="A435" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B435">
+        <v>45</v>
+      </c>
+      <c r="C435" t="s">
+        <v>58</v>
+      </c>
+      <c r="D435" t="s">
+        <v>36</v>
+      </c>
+      <c r="E435">
+        <v>2013</v>
+      </c>
+      <c r="F435">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="436" spans="1:6">
+      <c r="A436" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B436">
+        <v>50</v>
+      </c>
+      <c r="C436" t="s">
+        <v>58</v>
+      </c>
+      <c r="D436" t="s">
+        <v>36</v>
+      </c>
+      <c r="E436">
+        <v>2011</v>
+      </c>
+      <c r="F436">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="437" spans="1:6">
+      <c r="A437" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B437">
+        <v>85</v>
+      </c>
+      <c r="C437" t="s">
+        <v>58</v>
+      </c>
+      <c r="D437" t="s">
+        <v>36</v>
+      </c>
+      <c r="E437">
+        <v>2013</v>
+      </c>
+      <c r="F437">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="438" spans="1:6">
+      <c r="A438" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B438">
+        <v>75</v>
+      </c>
+      <c r="C438" t="s">
+        <v>58</v>
+      </c>
+      <c r="D438" t="s">
+        <v>36</v>
+      </c>
+      <c r="E438">
+        <v>2009</v>
+      </c>
+      <c r="F438">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="439" spans="1:6">
+      <c r="A439" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B439">
+        <v>35</v>
+      </c>
+      <c r="C439" t="s">
+        <v>58</v>
+      </c>
+      <c r="D439" t="s">
+        <v>36</v>
+      </c>
+      <c r="E439">
+        <v>2014</v>
+      </c>
+      <c r="F439">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="440" spans="1:6">
+      <c r="A440" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B440">
+        <v>50</v>
+      </c>
+      <c r="C440" t="s">
+        <v>58</v>
+      </c>
+      <c r="D440" t="s">
+        <v>36</v>
+      </c>
+      <c r="E440">
+        <v>2012</v>
+      </c>
+      <c r="F440">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="441" spans="1:6">
+      <c r="A441" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B441">
+        <v>85</v>
+      </c>
+      <c r="C441" t="s">
+        <v>58</v>
+      </c>
+      <c r="D441" t="s">
+        <v>36</v>
+      </c>
+      <c r="E441">
+        <v>2009</v>
+      </c>
+      <c r="F441">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="442" spans="1:6">
+      <c r="A442" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B442">
+        <v>65</v>
+      </c>
+      <c r="C442" t="s">
+        <v>58</v>
+      </c>
+      <c r="D442" t="s">
+        <v>36</v>
+      </c>
+      <c r="E442">
+        <v>2012</v>
+      </c>
+      <c r="F442">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="443" spans="1:6">
+      <c r="A443" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B443">
+        <v>55</v>
+      </c>
+      <c r="C443" t="s">
+        <v>58</v>
+      </c>
+      <c r="D443" t="s">
+        <v>36</v>
+      </c>
+      <c r="E443">
+        <v>2013</v>
+      </c>
+      <c r="F443">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="444" spans="1:6">
+      <c r="A444" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B444">
+        <v>25</v>
+      </c>
+      <c r="C444" t="s">
+        <v>58</v>
+      </c>
+      <c r="D444" t="s">
+        <v>36</v>
+      </c>
+      <c r="E444">
+        <v>2017</v>
+      </c>
+      <c r="F444">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="445" spans="1:6">
+      <c r="A445" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B445">
+        <v>65</v>
+      </c>
+      <c r="C445" t="s">
+        <v>58</v>
+      </c>
+      <c r="D445" t="s">
+        <v>36</v>
+      </c>
+      <c r="E445">
+        <v>2015</v>
+      </c>
+      <c r="F445">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="446" spans="1:6">
+      <c r="A446" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B446">
+        <v>55</v>
+      </c>
+      <c r="C446" t="s">
+        <v>58</v>
+      </c>
+      <c r="D446" t="s">
+        <v>36</v>
+      </c>
+      <c r="E446">
+        <v>2012</v>
+      </c>
+      <c r="F446">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="447" spans="1:6">
+      <c r="A447" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B447">
+        <v>80</v>
+      </c>
+      <c r="C447" t="s">
+        <v>58</v>
+      </c>
+      <c r="D447" t="s">
+        <v>36</v>
+      </c>
+      <c r="E447">
+        <v>2011</v>
+      </c>
+      <c r="F447">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="448" spans="1:6">
+      <c r="A448" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B448">
+        <v>40</v>
+      </c>
+      <c r="C448" t="s">
+        <v>58</v>
+      </c>
+      <c r="D448" t="s">
+        <v>36</v>
+      </c>
+      <c r="E448">
+        <v>2015</v>
+      </c>
+      <c r="F448">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="449" spans="1:6">
+      <c r="A449" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B449">
+        <v>80</v>
+      </c>
+      <c r="C449" t="s">
+        <v>58</v>
+      </c>
+      <c r="D449" t="s">
+        <v>36</v>
+      </c>
+      <c r="E449">
+        <v>2010</v>
+      </c>
+      <c r="F449">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="450" spans="1:6">
+      <c r="A450" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B450">
+        <v>80</v>
+      </c>
+      <c r="C450" t="s">
+        <v>58</v>
+      </c>
+      <c r="D450" t="s">
+        <v>36</v>
+      </c>
+      <c r="E450">
+        <v>2011</v>
+      </c>
+      <c r="F450">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="451" spans="1:6">
+      <c r="A451" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B451">
+        <v>45</v>
+      </c>
+      <c r="C451" t="s">
+        <v>58</v>
+      </c>
+      <c r="D451" t="s">
+        <v>36</v>
+      </c>
+      <c r="E451">
+        <v>2013</v>
+      </c>
+      <c r="F451">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="452" spans="1:6">
+      <c r="A452" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B452">
+        <v>35</v>
+      </c>
+      <c r="C452" t="s">
+        <v>58</v>
+      </c>
+      <c r="D452" t="s">
+        <v>36</v>
+      </c>
+      <c r="E452">
+        <v>2013</v>
+      </c>
+      <c r="F452">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="453" spans="1:6">
+      <c r="A453" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B453">
+        <v>50</v>
+      </c>
+      <c r="C453" t="s">
+        <v>58</v>
+      </c>
+      <c r="D453" t="s">
+        <v>36</v>
+      </c>
+      <c r="E453">
+        <v>2013</v>
+      </c>
+      <c r="F453">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="454" spans="1:6">
+      <c r="A454" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B454">
+        <v>50</v>
+      </c>
+      <c r="C454" t="s">
+        <v>58</v>
+      </c>
+      <c r="D454" t="s">
+        <v>36</v>
+      </c>
+      <c r="E454">
+        <v>2016</v>
+      </c>
+      <c r="F454">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="455" spans="1:6">
+      <c r="A455" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B455">
+        <v>55</v>
+      </c>
+      <c r="C455" t="s">
+        <v>58</v>
+      </c>
+      <c r="D455" t="s">
+        <v>36</v>
+      </c>
+      <c r="E455">
+        <v>2012</v>
+      </c>
+      <c r="F455">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="456" spans="1:6">
+      <c r="A456" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B456">
+        <v>55</v>
+      </c>
+      <c r="C456" t="s">
+        <v>58</v>
+      </c>
+      <c r="D456" t="s">
+        <v>36</v>
+      </c>
+      <c r="E456">
+        <v>2009</v>
+      </c>
+      <c r="F456">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="457" spans="1:6">
+      <c r="A457" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B457">
+        <v>25</v>
+      </c>
+      <c r="C457" t="s">
+        <v>58</v>
+      </c>
+      <c r="D457" t="s">
+        <v>36</v>
+      </c>
+      <c r="E457">
+        <v>2015</v>
+      </c>
+      <c r="F457">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="458" spans="1:6">
+      <c r="A458" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B458">
+        <v>80</v>
+      </c>
+      <c r="C458" t="s">
+        <v>58</v>
+      </c>
+      <c r="D458" t="s">
+        <v>36</v>
+      </c>
+      <c r="E458">
+        <v>2014</v>
+      </c>
+      <c r="F458">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="459" spans="1:6">
+      <c r="A459" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B459">
+        <v>20</v>
+      </c>
+      <c r="C459" t="s">
+        <v>58</v>
+      </c>
+      <c r="D459" t="s">
+        <v>36</v>
+      </c>
+      <c r="E459">
+        <v>2014</v>
+      </c>
+      <c r="F459">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="460" spans="1:6">
+      <c r="A460" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B460">
+        <v>40</v>
+      </c>
+      <c r="C460" t="s">
+        <v>58</v>
+      </c>
+      <c r="D460" t="s">
+        <v>36</v>
+      </c>
+      <c r="E460">
+        <v>2012</v>
+      </c>
+      <c r="F460">
+        <v>405</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
